--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,18 +250,18 @@
     <t>Septemvri Sofia</t>
   </si>
   <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Levski Sofia</t>
+  </si>
+  <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Arda</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
-  </si>
-  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['41', '66', '79', '90']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -663,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +904,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1104,7 +1110,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1310,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1516,7 +1522,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1540,7 +1546,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1746,7 +1752,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2158,7 +2164,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2364,7 +2370,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2521,6 +2527,418 @@
       </c>
       <c r="BP9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7455876</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45499.54166666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>4.5</v>
+      </c>
+      <c r="T10">
+        <v>1.44</v>
+      </c>
+      <c r="U10">
+        <v>2.67</v>
+      </c>
+      <c r="V10">
+        <v>3.04</v>
+      </c>
+      <c r="W10">
+        <v>1.35</v>
+      </c>
+      <c r="X10">
+        <v>7.9</v>
+      </c>
+      <c r="Y10">
+        <v>1.06</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>3.4</v>
+      </c>
+      <c r="AB10">
+        <v>3.9</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>8.1</v>
+      </c>
+      <c r="AE10">
+        <v>1.33</v>
+      </c>
+      <c r="AF10">
+        <v>2.93</v>
+      </c>
+      <c r="AG10">
+        <v>2.2</v>
+      </c>
+      <c r="AH10">
+        <v>1.65</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <v>1.73</v>
+      </c>
+      <c r="AK10">
+        <v>1.21</v>
+      </c>
+      <c r="AL10">
+        <v>1.28</v>
+      </c>
+      <c r="AM10">
+        <v>1.91</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>6</v>
+      </c>
+      <c r="AZ10">
+        <v>12</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>3</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7455878</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11">
+        <v>1.53</v>
+      </c>
+      <c r="R11">
+        <v>2.75</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="T11">
+        <v>1.33</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>6.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.11</v>
+      </c>
+      <c r="Z11">
+        <v>1.17</v>
+      </c>
+      <c r="AA11">
+        <v>7</v>
+      </c>
+      <c r="AB11">
+        <v>17</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>15</v>
+      </c>
+      <c r="AE11">
+        <v>1.23</v>
+      </c>
+      <c r="AF11">
+        <v>3.75</v>
+      </c>
+      <c r="AG11">
+        <v>1.67</v>
+      </c>
+      <c r="AH11">
+        <v>2.15</v>
+      </c>
+      <c r="AI11">
+        <v>2.75</v>
+      </c>
+      <c r="AJ11">
+        <v>1.4</v>
+      </c>
+      <c r="AK11">
+        <v>1.03</v>
+      </c>
+      <c r="AL11">
+        <v>1.08</v>
+      </c>
+      <c r="AM11">
+        <v>4.4</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>3</v>
+      </c>
+      <c r="AV11">
+        <v>3</v>
+      </c>
+      <c r="AW11">
+        <v>9</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>12</v>
+      </c>
+      <c r="AZ11">
+        <v>7</v>
+      </c>
+      <c r="BA11">
+        <v>7</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>7</v>
+      </c>
+      <c r="BD11">
+        <v>1.03</v>
+      </c>
+      <c r="BE11">
+        <v>15.25</v>
+      </c>
+      <c r="BF11">
+        <v>14.75</v>
+      </c>
+      <c r="BG11">
+        <v>1.21</v>
+      </c>
+      <c r="BH11">
+        <v>3.74</v>
+      </c>
+      <c r="BI11">
+        <v>1.46</v>
+      </c>
+      <c r="BJ11">
+        <v>2.58</v>
+      </c>
+      <c r="BK11">
+        <v>1.76</v>
+      </c>
+      <c r="BL11">
+        <v>2.02</v>
+      </c>
+      <c r="BM11">
+        <v>2.23</v>
+      </c>
+      <c r="BN11">
+        <v>1.62</v>
+      </c>
+      <c r="BO11">
+        <v>2.93</v>
+      </c>
+      <c r="BP11">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,6 +256,9 @@
     <t>Levski Sofia</t>
   </si>
   <si>
+    <t>CSKA Sofia</t>
+  </si>
+  <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>CSKA Sofia</t>
-  </si>
-  <si>
     <t>Spartak Varna</t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>['41', '66', '79', '90']</t>
   </si>
   <si>
+    <t>['18', '43', '81']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +910,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1110,7 +1116,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1546,7 +1552,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1728,7 +1734,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1752,7 +1758,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -1934,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2164,7 +2170,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2370,7 +2376,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2939,6 +2945,212 @@
       </c>
       <c r="BP11">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7455874</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45500.54166666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12">
+        <v>1.44</v>
+      </c>
+      <c r="R12">
+        <v>3.1</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>1.29</v>
+      </c>
+      <c r="U12">
+        <v>3.5</v>
+      </c>
+      <c r="V12">
+        <v>2.25</v>
+      </c>
+      <c r="W12">
+        <v>1.57</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.14</v>
+      </c>
+      <c r="Z12">
+        <v>1.13</v>
+      </c>
+      <c r="AA12">
+        <v>7.5</v>
+      </c>
+      <c r="AB12">
+        <v>21</v>
+      </c>
+      <c r="AC12">
+        <v>1.02</v>
+      </c>
+      <c r="AD12">
+        <v>20</v>
+      </c>
+      <c r="AE12">
+        <v>1.17</v>
+      </c>
+      <c r="AF12">
+        <v>4.5</v>
+      </c>
+      <c r="AG12">
+        <v>1.44</v>
+      </c>
+      <c r="AH12">
+        <v>2.7</v>
+      </c>
+      <c r="AI12">
+        <v>2.5</v>
+      </c>
+      <c r="AJ12">
+        <v>1.5</v>
+      </c>
+      <c r="AK12">
+        <v>1.04</v>
+      </c>
+      <c r="AL12">
+        <v>1.08</v>
+      </c>
+      <c r="AM12">
+        <v>4.4</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>11</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>8</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+      <c r="AY12">
+        <v>19</v>
+      </c>
+      <c r="AZ12">
+        <v>5</v>
+      </c>
+      <c r="BA12">
+        <v>10</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>11</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,12 +262,12 @@
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
     <t>Spartak Varna</t>
   </si>
   <si>
@@ -301,6 +301,12 @@
     <t>['18', '43', '81']</t>
   </si>
   <si>
+    <t>['16', '45']</t>
+  </si>
+  <si>
+    <t>['17', '72']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -314,6 +320,12 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['41', '72']</t>
+  </si>
+  <si>
+    <t>['56', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,7 +1128,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1552,7 +1564,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1734,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1758,7 +1770,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2170,7 +2182,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2251,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2376,7 +2388,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2994,7 +3006,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3151,6 +3163,418 @@
       </c>
       <c r="BP12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7455873</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45501.54166666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13">
+        <v>3.1</v>
+      </c>
+      <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
+        <v>4.33</v>
+      </c>
+      <c r="T13">
+        <v>1.44</v>
+      </c>
+      <c r="U13">
+        <v>2.63</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+      <c r="Y13">
+        <v>1.07</v>
+      </c>
+      <c r="Z13">
+        <v>2.25</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>3.5</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>1.32</v>
+      </c>
+      <c r="AF13">
+        <v>3.1</v>
+      </c>
+      <c r="AG13">
+        <v>2.4</v>
+      </c>
+      <c r="AH13">
+        <v>1.53</v>
+      </c>
+      <c r="AI13">
+        <v>2.1</v>
+      </c>
+      <c r="AJ13">
+        <v>1.67</v>
+      </c>
+      <c r="AK13">
+        <v>1.11</v>
+      </c>
+      <c r="AL13">
+        <v>1.24</v>
+      </c>
+      <c r="AM13">
+        <v>2.38</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1.99</v>
+      </c>
+      <c r="AT13">
+        <v>1.99</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>11</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7455877</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45501.63541666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14">
+        <v>2.1</v>
+      </c>
+      <c r="S14">
+        <v>4.75</v>
+      </c>
+      <c r="T14">
+        <v>1.44</v>
+      </c>
+      <c r="U14">
+        <v>2.63</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <v>1.07</v>
+      </c>
+      <c r="Z14">
+        <v>1.83</v>
+      </c>
+      <c r="AA14">
+        <v>3.5</v>
+      </c>
+      <c r="AB14">
+        <v>4.33</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>8.4</v>
+      </c>
+      <c r="AE14">
+        <v>1.31</v>
+      </c>
+      <c r="AF14">
+        <v>3.04</v>
+      </c>
+      <c r="AG14">
+        <v>2.05</v>
+      </c>
+      <c r="AH14">
+        <v>1.75</v>
+      </c>
+      <c r="AI14">
+        <v>1.83</v>
+      </c>
+      <c r="AJ14">
+        <v>1.83</v>
+      </c>
+      <c r="AK14">
+        <v>1.24</v>
+      </c>
+      <c r="AL14">
+        <v>1.28</v>
+      </c>
+      <c r="AM14">
+        <v>1.85</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>8</v>
+      </c>
+      <c r="AY14">
+        <v>11</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
+        <v>11</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>13</v>
+      </c>
+      <c r="BD14">
+        <v>1.58</v>
+      </c>
+      <c r="BE14">
+        <v>6.75</v>
+      </c>
+      <c r="BF14">
+        <v>3.08</v>
+      </c>
+      <c r="BG14">
+        <v>1.3</v>
+      </c>
+      <c r="BH14">
+        <v>3.2</v>
+      </c>
+      <c r="BI14">
+        <v>1.53</v>
+      </c>
+      <c r="BJ14">
+        <v>2.43</v>
+      </c>
+      <c r="BK14">
+        <v>1.9</v>
+      </c>
+      <c r="BL14">
+        <v>1.9</v>
+      </c>
+      <c r="BM14">
+        <v>2.4</v>
+      </c>
+      <c r="BN14">
+        <v>1.55</v>
+      </c>
+      <c r="BO14">
+        <v>3</v>
+      </c>
+      <c r="BP14">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -265,15 +265,15 @@
     <t>Botev Plovdiv</t>
   </si>
   <si>
+    <t>Beroe</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Spartak Varna</t>
   </si>
   <si>
-    <t>Beroe</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>['17', '72']</t>
+  </si>
+  <si>
+    <t>['55', '87']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1128,7 +1131,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1564,7 +1567,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1770,7 +1773,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2158,7 +2161,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2182,7 +2185,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2364,7 +2367,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2388,7 +2391,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3006,7 +3009,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3188,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -3212,7 +3215,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3418,7 +3421,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3575,6 +3578,418 @@
       </c>
       <c r="BP14">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7455879</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45502.54166666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15">
+        <v>2.88</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>4.5</v>
+      </c>
+      <c r="T15">
+        <v>1.53</v>
+      </c>
+      <c r="U15">
+        <v>2.38</v>
+      </c>
+      <c r="V15">
+        <v>3.5</v>
+      </c>
+      <c r="W15">
+        <v>1.29</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+      <c r="Y15">
+        <v>1.05</v>
+      </c>
+      <c r="Z15">
+        <v>2.1</v>
+      </c>
+      <c r="AA15">
+        <v>3.1</v>
+      </c>
+      <c r="AB15">
+        <v>3.75</v>
+      </c>
+      <c r="AC15">
+        <v>1.06</v>
+      </c>
+      <c r="AD15">
+        <v>6.8</v>
+      </c>
+      <c r="AE15">
+        <v>1.45</v>
+      </c>
+      <c r="AF15">
+        <v>2.65</v>
+      </c>
+      <c r="AG15">
+        <v>2.5</v>
+      </c>
+      <c r="AH15">
+        <v>1.5</v>
+      </c>
+      <c r="AI15">
+        <v>2.2</v>
+      </c>
+      <c r="AJ15">
+        <v>1.62</v>
+      </c>
+      <c r="AK15">
+        <v>1.28</v>
+      </c>
+      <c r="AL15">
+        <v>1.3</v>
+      </c>
+      <c r="AM15">
+        <v>1.65</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>11</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>15</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>6</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7455880</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45502.63541666666</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16">
+        <v>1.8</v>
+      </c>
+      <c r="R16">
+        <v>2.4</v>
+      </c>
+      <c r="S16">
+        <v>9.5</v>
+      </c>
+      <c r="T16">
+        <v>1.4</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>1.36</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>1.08</v>
+      </c>
+      <c r="Z16">
+        <v>1.25</v>
+      </c>
+      <c r="AA16">
+        <v>4.75</v>
+      </c>
+      <c r="AB16">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE16">
+        <v>1.3</v>
+      </c>
+      <c r="AF16">
+        <v>3.3</v>
+      </c>
+      <c r="AG16">
+        <v>1.85</v>
+      </c>
+      <c r="AH16">
+        <v>1.85</v>
+      </c>
+      <c r="AI16">
+        <v>2.38</v>
+      </c>
+      <c r="AJ16">
+        <v>1.53</v>
+      </c>
+      <c r="AK16">
+        <v>1.06</v>
+      </c>
+      <c r="AL16">
+        <v>1.16</v>
+      </c>
+      <c r="AM16">
+        <v>2.65</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>2.14</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>2.14</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>12</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>19</v>
+      </c>
+      <c r="AZ16">
+        <v>6</v>
+      </c>
+      <c r="BA16">
+        <v>9</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>12</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['55', '87']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -329,6 +332,12 @@
   </si>
   <si>
     <t>['56', '90+2']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['9', '85']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1439,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1567,7 +1576,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1773,7 +1782,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2185,7 +2194,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2263,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2391,7 +2400,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3009,7 +3018,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3215,7 +3224,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3421,7 +3430,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3990,6 +3999,418 @@
       </c>
       <c r="BP16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7455887</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45506.54166666666</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17">
+        <v>7.8</v>
+      </c>
+      <c r="R17">
+        <v>2.24</v>
+      </c>
+      <c r="S17">
+        <v>2.28</v>
+      </c>
+      <c r="T17">
+        <v>1.57</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>3.75</v>
+      </c>
+      <c r="W17">
+        <v>1.25</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
+        <v>1.05</v>
+      </c>
+      <c r="Z17">
+        <v>7.8</v>
+      </c>
+      <c r="AA17">
+        <v>4.1</v>
+      </c>
+      <c r="AB17">
+        <v>1.58</v>
+      </c>
+      <c r="AC17">
+        <v>1.1</v>
+      </c>
+      <c r="AD17">
+        <v>9.4</v>
+      </c>
+      <c r="AE17">
+        <v>1.45</v>
+      </c>
+      <c r="AF17">
+        <v>2.96</v>
+      </c>
+      <c r="AG17">
+        <v>2.38</v>
+      </c>
+      <c r="AH17">
+        <v>1.66</v>
+      </c>
+      <c r="AI17">
+        <v>2.44</v>
+      </c>
+      <c r="AJ17">
+        <v>1.63</v>
+      </c>
+      <c r="AK17">
+        <v>2.72</v>
+      </c>
+      <c r="AL17">
+        <v>1.31</v>
+      </c>
+      <c r="AM17">
+        <v>1.12</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17">
+        <v>1.05</v>
+      </c>
+      <c r="AS17">
+        <v>1.68</v>
+      </c>
+      <c r="AT17">
+        <v>2.73</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>7</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
+      <c r="AY17">
+        <v>4</v>
+      </c>
+      <c r="AZ17">
+        <v>12</v>
+      </c>
+      <c r="BA17">
+        <v>10</v>
+      </c>
+      <c r="BB17">
+        <v>10</v>
+      </c>
+      <c r="BC17">
+        <v>20</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7455884</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>2.1</v>
+      </c>
+      <c r="S18">
+        <v>2.2</v>
+      </c>
+      <c r="T18">
+        <v>1.44</v>
+      </c>
+      <c r="U18">
+        <v>2.63</v>
+      </c>
+      <c r="V18">
+        <v>3.25</v>
+      </c>
+      <c r="W18">
+        <v>1.33</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>1.07</v>
+      </c>
+      <c r="Z18">
+        <v>5.75</v>
+      </c>
+      <c r="AA18">
+        <v>3.7</v>
+      </c>
+      <c r="AB18">
+        <v>1.6</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>9.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.35</v>
+      </c>
+      <c r="AF18">
+        <v>2.95</v>
+      </c>
+      <c r="AG18">
+        <v>2.1</v>
+      </c>
+      <c r="AH18">
+        <v>1.7</v>
+      </c>
+      <c r="AI18">
+        <v>2.1</v>
+      </c>
+      <c r="AJ18">
+        <v>1.67</v>
+      </c>
+      <c r="AK18">
+        <v>2.38</v>
+      </c>
+      <c r="AL18">
+        <v>1.29</v>
+      </c>
+      <c r="AM18">
+        <v>1.12</v>
+      </c>
+      <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>1.14</v>
+      </c>
+      <c r="AS18">
+        <v>2.06</v>
+      </c>
+      <c r="AT18">
+        <v>3.2</v>
+      </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>13</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>9</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>22</v>
+      </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>8</v>
+      </c>
+      <c r="BD18">
+        <v>4.55</v>
+      </c>
+      <c r="BE18">
+        <v>7.5</v>
+      </c>
+      <c r="BF18">
+        <v>1.33</v>
+      </c>
+      <c r="BG18">
+        <v>1.38</v>
+      </c>
+      <c r="BH18">
+        <v>2.8</v>
+      </c>
+      <c r="BI18">
+        <v>1.67</v>
+      </c>
+      <c r="BJ18">
+        <v>2.1</v>
+      </c>
+      <c r="BK18">
+        <v>2.1</v>
+      </c>
+      <c r="BL18">
+        <v>1.67</v>
+      </c>
+      <c r="BM18">
+        <v>2.62</v>
+      </c>
+      <c r="BN18">
+        <v>1.42</v>
+      </c>
+      <c r="BO18">
+        <v>3.6</v>
+      </c>
+      <c r="BP18">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,12 +268,12 @@
     <t>Beroe</t>
   </si>
   <si>
+    <t>Spartak Varna</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Spartak Varna</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -313,6 +313,12 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['14', '39', '59']</t>
+  </si>
+  <si>
+    <t>['8', '44', '47', '57', '73']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -338,6 +344,9 @@
   </si>
   <si>
     <t>['9', '85']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -699,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,7 +1149,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1576,7 +1585,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1782,7 +1791,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2170,7 +2179,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2194,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2400,7 +2409,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3018,7 +3027,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3200,7 +3209,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -3224,7 +3233,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3430,7 +3439,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4024,7 +4033,7 @@
         <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4048,7 +4057,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4254,7 +4263,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4411,6 +4420,418 @@
       </c>
       <c r="BP18">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7455888</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19">
+        <v>7.5</v>
+      </c>
+      <c r="R19">
+        <v>2.25</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>1.44</v>
+      </c>
+      <c r="U19">
+        <v>2.63</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>1.36</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+      <c r="Y19">
+        <v>1.07</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+      <c r="AA19">
+        <v>4.1</v>
+      </c>
+      <c r="AB19">
+        <v>1.44</v>
+      </c>
+      <c r="AC19">
+        <v>1.07</v>
+      </c>
+      <c r="AD19">
+        <v>8.5</v>
+      </c>
+      <c r="AE19">
+        <v>1.33</v>
+      </c>
+      <c r="AF19">
+        <v>3.25</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>1.8</v>
+      </c>
+      <c r="AI19">
+        <v>2.2</v>
+      </c>
+      <c r="AJ19">
+        <v>1.62</v>
+      </c>
+      <c r="AK19">
+        <v>2.75</v>
+      </c>
+      <c r="AL19">
+        <v>1.2</v>
+      </c>
+      <c r="AM19">
+        <v>1.08</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1.17</v>
+      </c>
+      <c r="AT19">
+        <v>1.17</v>
+      </c>
+      <c r="AU19">
+        <v>9</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>12</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>5</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7455886</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45507.63541666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20">
+        <v>1.8</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>8.5</v>
+      </c>
+      <c r="T20">
+        <v>1.29</v>
+      </c>
+      <c r="U20">
+        <v>3.5</v>
+      </c>
+      <c r="V20">
+        <v>2.38</v>
+      </c>
+      <c r="W20">
+        <v>1.53</v>
+      </c>
+      <c r="X20">
+        <v>5.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.14</v>
+      </c>
+      <c r="Z20">
+        <v>1.3</v>
+      </c>
+      <c r="AA20">
+        <v>5.25</v>
+      </c>
+      <c r="AB20">
+        <v>9</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>14.6</v>
+      </c>
+      <c r="AE20">
+        <v>1.18</v>
+      </c>
+      <c r="AF20">
+        <v>4.5</v>
+      </c>
+      <c r="AG20">
+        <v>1.67</v>
+      </c>
+      <c r="AH20">
+        <v>2.15</v>
+      </c>
+      <c r="AI20">
+        <v>2.1</v>
+      </c>
+      <c r="AJ20">
+        <v>1.67</v>
+      </c>
+      <c r="AK20">
+        <v>1.05</v>
+      </c>
+      <c r="AL20">
+        <v>1.14</v>
+      </c>
+      <c r="AM20">
+        <v>3.5</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1.29</v>
+      </c>
+      <c r="AS20">
+        <v>1.28</v>
+      </c>
+      <c r="AT20">
+        <v>2.57</v>
+      </c>
+      <c r="AU20">
+        <v>9</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>3</v>
+      </c>
+      <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
+        <v>5</v>
+      </c>
+      <c r="BA20">
+        <v>3</v>
+      </c>
+      <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,9 @@
     <t>['8', '44', '47', '57', '73']</t>
   </si>
   <si>
+    <t>['52', '90']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -347,6 +350,12 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1585,7 +1594,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1663,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>3</v>
@@ -1791,7 +1800,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2203,7 +2212,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2409,7 +2418,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3027,7 +3036,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3233,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3439,7 +3448,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4057,7 +4066,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4263,7 +4272,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4675,7 +4684,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4831,6 +4840,418 @@
         <v>0</v>
       </c>
       <c r="BP20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7455882</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45508.54166666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>2.25</v>
+      </c>
+      <c r="S21">
+        <v>2.2</v>
+      </c>
+      <c r="T21">
+        <v>1.5</v>
+      </c>
+      <c r="U21">
+        <v>2.5</v>
+      </c>
+      <c r="V21">
+        <v>3.4</v>
+      </c>
+      <c r="W21">
+        <v>1.3</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>1.06</v>
+      </c>
+      <c r="Z21">
+        <v>6.25</v>
+      </c>
+      <c r="AA21">
+        <v>3.8</v>
+      </c>
+      <c r="AB21">
+        <v>1.55</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>7.8</v>
+      </c>
+      <c r="AE21">
+        <v>1.35</v>
+      </c>
+      <c r="AF21">
+        <v>2.9</v>
+      </c>
+      <c r="AG21">
+        <v>1.95</v>
+      </c>
+      <c r="AH21">
+        <v>1.85</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>1.73</v>
+      </c>
+      <c r="AK21">
+        <v>2.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.29</v>
+      </c>
+      <c r="AM21">
+        <v>1.12</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1.21</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>1.21</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>3</v>
+      </c>
+      <c r="AX21">
+        <v>8</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <v>11</v>
+      </c>
+      <c r="BA21">
+        <v>3</v>
+      </c>
+      <c r="BB21">
+        <v>9</v>
+      </c>
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7455885</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45508.63541666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>2.75</v>
+      </c>
+      <c r="T22">
+        <v>1.4</v>
+      </c>
+      <c r="U22">
+        <v>2.75</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>1.08</v>
+      </c>
+      <c r="Z22">
+        <v>3.5</v>
+      </c>
+      <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
+        <v>2.05</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>8.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.28</v>
+      </c>
+      <c r="AF22">
+        <v>3.3</v>
+      </c>
+      <c r="AG22">
+        <v>2.05</v>
+      </c>
+      <c r="AH22">
+        <v>1.75</v>
+      </c>
+      <c r="AI22">
+        <v>1.83</v>
+      </c>
+      <c r="AJ22">
+        <v>1.83</v>
+      </c>
+      <c r="AK22">
+        <v>1.77</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
+        <v>1.22</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>1.5</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>1.4</v>
+      </c>
+      <c r="AS22">
+        <v>1.49</v>
+      </c>
+      <c r="AT22">
+        <v>2.89</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>7</v>
+      </c>
+      <c r="AX22">
+        <v>11</v>
+      </c>
+      <c r="AY22">
+        <v>11</v>
+      </c>
+      <c r="AZ22">
+        <v>16</v>
+      </c>
+      <c r="BA22">
+        <v>3</v>
+      </c>
+      <c r="BB22">
+        <v>11</v>
+      </c>
+      <c r="BC22">
+        <v>14</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,9 @@
     <t>['52', '90']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['20', '88']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1600,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1800,7 +1806,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2212,7 +2218,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2418,7 +2424,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3036,7 +3042,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3242,7 +3248,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3448,7 +3454,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4066,7 +4072,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4272,7 +4278,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4684,7 +4690,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4890,7 +4896,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5096,7 +5102,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5253,6 +5259,212 @@
       </c>
       <c r="BP22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7455883</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45509.63541666666</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23">
+        <v>3.6</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>3.4</v>
+      </c>
+      <c r="T23">
+        <v>1.53</v>
+      </c>
+      <c r="U23">
+        <v>2.38</v>
+      </c>
+      <c r="V23">
+        <v>3.5</v>
+      </c>
+      <c r="W23">
+        <v>1.29</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>1.05</v>
+      </c>
+      <c r="Z23">
+        <v>2.88</v>
+      </c>
+      <c r="AA23">
+        <v>3.2</v>
+      </c>
+      <c r="AB23">
+        <v>2.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.06</v>
+      </c>
+      <c r="AD23">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>1.44</v>
+      </c>
+      <c r="AF23">
+        <v>2.65</v>
+      </c>
+      <c r="AG23">
+        <v>2.4</v>
+      </c>
+      <c r="AH23">
+        <v>1.53</v>
+      </c>
+      <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AJ23">
+        <v>1.73</v>
+      </c>
+      <c r="AK23">
+        <v>1.25</v>
+      </c>
+      <c r="AL23">
+        <v>1.35</v>
+      </c>
+      <c r="AM23">
+        <v>1.5</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0.89</v>
+      </c>
+      <c r="AS23">
+        <v>1.35</v>
+      </c>
+      <c r="AT23">
+        <v>2.24</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>6</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>6</v>
+      </c>
+      <c r="BD23">
+        <v>2.25</v>
+      </c>
+      <c r="BE23">
+        <v>7.1</v>
+      </c>
+      <c r="BF23">
+        <v>1.95</v>
+      </c>
+      <c r="BG23">
+        <v>1.33</v>
+      </c>
+      <c r="BH23">
+        <v>3</v>
+      </c>
+      <c r="BI23">
+        <v>1.58</v>
+      </c>
+      <c r="BJ23">
+        <v>2.23</v>
+      </c>
+      <c r="BK23">
+        <v>1.96</v>
+      </c>
+      <c r="BL23">
+        <v>1.75</v>
+      </c>
+      <c r="BM23">
+        <v>2.5</v>
+      </c>
+      <c r="BN23">
+        <v>1.47</v>
+      </c>
+      <c r="BO23">
+        <v>3.3</v>
+      </c>
+      <c r="BP23">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,12 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['10', '45+1', '49']</t>
+  </si>
+  <si>
+    <t>['37', '52']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -362,6 +368,12 @@
   </si>
   <si>
     <t>['20', '88']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1612,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1806,7 +1818,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2218,7 +2230,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2299,7 +2311,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2424,7 +2436,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3042,7 +3054,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3248,7 +3260,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3329,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3454,7 +3466,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4072,7 +4084,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4278,7 +4290,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4690,7 +4702,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4896,7 +4908,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5102,7 +5114,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5308,7 +5320,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5465,6 +5477,418 @@
       </c>
       <c r="BP23">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7455890</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45513.54166666666</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24">
+        <v>3.4</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>3.6</v>
+      </c>
+      <c r="T24">
+        <v>1.5</v>
+      </c>
+      <c r="U24">
+        <v>2.5</v>
+      </c>
+      <c r="V24">
+        <v>3.4</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>1.06</v>
+      </c>
+      <c r="Z24">
+        <v>2.63</v>
+      </c>
+      <c r="AA24">
+        <v>3.1</v>
+      </c>
+      <c r="AB24">
+        <v>2.8</v>
+      </c>
+      <c r="AC24">
+        <v>1.04</v>
+      </c>
+      <c r="AD24">
+        <v>7.4</v>
+      </c>
+      <c r="AE24">
+        <v>1.38</v>
+      </c>
+      <c r="AF24">
+        <v>2.71</v>
+      </c>
+      <c r="AG24">
+        <v>2.4</v>
+      </c>
+      <c r="AH24">
+        <v>1.53</v>
+      </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.73</v>
+      </c>
+      <c r="AK24">
+        <v>1.21</v>
+      </c>
+      <c r="AL24">
+        <v>1.3</v>
+      </c>
+      <c r="AM24">
+        <v>1.88</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>2</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>1.33</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1.36</v>
+      </c>
+      <c r="AT24">
+        <v>1.36</v>
+      </c>
+      <c r="AU24">
+        <v>9</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>5</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7455891</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>2.05</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>7.5</v>
+      </c>
+      <c r="T25">
+        <v>1.37</v>
+      </c>
+      <c r="U25">
+        <v>2.95</v>
+      </c>
+      <c r="V25">
+        <v>2.74</v>
+      </c>
+      <c r="W25">
+        <v>1.42</v>
+      </c>
+      <c r="X25">
+        <v>6.85</v>
+      </c>
+      <c r="Y25">
+        <v>1.08</v>
+      </c>
+      <c r="Z25">
+        <v>1.45</v>
+      </c>
+      <c r="AA25">
+        <v>4.1</v>
+      </c>
+      <c r="AB25">
+        <v>7.5</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>9.4</v>
+      </c>
+      <c r="AE25">
+        <v>1.26</v>
+      </c>
+      <c r="AF25">
+        <v>3.34</v>
+      </c>
+      <c r="AG25">
+        <v>2.2</v>
+      </c>
+      <c r="AH25">
+        <v>1.65</v>
+      </c>
+      <c r="AI25">
+        <v>2.5</v>
+      </c>
+      <c r="AJ25">
+        <v>1.5</v>
+      </c>
+      <c r="AK25">
+        <v>1.04</v>
+      </c>
+      <c r="AL25">
+        <v>1.16</v>
+      </c>
+      <c r="AM25">
+        <v>3.16</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1.06</v>
+      </c>
+      <c r="AS25">
+        <v>0.71</v>
+      </c>
+      <c r="AT25">
+        <v>1.77</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>13</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['37', '52']</t>
   </si>
   <si>
+    <t>['10', '59', '90+4']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -374,6 +377,9 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['58', '88']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1618,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1818,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2230,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2436,7 +2442,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3054,7 +3060,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3260,7 +3266,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3466,7 +3472,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3547,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3750,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4084,7 +4090,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4290,7 +4296,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4702,7 +4708,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4908,7 +4914,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5114,7 +5120,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5320,7 +5326,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5526,7 +5532,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5732,7 +5738,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5888,6 +5894,418 @@
         <v>0</v>
       </c>
       <c r="BP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7455894</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26">
+        <v>3.5</v>
+      </c>
+      <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>3.5</v>
+      </c>
+      <c r="T26">
+        <v>1.5</v>
+      </c>
+      <c r="U26">
+        <v>2.5</v>
+      </c>
+      <c r="V26">
+        <v>3.5</v>
+      </c>
+      <c r="W26">
+        <v>1.29</v>
+      </c>
+      <c r="X26">
+        <v>11</v>
+      </c>
+      <c r="Y26">
+        <v>1.05</v>
+      </c>
+      <c r="Z26">
+        <v>2.7</v>
+      </c>
+      <c r="AA26">
+        <v>3.25</v>
+      </c>
+      <c r="AB26">
+        <v>2.63</v>
+      </c>
+      <c r="AC26">
+        <v>1.05</v>
+      </c>
+      <c r="AD26">
+        <v>7.1</v>
+      </c>
+      <c r="AE26">
+        <v>1.41</v>
+      </c>
+      <c r="AF26">
+        <v>2.6</v>
+      </c>
+      <c r="AG26">
+        <v>2.35</v>
+      </c>
+      <c r="AH26">
+        <v>1.57</v>
+      </c>
+      <c r="AI26">
+        <v>2</v>
+      </c>
+      <c r="AJ26">
+        <v>1.73</v>
+      </c>
+      <c r="AK26">
+        <v>1.47</v>
+      </c>
+      <c r="AL26">
+        <v>1.34</v>
+      </c>
+      <c r="AM26">
+        <v>1.43</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0.5</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>1.84</v>
+      </c>
+      <c r="AS26">
+        <v>1.42</v>
+      </c>
+      <c r="AT26">
+        <v>3.26</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>3</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>8</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>5</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>5</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7455893</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45514.63541666666</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27">
+        <v>1.8</v>
+      </c>
+      <c r="R27">
+        <v>2.4</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>1.36</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2.75</v>
+      </c>
+      <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.29</v>
+      </c>
+      <c r="AA27">
+        <v>5.75</v>
+      </c>
+      <c r="AB27">
+        <v>9</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>13</v>
+      </c>
+      <c r="AE27">
+        <v>1.28</v>
+      </c>
+      <c r="AF27">
+        <v>3.4</v>
+      </c>
+      <c r="AG27">
+        <v>1.85</v>
+      </c>
+      <c r="AH27">
+        <v>1.95</v>
+      </c>
+      <c r="AI27">
+        <v>2.63</v>
+      </c>
+      <c r="AJ27">
+        <v>1.44</v>
+      </c>
+      <c r="AK27">
+        <v>1.01</v>
+      </c>
+      <c r="AL27">
+        <v>1.11</v>
+      </c>
+      <c r="AM27">
+        <v>4.57</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1.64</v>
+      </c>
+      <c r="AS27">
+        <v>1.64</v>
+      </c>
+      <c r="AT27">
+        <v>3.28</v>
+      </c>
+      <c r="AU27">
+        <v>9</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>12</v>
+      </c>
+      <c r="AX27">
+        <v>5</v>
+      </c>
+      <c r="AY27">
+        <v>21</v>
+      </c>
+      <c r="AZ27">
+        <v>7</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>9</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -331,7 +331,7 @@
     <t>['37', '52']</t>
   </si>
   <si>
-    <t>['10', '59', '90+4']</t>
+    <t>['10', '59', '90+3']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,9 @@
     <t>['10', '59', '90+3']</t>
   </si>
   <si>
+    <t>['40', '70']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -380,6 +383,9 @@
   </si>
   <si>
     <t>['58', '88']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1618,7 +1624,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1824,7 +1830,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2236,7 +2242,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2442,7 +2448,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3060,7 +3066,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3266,7 +3272,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3472,7 +3478,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3759,7 +3765,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3962,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4090,7 +4096,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4296,7 +4302,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4708,7 +4714,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4914,7 +4920,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5120,7 +5126,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5326,7 +5332,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5532,7 +5538,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5738,7 +5744,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5944,7 +5950,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6307,6 +6313,418 @@
       </c>
       <c r="BP27">
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7455896</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45516.54166666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q28">
+        <v>3.75</v>
+      </c>
+      <c r="R28">
+        <v>1.91</v>
+      </c>
+      <c r="S28">
+        <v>3.4</v>
+      </c>
+      <c r="T28">
+        <v>1.53</v>
+      </c>
+      <c r="U28">
+        <v>2.38</v>
+      </c>
+      <c r="V28">
+        <v>3.5</v>
+      </c>
+      <c r="W28">
+        <v>1.29</v>
+      </c>
+      <c r="X28">
+        <v>11</v>
+      </c>
+      <c r="Y28">
+        <v>1.05</v>
+      </c>
+      <c r="Z28">
+        <v>2.88</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <v>2.6</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>7.1</v>
+      </c>
+      <c r="AE28">
+        <v>1.42</v>
+      </c>
+      <c r="AF28">
+        <v>2.7</v>
+      </c>
+      <c r="AG28">
+        <v>2.5</v>
+      </c>
+      <c r="AH28">
+        <v>1.5</v>
+      </c>
+      <c r="AI28">
+        <v>2.1</v>
+      </c>
+      <c r="AJ28">
+        <v>1.67</v>
+      </c>
+      <c r="AK28">
+        <v>1.33</v>
+      </c>
+      <c r="AL28">
+        <v>1.3</v>
+      </c>
+      <c r="AM28">
+        <v>1.55</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>1.04</v>
+      </c>
+      <c r="AS28">
+        <v>0.84</v>
+      </c>
+      <c r="AT28">
+        <v>1.88</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>7</v>
+      </c>
+      <c r="AX28">
+        <v>7</v>
+      </c>
+      <c r="AY28">
+        <v>7</v>
+      </c>
+      <c r="AZ28">
+        <v>12</v>
+      </c>
+      <c r="BA28">
+        <v>2</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>6</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7455895</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29">
+        <v>1.83</v>
+      </c>
+      <c r="R29">
+        <v>2.4</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>1.4</v>
+      </c>
+      <c r="U29">
+        <v>2.75</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>1.36</v>
+      </c>
+      <c r="X29">
+        <v>8</v>
+      </c>
+      <c r="Y29">
+        <v>1.08</v>
+      </c>
+      <c r="Z29">
+        <v>1.36</v>
+      </c>
+      <c r="AA29">
+        <v>4.5</v>
+      </c>
+      <c r="AB29">
+        <v>9.5</v>
+      </c>
+      <c r="AC29">
+        <v>1.02</v>
+      </c>
+      <c r="AD29">
+        <v>8.9</v>
+      </c>
+      <c r="AE29">
+        <v>1.3</v>
+      </c>
+      <c r="AF29">
+        <v>3.3</v>
+      </c>
+      <c r="AG29">
+        <v>1.8</v>
+      </c>
+      <c r="AH29">
+        <v>2</v>
+      </c>
+      <c r="AI29">
+        <v>2.1</v>
+      </c>
+      <c r="AJ29">
+        <v>1.67</v>
+      </c>
+      <c r="AK29">
+        <v>1.01</v>
+      </c>
+      <c r="AL29">
+        <v>1.12</v>
+      </c>
+      <c r="AM29">
+        <v>3.3</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2.33</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>2.31</v>
+      </c>
+      <c r="AS29">
+        <v>0.91</v>
+      </c>
+      <c r="AT29">
+        <v>3.22</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>8</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>13</v>
+      </c>
+      <c r="AZ29">
+        <v>7</v>
+      </c>
+      <c r="BA29">
+        <v>5</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>6</v>
+      </c>
+      <c r="BD29">
+        <v>1.1</v>
+      </c>
+      <c r="BE29">
+        <v>11.5</v>
+      </c>
+      <c r="BF29">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG29">
+        <v>1.21</v>
+      </c>
+      <c r="BH29">
+        <v>3.74</v>
+      </c>
+      <c r="BI29">
+        <v>1.41</v>
+      </c>
+      <c r="BJ29">
+        <v>2.6</v>
+      </c>
+      <c r="BK29">
+        <v>1.78</v>
+      </c>
+      <c r="BL29">
+        <v>2.01</v>
+      </c>
+      <c r="BM29">
+        <v>2.24</v>
+      </c>
+      <c r="BN29">
+        <v>1.61</v>
+      </c>
+      <c r="BO29">
+        <v>2.93</v>
+      </c>
+      <c r="BP29">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,9 @@
     <t>['40', '70']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1290,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1624,7 +1630,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1830,7 +1836,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2242,7 +2248,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2448,7 +2454,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3066,7 +3072,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3272,7 +3278,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3478,7 +3484,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4096,7 +4102,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4302,7 +4308,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4714,7 +4720,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4920,7 +4926,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5126,7 +5132,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5204,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5332,7 +5338,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5538,7 +5544,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5744,7 +5750,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5950,7 +5956,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6568,7 +6574,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6725,6 +6731,418 @@
       </c>
       <c r="BP29">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7455903</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45520.54166666666</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30">
+        <v>2.88</v>
+      </c>
+      <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
+        <v>4.33</v>
+      </c>
+      <c r="T30">
+        <v>1.5</v>
+      </c>
+      <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>3.5</v>
+      </c>
+      <c r="W30">
+        <v>1.29</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>1.06</v>
+      </c>
+      <c r="Z30">
+        <v>2.1</v>
+      </c>
+      <c r="AA30">
+        <v>3.5</v>
+      </c>
+      <c r="AB30">
+        <v>3.3</v>
+      </c>
+      <c r="AC30">
+        <v>1.07</v>
+      </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>1.42</v>
+      </c>
+      <c r="AF30">
+        <v>2.65</v>
+      </c>
+      <c r="AG30">
+        <v>2.2</v>
+      </c>
+      <c r="AH30">
+        <v>1.65</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
+        <v>1.73</v>
+      </c>
+      <c r="AK30">
+        <v>1.33</v>
+      </c>
+      <c r="AL30">
+        <v>1.32</v>
+      </c>
+      <c r="AM30">
+        <v>1.6</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1.68</v>
+      </c>
+      <c r="AS30">
+        <v>1.02</v>
+      </c>
+      <c r="AT30">
+        <v>2.7</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>4</v>
+      </c>
+      <c r="AY30">
+        <v>9</v>
+      </c>
+      <c r="AZ30">
+        <v>9</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>5</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7455900</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31">
+        <v>2.88</v>
+      </c>
+      <c r="R31">
+        <v>1.91</v>
+      </c>
+      <c r="S31">
+        <v>4.5</v>
+      </c>
+      <c r="T31">
+        <v>1.6</v>
+      </c>
+      <c r="U31">
+        <v>2.28</v>
+      </c>
+      <c r="V31">
+        <v>3.62</v>
+      </c>
+      <c r="W31">
+        <v>1.26</v>
+      </c>
+      <c r="X31">
+        <v>9.9</v>
+      </c>
+      <c r="Y31">
+        <v>1.03</v>
+      </c>
+      <c r="Z31">
+        <v>2.1</v>
+      </c>
+      <c r="AA31">
+        <v>3.1</v>
+      </c>
+      <c r="AB31">
+        <v>3.8</v>
+      </c>
+      <c r="AC31">
+        <v>1.09</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AE31">
+        <v>1.58</v>
+      </c>
+      <c r="AF31">
+        <v>2.25</v>
+      </c>
+      <c r="AG31">
+        <v>2.6</v>
+      </c>
+      <c r="AH31">
+        <v>1.48</v>
+      </c>
+      <c r="AI31">
+        <v>2.2</v>
+      </c>
+      <c r="AJ31">
+        <v>1.62</v>
+      </c>
+      <c r="AK31">
+        <v>1.21</v>
+      </c>
+      <c r="AL31">
+        <v>1.32</v>
+      </c>
+      <c r="AM31">
+        <v>1.82</v>
+      </c>
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>1.39</v>
+      </c>
+      <c r="AS31">
+        <v>1.11</v>
+      </c>
+      <c r="AT31">
+        <v>2.5</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>16</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>21</v>
+      </c>
+      <c r="AZ31">
+        <v>6</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>8</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1630,7 +1636,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1711,7 +1717,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1836,7 +1842,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2248,7 +2254,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2454,7 +2460,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3072,7 +3078,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3150,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3278,7 +3284,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3484,7 +3490,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4102,7 +4108,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4183,7 +4189,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4308,7 +4314,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4389,7 +4395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4720,7 +4726,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4926,7 +4932,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5132,7 +5138,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5338,7 +5344,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5544,7 +5550,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5750,7 +5756,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5956,7 +5962,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6574,7 +6580,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6986,7 +6992,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7142,6 +7148,418 @@
         <v>0</v>
       </c>
       <c r="BP31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7455904</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45521.54166666666</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32">
+        <v>2.05</v>
+      </c>
+      <c r="R32">
+        <v>2.25</v>
+      </c>
+      <c r="S32">
+        <v>6.5</v>
+      </c>
+      <c r="T32">
+        <v>1.33</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>2.65</v>
+      </c>
+      <c r="W32">
+        <v>1.42</v>
+      </c>
+      <c r="X32">
+        <v>6.3</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>7</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>13</v>
+      </c>
+      <c r="AE32">
+        <v>1.29</v>
+      </c>
+      <c r="AF32">
+        <v>3.3</v>
+      </c>
+      <c r="AG32">
+        <v>1.95</v>
+      </c>
+      <c r="AH32">
+        <v>1.85</v>
+      </c>
+      <c r="AI32">
+        <v>2.1</v>
+      </c>
+      <c r="AJ32">
+        <v>1.67</v>
+      </c>
+      <c r="AK32">
+        <v>1.11</v>
+      </c>
+      <c r="AL32">
+        <v>1.18</v>
+      </c>
+      <c r="AM32">
+        <v>2.75</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0.5</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>1.33</v>
+      </c>
+      <c r="AR32">
+        <v>2.6</v>
+      </c>
+      <c r="AS32">
+        <v>1.77</v>
+      </c>
+      <c r="AT32">
+        <v>4.37</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>11</v>
+      </c>
+      <c r="AW32">
+        <v>14</v>
+      </c>
+      <c r="AX32">
+        <v>7</v>
+      </c>
+      <c r="AY32">
+        <v>20</v>
+      </c>
+      <c r="AZ32">
+        <v>18</v>
+      </c>
+      <c r="BA32">
+        <v>8</v>
+      </c>
+      <c r="BB32">
+        <v>6</v>
+      </c>
+      <c r="BC32">
+        <v>14</v>
+      </c>
+      <c r="BD32">
+        <v>1.42</v>
+      </c>
+      <c r="BE32">
+        <v>7.3</v>
+      </c>
+      <c r="BF32">
+        <v>3.8</v>
+      </c>
+      <c r="BG32">
+        <v>1.23</v>
+      </c>
+      <c r="BH32">
+        <v>3.56</v>
+      </c>
+      <c r="BI32">
+        <v>1.48</v>
+      </c>
+      <c r="BJ32">
+        <v>2.55</v>
+      </c>
+      <c r="BK32">
+        <v>1.82</v>
+      </c>
+      <c r="BL32">
+        <v>1.97</v>
+      </c>
+      <c r="BM32">
+        <v>2.28</v>
+      </c>
+      <c r="BN32">
+        <v>1.59</v>
+      </c>
+      <c r="BO32">
+        <v>3.1</v>
+      </c>
+      <c r="BP32">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7455901</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45521.63541666666</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>3.4</v>
+      </c>
+      <c r="T33">
+        <v>1.38</v>
+      </c>
+      <c r="U33">
+        <v>2.8</v>
+      </c>
+      <c r="V33">
+        <v>2.7</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>7.25</v>
+      </c>
+      <c r="Y33">
+        <v>1.09</v>
+      </c>
+      <c r="Z33">
+        <v>2.35</v>
+      </c>
+      <c r="AA33">
+        <v>3.3</v>
+      </c>
+      <c r="AB33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>1.04</v>
+      </c>
+      <c r="AD33">
+        <v>11.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.27</v>
+      </c>
+      <c r="AF33">
+        <v>3.5</v>
+      </c>
+      <c r="AG33">
+        <v>1.85</v>
+      </c>
+      <c r="AH33">
+        <v>1.95</v>
+      </c>
+      <c r="AI33">
+        <v>1.67</v>
+      </c>
+      <c r="AJ33">
+        <v>2.1</v>
+      </c>
+      <c r="AK33">
+        <v>1.32</v>
+      </c>
+      <c r="AL33">
+        <v>1.28</v>
+      </c>
+      <c r="AM33">
+        <v>1.62</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>1.57</v>
+      </c>
+      <c r="AS33">
+        <v>2.44</v>
+      </c>
+      <c r="AT33">
+        <v>4.01</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>6</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>6</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,7 +340,7 @@
     <t>['10']</t>
   </si>
   <si>
-    <t>['86']</t>
+    <t>['85']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -759,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -7560,6 +7560,418 @@
         <v>0</v>
       </c>
       <c r="BP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7455897</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45522.54166666666</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q34">
+        <v>4.33</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2.88</v>
+      </c>
+      <c r="T34">
+        <v>1.44</v>
+      </c>
+      <c r="U34">
+        <v>2.63</v>
+      </c>
+      <c r="V34">
+        <v>3.25</v>
+      </c>
+      <c r="W34">
+        <v>1.33</v>
+      </c>
+      <c r="X34">
+        <v>9</v>
+      </c>
+      <c r="Y34">
+        <v>1.07</v>
+      </c>
+      <c r="Z34">
+        <v>3.6</v>
+      </c>
+      <c r="AA34">
+        <v>3.3</v>
+      </c>
+      <c r="AB34">
+        <v>2.05</v>
+      </c>
+      <c r="AC34">
+        <v>1.06</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>1.35</v>
+      </c>
+      <c r="AF34">
+        <v>2.95</v>
+      </c>
+      <c r="AG34">
+        <v>2.4</v>
+      </c>
+      <c r="AH34">
+        <v>1.53</v>
+      </c>
+      <c r="AI34">
+        <v>2.1</v>
+      </c>
+      <c r="AJ34">
+        <v>1.67</v>
+      </c>
+      <c r="AK34">
+        <v>1.87</v>
+      </c>
+      <c r="AL34">
+        <v>1.28</v>
+      </c>
+      <c r="AM34">
+        <v>1.22</v>
+      </c>
+      <c r="AN34">
+        <v>1.5</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1.04</v>
+      </c>
+      <c r="AS34">
+        <v>0.91</v>
+      </c>
+      <c r="AT34">
+        <v>1.95</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>7</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>11</v>
+      </c>
+      <c r="BA34">
+        <v>4</v>
+      </c>
+      <c r="BB34">
+        <v>6</v>
+      </c>
+      <c r="BC34">
+        <v>10</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7455902</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45522.63541666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q35">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="R35">
+        <v>2.6</v>
+      </c>
+      <c r="S35">
+        <v>1.89</v>
+      </c>
+      <c r="T35">
+        <v>1.34</v>
+      </c>
+      <c r="U35">
+        <v>3.1</v>
+      </c>
+      <c r="V35">
+        <v>2.6</v>
+      </c>
+      <c r="W35">
+        <v>1.46</v>
+      </c>
+      <c r="X35">
+        <v>6.35</v>
+      </c>
+      <c r="Y35">
+        <v>1.1</v>
+      </c>
+      <c r="Z35">
+        <v>11.5</v>
+      </c>
+      <c r="AA35">
+        <v>5.1</v>
+      </c>
+      <c r="AB35">
+        <v>1.36</v>
+      </c>
+      <c r="AC35">
+        <v>1.05</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35">
+        <v>1.29</v>
+      </c>
+      <c r="AF35">
+        <v>3.9</v>
+      </c>
+      <c r="AG35">
+        <v>1.87</v>
+      </c>
+      <c r="AH35">
+        <v>2.04</v>
+      </c>
+      <c r="AI35">
+        <v>2.2</v>
+      </c>
+      <c r="AJ35">
+        <v>1.68</v>
+      </c>
+      <c r="AK35">
+        <v>3.55</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
+        <v>1.08</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>0.33</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>0.91</v>
+      </c>
+      <c r="AS35">
+        <v>1.74</v>
+      </c>
+      <c r="AT35">
+        <v>2.65</v>
+      </c>
+      <c r="AU35">
+        <v>2</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>13</v>
+      </c>
+      <c r="BA35">
+        <v>11</v>
+      </c>
+      <c r="BB35">
+        <v>11</v>
+      </c>
+      <c r="BC35">
+        <v>22</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,12 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['34', '45+3']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -398,6 +404,9 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['75', '82']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1508,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1636,7 +1645,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1842,7 +1851,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -1920,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2254,7 +2263,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2460,7 +2469,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3078,7 +3087,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3284,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3490,7 +3499,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4108,7 +4117,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4314,7 +4323,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4392,7 +4401,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4726,7 +4735,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4932,7 +4941,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5013,7 +5022,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5138,7 +5147,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5344,7 +5353,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5422,7 +5431,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5550,7 +5559,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5756,7 +5765,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5962,7 +5971,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6580,7 +6589,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6992,7 +7001,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7198,7 +7207,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7816,7 +7825,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -7973,6 +7982,418 @@
       </c>
       <c r="BP35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7455898</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45523.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36">
+        <v>2.88</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.5</v>
+      </c>
+      <c r="V36">
+        <v>3.4</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.05</v>
+      </c>
+      <c r="AA36">
+        <v>3.25</v>
+      </c>
+      <c r="AB36">
+        <v>3.75</v>
+      </c>
+      <c r="AC36">
+        <v>1.08</v>
+      </c>
+      <c r="AD36">
+        <v>8.25</v>
+      </c>
+      <c r="AE36">
+        <v>1.42</v>
+      </c>
+      <c r="AF36">
+        <v>2.65</v>
+      </c>
+      <c r="AG36">
+        <v>2.3</v>
+      </c>
+      <c r="AH36">
+        <v>1.6</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.73</v>
+      </c>
+      <c r="AK36">
+        <v>1.28</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>1.7</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1.12</v>
+      </c>
+      <c r="AS36">
+        <v>0.9</v>
+      </c>
+      <c r="AT36">
+        <v>2.02</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>7</v>
+      </c>
+      <c r="AY36">
+        <v>10</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>10</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7455899</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45523.63541666666</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>2.88</v>
+      </c>
+      <c r="T37">
+        <v>1.5</v>
+      </c>
+      <c r="U37">
+        <v>2.5</v>
+      </c>
+      <c r="V37">
+        <v>3.4</v>
+      </c>
+      <c r="W37">
+        <v>1.3</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1.06</v>
+      </c>
+      <c r="Z37">
+        <v>3.5</v>
+      </c>
+      <c r="AA37">
+        <v>3.1</v>
+      </c>
+      <c r="AB37">
+        <v>2.2</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
+        <v>7.1</v>
+      </c>
+      <c r="AE37">
+        <v>1.38</v>
+      </c>
+      <c r="AF37">
+        <v>2.71</v>
+      </c>
+      <c r="AG37">
+        <v>2.25</v>
+      </c>
+      <c r="AH37">
+        <v>1.62</v>
+      </c>
+      <c r="AI37">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.8</v>
+      </c>
+      <c r="AK37">
+        <v>1.7</v>
+      </c>
+      <c r="AL37">
+        <v>1.35</v>
+      </c>
+      <c r="AM37">
+        <v>1.3</v>
+      </c>
+      <c r="AN37">
+        <v>1.5</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>1.5</v>
+      </c>
+      <c r="AR37">
+        <v>1.14</v>
+      </c>
+      <c r="AS37">
+        <v>1.64</v>
+      </c>
+      <c r="AT37">
+        <v>2.78</v>
+      </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>7</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>2.52</v>
+      </c>
+      <c r="BE37">
+        <v>6.8</v>
+      </c>
+      <c r="BF37">
+        <v>1.78</v>
+      </c>
+      <c r="BG37">
+        <v>1.33</v>
+      </c>
+      <c r="BH37">
+        <v>2.91</v>
+      </c>
+      <c r="BI37">
+        <v>1.71</v>
+      </c>
+      <c r="BJ37">
+        <v>2.09</v>
+      </c>
+      <c r="BK37">
+        <v>2.14</v>
+      </c>
+      <c r="BL37">
+        <v>1.68</v>
+      </c>
+      <c r="BM37">
+        <v>2.78</v>
+      </c>
+      <c r="BN37">
+        <v>1.36</v>
+      </c>
+      <c r="BO37">
+        <v>3.92</v>
+      </c>
+      <c r="BP37">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -768,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1648,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1851,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2263,7 +2266,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2469,7 +2472,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2962,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3087,7 +3090,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3293,7 +3296,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3499,7 +3502,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4117,7 +4120,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4323,7 +4326,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4735,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4941,7 +4944,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5019,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5147,7 +5150,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5353,7 +5356,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5559,7 +5562,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5765,7 +5768,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5971,7 +5974,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6589,7 +6592,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6670,7 +6673,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.31</v>
@@ -7001,7 +7004,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7207,7 +7210,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7697,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7825,7 +7828,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8237,7 +8240,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8394,6 +8397,418 @@
       </c>
       <c r="BP37">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7455912</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45527.54166666666</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q38">
+        <v>3.1</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.5</v>
+      </c>
+      <c r="U38">
+        <v>2.5</v>
+      </c>
+      <c r="V38">
+        <v>3.4</v>
+      </c>
+      <c r="W38">
+        <v>1.3</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>1.06</v>
+      </c>
+      <c r="Z38">
+        <v>2.25</v>
+      </c>
+      <c r="AA38">
+        <v>3.1</v>
+      </c>
+      <c r="AB38">
+        <v>3.3</v>
+      </c>
+      <c r="AC38">
+        <v>1.08</v>
+      </c>
+      <c r="AD38">
+        <v>8</v>
+      </c>
+      <c r="AE38">
+        <v>1.42</v>
+      </c>
+      <c r="AF38">
+        <v>2.65</v>
+      </c>
+      <c r="AG38">
+        <v>2.4</v>
+      </c>
+      <c r="AH38">
+        <v>1.53</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>1.25</v>
+      </c>
+      <c r="AL38">
+        <v>1.25</v>
+      </c>
+      <c r="AM38">
+        <v>1.7</v>
+      </c>
+      <c r="AN38">
+        <v>1.33</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1.05</v>
+      </c>
+      <c r="AS38">
+        <v>0.87</v>
+      </c>
+      <c r="AT38">
+        <v>1.92</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>8</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>12</v>
+      </c>
+      <c r="AZ38">
+        <v>8</v>
+      </c>
+      <c r="BA38">
+        <v>8</v>
+      </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7455908</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45527.63541666666</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39">
+        <v>1.44</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>19</v>
+      </c>
+      <c r="T39">
+        <v>1.25</v>
+      </c>
+      <c r="U39">
+        <v>3.75</v>
+      </c>
+      <c r="V39">
+        <v>2.2</v>
+      </c>
+      <c r="W39">
+        <v>1.62</v>
+      </c>
+      <c r="X39">
+        <v>5</v>
+      </c>
+      <c r="Y39">
+        <v>1.17</v>
+      </c>
+      <c r="Z39">
+        <v>1.13</v>
+      </c>
+      <c r="AA39">
+        <v>8</v>
+      </c>
+      <c r="AB39">
+        <v>21</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>22</v>
+      </c>
+      <c r="AE39">
+        <v>1.15</v>
+      </c>
+      <c r="AF39">
+        <v>4.75</v>
+      </c>
+      <c r="AG39">
+        <v>1.57</v>
+      </c>
+      <c r="AH39">
+        <v>2.35</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AJ39">
+        <v>1.36</v>
+      </c>
+      <c r="AK39">
+        <v>1.02</v>
+      </c>
+      <c r="AL39">
+        <v>1.05</v>
+      </c>
+      <c r="AM39">
+        <v>6.25</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>2.1</v>
+      </c>
+      <c r="AS39">
+        <v>1.16</v>
+      </c>
+      <c r="AT39">
+        <v>3.26</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>9</v>
+      </c>
+      <c r="AX39">
+        <v>1</v>
+      </c>
+      <c r="AY39">
+        <v>13</v>
+      </c>
+      <c r="AZ39">
+        <v>4</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>8</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['42', '53']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>['75', '82']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,7 +1654,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1854,7 +1860,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2266,7 +2272,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2347,7 +2353,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2472,7 +2478,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3090,7 +3096,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3296,7 +3302,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3377,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3502,7 +3508,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3580,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4120,7 +4126,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4326,7 +4332,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4738,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4944,7 +4950,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5150,7 +5156,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5356,7 +5362,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5562,7 +5568,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5643,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5768,7 +5774,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5974,7 +5980,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6592,7 +6598,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7004,7 +7010,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7210,7 +7216,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7828,7 +7834,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8240,7 +8246,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8808,6 +8814,418 @@
         <v>0</v>
       </c>
       <c r="BP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7455906</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q40">
+        <v>4.75</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>2.63</v>
+      </c>
+      <c r="T40">
+        <v>1.44</v>
+      </c>
+      <c r="U40">
+        <v>2.63</v>
+      </c>
+      <c r="V40">
+        <v>3.25</v>
+      </c>
+      <c r="W40">
+        <v>1.33</v>
+      </c>
+      <c r="X40">
+        <v>9</v>
+      </c>
+      <c r="Y40">
+        <v>1.07</v>
+      </c>
+      <c r="Z40">
+        <v>4.1</v>
+      </c>
+      <c r="AA40">
+        <v>3.3</v>
+      </c>
+      <c r="AB40">
+        <v>1.91</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE40">
+        <v>1.33</v>
+      </c>
+      <c r="AF40">
+        <v>3.1</v>
+      </c>
+      <c r="AG40">
+        <v>2.4</v>
+      </c>
+      <c r="AH40">
+        <v>1.53</v>
+      </c>
+      <c r="AI40">
+        <v>2.1</v>
+      </c>
+      <c r="AJ40">
+        <v>1.67</v>
+      </c>
+      <c r="AK40">
+        <v>1.87</v>
+      </c>
+      <c r="AL40">
+        <v>1.25</v>
+      </c>
+      <c r="AM40">
+        <v>1.18</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>1.3</v>
+      </c>
+      <c r="AS40">
+        <v>1.21</v>
+      </c>
+      <c r="AT40">
+        <v>2.51</v>
+      </c>
+      <c r="AU40">
+        <v>7</v>
+      </c>
+      <c r="AV40">
+        <v>8</v>
+      </c>
+      <c r="AW40">
+        <v>8</v>
+      </c>
+      <c r="AX40">
+        <v>11</v>
+      </c>
+      <c r="AY40">
+        <v>15</v>
+      </c>
+      <c r="AZ40">
+        <v>19</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+      <c r="BB40">
+        <v>11</v>
+      </c>
+      <c r="BC40">
+        <v>12</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7455907</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45528.63541666666</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41">
+        <v>2.3</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>5.5</v>
+      </c>
+      <c r="T41">
+        <v>1.44</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>9</v>
+      </c>
+      <c r="Y41">
+        <v>1.07</v>
+      </c>
+      <c r="Z41">
+        <v>1.67</v>
+      </c>
+      <c r="AA41">
+        <v>3.75</v>
+      </c>
+      <c r="AB41">
+        <v>5.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE41">
+        <v>1.33</v>
+      </c>
+      <c r="AF41">
+        <v>3.1</v>
+      </c>
+      <c r="AG41">
+        <v>2.08</v>
+      </c>
+      <c r="AH41">
+        <v>1.73</v>
+      </c>
+      <c r="AI41">
+        <v>2</v>
+      </c>
+      <c r="AJ41">
+        <v>1.73</v>
+      </c>
+      <c r="AK41">
+        <v>1.17</v>
+      </c>
+      <c r="AL41">
+        <v>1.26</v>
+      </c>
+      <c r="AM41">
+        <v>2.07</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1.33</v>
+      </c>
+      <c r="AP41">
+        <v>0.5</v>
+      </c>
+      <c r="AQ41">
+        <v>1.75</v>
+      </c>
+      <c r="AR41">
+        <v>1.88</v>
+      </c>
+      <c r="AS41">
+        <v>1.27</v>
+      </c>
+      <c r="AT41">
+        <v>3.15</v>
+      </c>
+      <c r="AU41">
+        <v>2</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>10</v>
+      </c>
+      <c r="AZ41">
+        <v>9</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,9 @@
     <t>['42', '53']</t>
   </si>
   <si>
+    <t>['24', '52']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -416,6 +419,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1654,7 +1660,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1860,7 +1866,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2272,7 +2278,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2478,7 +2484,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3096,7 +3102,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3302,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3380,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3508,7 +3514,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3792,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4126,7 +4132,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4207,7 +4213,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4332,7 +4338,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4744,7 +4750,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4950,7 +4956,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5156,7 +5162,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5362,7 +5368,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5568,7 +5574,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5774,7 +5780,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5980,7 +5986,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6058,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6598,7 +6604,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7010,7 +7016,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7216,7 +7222,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7297,7 +7303,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>2.6</v>
@@ -7834,7 +7840,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8246,7 +8252,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9070,7 +9076,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9226,6 +9232,418 @@
         <v>0</v>
       </c>
       <c r="BP41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7455905</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45529.54166666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>1.5</v>
+      </c>
+      <c r="U42">
+        <v>2.5</v>
+      </c>
+      <c r="V42">
+        <v>3.4</v>
+      </c>
+      <c r="W42">
+        <v>1.3</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>2.25</v>
+      </c>
+      <c r="AA42">
+        <v>3.3</v>
+      </c>
+      <c r="AB42">
+        <v>3.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.07</v>
+      </c>
+      <c r="AD42">
+        <v>8.75</v>
+      </c>
+      <c r="AE42">
+        <v>1.4</v>
+      </c>
+      <c r="AF42">
+        <v>2.75</v>
+      </c>
+      <c r="AG42">
+        <v>2.3</v>
+      </c>
+      <c r="AH42">
+        <v>1.6</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.73</v>
+      </c>
+      <c r="AK42">
+        <v>1.3</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.65</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.54</v>
+      </c>
+      <c r="AS42">
+        <v>1.98</v>
+      </c>
+      <c r="AT42">
+        <v>3.52</v>
+      </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>7</v>
+      </c>
+      <c r="AX42">
+        <v>9</v>
+      </c>
+      <c r="AY42">
+        <v>14</v>
+      </c>
+      <c r="AZ42">
+        <v>12</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>9</v>
+      </c>
+      <c r="BC42">
+        <v>12</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7455909</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45529.63541666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P43" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>1.36</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>2.63</v>
+      </c>
+      <c r="W43">
+        <v>1.44</v>
+      </c>
+      <c r="X43">
+        <v>7</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>4.33</v>
+      </c>
+      <c r="AB43">
+        <v>1.44</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>10</v>
+      </c>
+      <c r="AE43">
+        <v>1.23</v>
+      </c>
+      <c r="AF43">
+        <v>3.56</v>
+      </c>
+      <c r="AG43">
+        <v>1.9</v>
+      </c>
+      <c r="AH43">
+        <v>1.9</v>
+      </c>
+      <c r="AI43">
+        <v>2</v>
+      </c>
+      <c r="AJ43">
+        <v>1.73</v>
+      </c>
+      <c r="AK43">
+        <v>2.88</v>
+      </c>
+      <c r="AL43">
+        <v>1.18</v>
+      </c>
+      <c r="AM43">
+        <v>1.07</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0.33</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AR43">
+        <v>1.58</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>1.58</v>
+      </c>
+      <c r="AU43">
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>4</v>
+      </c>
+      <c r="AX43">
+        <v>15</v>
+      </c>
+      <c r="AY43">
+        <v>6</v>
+      </c>
+      <c r="AZ43">
+        <v>18</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,12 @@
     <t>['24', '52']</t>
   </si>
   <si>
+    <t>['39', '77']</t>
+  </si>
+  <si>
+    <t>['37', '61', '74']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['67', '71', '82']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1660,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1866,7 +1875,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2278,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2484,7 +2493,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3102,7 +3111,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3308,7 +3317,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3514,7 +3523,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3595,7 +3604,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4004,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4132,7 +4141,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4338,7 +4347,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4750,7 +4759,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4956,7 +4965,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5162,7 +5171,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5368,7 +5377,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5574,7 +5583,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5780,7 +5789,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5986,7 +5995,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6067,7 +6076,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -6604,7 +6613,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6682,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7016,7 +7025,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7222,7 +7231,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7840,7 +7849,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8252,7 +8261,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9076,7 +9085,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9488,7 +9497,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9644,6 +9653,418 @@
         <v>0</v>
       </c>
       <c r="BP43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7455911</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45530.54166666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>2.2</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
+      <c r="T44">
+        <v>1.53</v>
+      </c>
+      <c r="U44">
+        <v>2.38</v>
+      </c>
+      <c r="V44">
+        <v>3.5</v>
+      </c>
+      <c r="W44">
+        <v>1.29</v>
+      </c>
+      <c r="X44">
+        <v>11</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>5.25</v>
+      </c>
+      <c r="AA44">
+        <v>3.9</v>
+      </c>
+      <c r="AB44">
+        <v>1.62</v>
+      </c>
+      <c r="AC44">
+        <v>1.05</v>
+      </c>
+      <c r="AD44">
+        <v>7.1</v>
+      </c>
+      <c r="AE44">
+        <v>1.4</v>
+      </c>
+      <c r="AF44">
+        <v>2.64</v>
+      </c>
+      <c r="AG44">
+        <v>2.05</v>
+      </c>
+      <c r="AH44">
+        <v>1.75</v>
+      </c>
+      <c r="AI44">
+        <v>2.1</v>
+      </c>
+      <c r="AJ44">
+        <v>1.67</v>
+      </c>
+      <c r="AK44">
+        <v>1.71</v>
+      </c>
+      <c r="AL44">
+        <v>1.31</v>
+      </c>
+      <c r="AM44">
+        <v>1.27</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>0.98</v>
+      </c>
+      <c r="AS44">
+        <v>1.23</v>
+      </c>
+      <c r="AT44">
+        <v>2.21</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>10</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7455910</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45530.63541666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P45" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45">
+        <v>1.95</v>
+      </c>
+      <c r="R45">
+        <v>2.25</v>
+      </c>
+      <c r="S45">
+        <v>7.5</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>2.75</v>
+      </c>
+      <c r="W45">
+        <v>1.4</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>1.4</v>
+      </c>
+      <c r="AA45">
+        <v>4.2</v>
+      </c>
+      <c r="AB45">
+        <v>8</v>
+      </c>
+      <c r="AC45">
+        <v>1.03</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>1.29</v>
+      </c>
+      <c r="AF45">
+        <v>3.3</v>
+      </c>
+      <c r="AG45">
+        <v>2</v>
+      </c>
+      <c r="AH45">
+        <v>1.8</v>
+      </c>
+      <c r="AI45">
+        <v>2.25</v>
+      </c>
+      <c r="AJ45">
+        <v>1.57</v>
+      </c>
+      <c r="AK45">
+        <v>1.07</v>
+      </c>
+      <c r="AL45">
+        <v>1.2</v>
+      </c>
+      <c r="AM45">
+        <v>2.9</v>
+      </c>
+      <c r="AN45">
+        <v>2.33</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>2.5</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>2.15</v>
+      </c>
+      <c r="AS45">
+        <v>1.28</v>
+      </c>
+      <c r="AT45">
+        <v>3.43</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>12</v>
+      </c>
+      <c r="AZ45">
+        <v>8</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>2</v>
+      </c>
+      <c r="BC45">
+        <v>6</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -358,7 +358,7 @@
     <t>['24', '52']</t>
   </si>
   <si>
-    <t>['39', '77']</t>
+    <t>['39', '76']</t>
   </si>
   <si>
     <t>['37', '61', '74']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['37', '61', '74']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -431,6 +434,15 @@
   </si>
   <si>
     <t>['67', '71', '82']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['8', '45+1', '68']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1144,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1544,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1669,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1875,7 +1887,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -1953,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2287,7 +2299,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2493,7 +2505,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3111,7 +3123,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3189,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3317,7 +3329,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3523,7 +3535,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4141,7 +4153,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4347,7 +4359,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4759,7 +4771,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4840,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.29</v>
@@ -4965,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5171,7 +5183,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5377,7 +5389,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5455,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5583,7 +5595,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5661,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5789,7 +5801,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5995,7 +6007,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6613,7 +6625,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6900,7 +6912,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7025,7 +7037,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7231,7 +7243,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7309,7 +7321,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7724,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -7849,7 +7861,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8133,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8261,7 +8273,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9085,7 +9097,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9497,7 +9509,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9703,7 +9715,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10066,6 +10078,624 @@
       </c>
       <c r="BP45">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7455920</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q46">
+        <v>2.4</v>
+      </c>
+      <c r="R46">
+        <v>2.05</v>
+      </c>
+      <c r="S46">
+        <v>5.5</v>
+      </c>
+      <c r="T46">
+        <v>1.47</v>
+      </c>
+      <c r="U46">
+        <v>2.48</v>
+      </c>
+      <c r="V46">
+        <v>3.15</v>
+      </c>
+      <c r="W46">
+        <v>1.29</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>1.04</v>
+      </c>
+      <c r="Z46">
+        <v>1.73</v>
+      </c>
+      <c r="AA46">
+        <v>3.3</v>
+      </c>
+      <c r="AB46">
+        <v>5.25</v>
+      </c>
+      <c r="AC46">
+        <v>1.06</v>
+      </c>
+      <c r="AD46">
+        <v>7.5</v>
+      </c>
+      <c r="AE46">
+        <v>1.36</v>
+      </c>
+      <c r="AF46">
+        <v>2.88</v>
+      </c>
+      <c r="AG46">
+        <v>2.35</v>
+      </c>
+      <c r="AH46">
+        <v>1.57</v>
+      </c>
+      <c r="AI46">
+        <v>2.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.62</v>
+      </c>
+      <c r="AK46">
+        <v>1.4</v>
+      </c>
+      <c r="AL46">
+        <v>1.33</v>
+      </c>
+      <c r="AM46">
+        <v>1.54</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>0.25</v>
+      </c>
+      <c r="AR46">
+        <v>1.94</v>
+      </c>
+      <c r="AS46">
+        <v>1.14</v>
+      </c>
+      <c r="AT46">
+        <v>3.08</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="AX46">
+        <v>8</v>
+      </c>
+      <c r="AY46">
+        <v>5</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>11</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7455913</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45534.55208333334</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q47">
+        <v>4.33</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2.88</v>
+      </c>
+      <c r="T47">
+        <v>1.46</v>
+      </c>
+      <c r="U47">
+        <v>2.6</v>
+      </c>
+      <c r="V47">
+        <v>3.04</v>
+      </c>
+      <c r="W47">
+        <v>1.35</v>
+      </c>
+      <c r="X47">
+        <v>7.9</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>3.7</v>
+      </c>
+      <c r="AA47">
+        <v>3.1</v>
+      </c>
+      <c r="AB47">
+        <v>2.1</v>
+      </c>
+      <c r="AC47">
+        <v>1.05</v>
+      </c>
+      <c r="AD47">
+        <v>8</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>2.88</v>
+      </c>
+      <c r="AG47">
+        <v>2.2</v>
+      </c>
+      <c r="AH47">
+        <v>1.65</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.73</v>
+      </c>
+      <c r="AL47">
+        <v>1.31</v>
+      </c>
+      <c r="AM47">
+        <v>1.27</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>0.75</v>
+      </c>
+      <c r="AQ47">
+        <v>1.67</v>
+      </c>
+      <c r="AR47">
+        <v>1.25</v>
+      </c>
+      <c r="AS47">
+        <v>1.17</v>
+      </c>
+      <c r="AT47">
+        <v>2.42</v>
+      </c>
+      <c r="AU47">
+        <v>8</v>
+      </c>
+      <c r="AV47">
+        <v>11</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>14</v>
+      </c>
+      <c r="AZ47">
+        <v>17</v>
+      </c>
+      <c r="BA47">
+        <v>2</v>
+      </c>
+      <c r="BB47">
+        <v>7</v>
+      </c>
+      <c r="BC47">
+        <v>9</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7455919</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q48">
+        <v>2.3</v>
+      </c>
+      <c r="R48">
+        <v>2.38</v>
+      </c>
+      <c r="S48">
+        <v>4.5</v>
+      </c>
+      <c r="T48">
+        <v>1.39</v>
+      </c>
+      <c r="U48">
+        <v>2.86</v>
+      </c>
+      <c r="V48">
+        <v>2.82</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>7.1</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>1.73</v>
+      </c>
+      <c r="AA48">
+        <v>3.9</v>
+      </c>
+      <c r="AB48">
+        <v>4.33</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>9.1</v>
+      </c>
+      <c r="AE48">
+        <v>1.27</v>
+      </c>
+      <c r="AF48">
+        <v>3.28</v>
+      </c>
+      <c r="AG48">
+        <v>1.67</v>
+      </c>
+      <c r="AH48">
+        <v>2.15</v>
+      </c>
+      <c r="AI48">
+        <v>1.67</v>
+      </c>
+      <c r="AJ48">
+        <v>2.1</v>
+      </c>
+      <c r="AK48">
+        <v>1.2</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>2.49</v>
+      </c>
+      <c r="AS48">
+        <v>1.79</v>
+      </c>
+      <c r="AT48">
+        <v>4.28</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>10</v>
+      </c>
+      <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>13</v>
+      </c>
+      <c r="AZ48">
+        <v>6</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>4</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>1.42</v>
+      </c>
+      <c r="BE48">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF48">
+        <v>3.4</v>
+      </c>
+      <c r="BG48">
+        <v>1.19</v>
+      </c>
+      <c r="BH48">
+        <v>3.9</v>
+      </c>
+      <c r="BI48">
+        <v>1.38</v>
+      </c>
+      <c r="BJ48">
+        <v>2.71</v>
+      </c>
+      <c r="BK48">
+        <v>1.71</v>
+      </c>
+      <c r="BL48">
+        <v>2.09</v>
+      </c>
+      <c r="BM48">
+        <v>2.14</v>
+      </c>
+      <c r="BN48">
+        <v>1.67</v>
+      </c>
+      <c r="BO48">
+        <v>2.79</v>
+      </c>
+      <c r="BP48">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['26', '49']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1681,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1762,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1887,7 +1890,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2299,7 +2302,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2505,7 +2508,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3123,7 +3126,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3329,7 +3332,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3535,7 +3538,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4153,7 +4156,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4359,7 +4362,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4440,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4643,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4771,7 +4774,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4977,7 +4980,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5183,7 +5186,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5261,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5389,7 +5392,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5595,7 +5598,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5801,7 +5804,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6007,7 +6010,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6625,7 +6628,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6909,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -7037,7 +7040,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7115,7 +7118,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>3</v>
@@ -7243,7 +7246,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7530,7 +7533,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -7861,7 +7864,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8273,7 +8276,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9097,7 +9100,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9509,7 +9512,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9715,7 +9718,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10127,7 +10130,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10333,7 +10336,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10539,7 +10542,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10696,6 +10699,418 @@
       </c>
       <c r="BP48">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7455918</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>2.1</v>
+      </c>
+      <c r="T49">
+        <v>1.44</v>
+      </c>
+      <c r="U49">
+        <v>2.63</v>
+      </c>
+      <c r="V49">
+        <v>3.25</v>
+      </c>
+      <c r="W49">
+        <v>1.33</v>
+      </c>
+      <c r="X49">
+        <v>9</v>
+      </c>
+      <c r="Y49">
+        <v>1.07</v>
+      </c>
+      <c r="Z49">
+        <v>6.5</v>
+      </c>
+      <c r="AA49">
+        <v>3.9</v>
+      </c>
+      <c r="AB49">
+        <v>1.53</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>8</v>
+      </c>
+      <c r="AE49">
+        <v>1.33</v>
+      </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
+      <c r="AG49">
+        <v>2.2</v>
+      </c>
+      <c r="AH49">
+        <v>1.65</v>
+      </c>
+      <c r="AI49">
+        <v>2.38</v>
+      </c>
+      <c r="AJ49">
+        <v>1.53</v>
+      </c>
+      <c r="AK49">
+        <v>2.07</v>
+      </c>
+      <c r="AL49">
+        <v>1.27</v>
+      </c>
+      <c r="AM49">
+        <v>1.16</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>2.33</v>
+      </c>
+      <c r="AQ49">
+        <v>1.75</v>
+      </c>
+      <c r="AR49">
+        <v>1.46</v>
+      </c>
+      <c r="AS49">
+        <v>2.01</v>
+      </c>
+      <c r="AT49">
+        <v>3.47</v>
+      </c>
+      <c r="AU49">
+        <v>3</v>
+      </c>
+      <c r="AV49">
+        <v>7</v>
+      </c>
+      <c r="AW49">
+        <v>11</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>14</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7455915</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45535.63541666666</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q50">
+        <v>2.05</v>
+      </c>
+      <c r="R50">
+        <v>2.2</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>1.38</v>
+      </c>
+      <c r="U50">
+        <v>2.8</v>
+      </c>
+      <c r="V50">
+        <v>2.8</v>
+      </c>
+      <c r="W50">
+        <v>1.38</v>
+      </c>
+      <c r="X50">
+        <v>6.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>1.48</v>
+      </c>
+      <c r="AA50">
+        <v>4.33</v>
+      </c>
+      <c r="AB50">
+        <v>6.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.03</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.3</v>
+      </c>
+      <c r="AF50">
+        <v>3.2</v>
+      </c>
+      <c r="AG50">
+        <v>2.1</v>
+      </c>
+      <c r="AH50">
+        <v>1.7</v>
+      </c>
+      <c r="AI50">
+        <v>2.38</v>
+      </c>
+      <c r="AJ50">
+        <v>1.53</v>
+      </c>
+      <c r="AK50">
+        <v>1.11</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>2.62</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.67</v>
+      </c>
+      <c r="AS50">
+        <v>1.03</v>
+      </c>
+      <c r="AT50">
+        <v>2.7</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50">
+        <v>5</v>
+      </c>
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>14</v>
+      </c>
+      <c r="AZ50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>8</v>
+      </c>
+      <c r="BB50">
+        <v>8</v>
+      </c>
+      <c r="BC50">
+        <v>16</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['26', '49']</t>
   </si>
   <si>
+    <t>['11', '56', '85']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -446,6 +449,12 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,7 +1693,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1890,7 +1899,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2174,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2302,7 +2311,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2380,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.75</v>
@@ -2508,7 +2517,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2589,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3126,7 +3135,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3332,7 +3341,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3538,7 +3547,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3825,7 +3834,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4156,7 +4165,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4234,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4362,7 +4371,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4774,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4852,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -4980,7 +4989,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5061,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5186,7 +5195,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5392,7 +5401,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5473,7 +5482,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>0.89</v>
@@ -5598,7 +5607,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5804,7 +5813,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6010,7 +6019,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6503,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6628,7 +6637,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7040,7 +7049,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7121,7 +7130,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7246,7 +7255,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7530,7 +7539,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7864,7 +7873,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -7942,7 +7951,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8276,7 +8285,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8357,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -9100,7 +9109,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9512,7 +9521,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9718,7 +9727,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10130,7 +10139,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10336,7 +10345,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10542,7 +10551,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11110,6 +11119,624 @@
         <v>0</v>
       </c>
       <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7455914</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P51" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q51">
+        <v>2.3</v>
+      </c>
+      <c r="R51">
+        <v>2.1</v>
+      </c>
+      <c r="S51">
+        <v>5.5</v>
+      </c>
+      <c r="T51">
+        <v>1.5</v>
+      </c>
+      <c r="U51">
+        <v>2.5</v>
+      </c>
+      <c r="V51">
+        <v>3.5</v>
+      </c>
+      <c r="W51">
+        <v>1.29</v>
+      </c>
+      <c r="X51">
+        <v>11</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>1.67</v>
+      </c>
+      <c r="AA51">
+        <v>3.6</v>
+      </c>
+      <c r="AB51">
+        <v>5.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.06</v>
+      </c>
+      <c r="AD51">
+        <v>7.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.4</v>
+      </c>
+      <c r="AF51">
+        <v>2.75</v>
+      </c>
+      <c r="AG51">
+        <v>2.15</v>
+      </c>
+      <c r="AH51">
+        <v>1.67</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.67</v>
+      </c>
+      <c r="AK51">
+        <v>1.15</v>
+      </c>
+      <c r="AL51">
+        <v>1.29</v>
+      </c>
+      <c r="AM51">
+        <v>2.15</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>1.67</v>
+      </c>
+      <c r="AR51">
+        <v>1.15</v>
+      </c>
+      <c r="AS51">
+        <v>1.2</v>
+      </c>
+      <c r="AT51">
+        <v>2.35</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>6</v>
+      </c>
+      <c r="AZ51">
+        <v>9</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7455917</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45536.55208333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>1.91</v>
+      </c>
+      <c r="S52">
+        <v>2.5</v>
+      </c>
+      <c r="T52">
+        <v>1.47</v>
+      </c>
+      <c r="U52">
+        <v>2.4</v>
+      </c>
+      <c r="V52">
+        <v>3.1</v>
+      </c>
+      <c r="W52">
+        <v>1.3</v>
+      </c>
+      <c r="X52">
+        <v>7.2</v>
+      </c>
+      <c r="Y52">
+        <v>1.05</v>
+      </c>
+      <c r="Z52">
+        <v>4.75</v>
+      </c>
+      <c r="AA52">
+        <v>3.1</v>
+      </c>
+      <c r="AB52">
+        <v>1.73</v>
+      </c>
+      <c r="AC52">
+        <v>1.1</v>
+      </c>
+      <c r="AD52">
+        <v>6.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.5</v>
+      </c>
+      <c r="AF52">
+        <v>2.55</v>
+      </c>
+      <c r="AG52">
+        <v>2.55</v>
+      </c>
+      <c r="AH52">
+        <v>1.45</v>
+      </c>
+      <c r="AI52">
+        <v>2.3</v>
+      </c>
+      <c r="AJ52">
+        <v>1.57</v>
+      </c>
+      <c r="AK52">
+        <v>2</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.1</v>
+      </c>
+      <c r="AN52">
+        <v>0.33</v>
+      </c>
+      <c r="AO52">
+        <v>3</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>2.25</v>
+      </c>
+      <c r="AR52">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS52">
+        <v>1.04</v>
+      </c>
+      <c r="AT52">
+        <v>1.98</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>8</v>
+      </c>
+      <c r="AY52">
+        <v>6</v>
+      </c>
+      <c r="AZ52">
+        <v>13</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>8</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7455916</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45536.64583333334</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q53">
+        <v>2.25</v>
+      </c>
+      <c r="R53">
+        <v>2.2</v>
+      </c>
+      <c r="S53">
+        <v>5.5</v>
+      </c>
+      <c r="T53">
+        <v>1.36</v>
+      </c>
+      <c r="U53">
+        <v>2.88</v>
+      </c>
+      <c r="V53">
+        <v>2.62</v>
+      </c>
+      <c r="W53">
+        <v>1.42</v>
+      </c>
+      <c r="X53">
+        <v>6.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>1.44</v>
+      </c>
+      <c r="AA53">
+        <v>4</v>
+      </c>
+      <c r="AB53">
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>9</v>
+      </c>
+      <c r="AE53">
+        <v>1.29</v>
+      </c>
+      <c r="AF53">
+        <v>3.3</v>
+      </c>
+      <c r="AG53">
+        <v>1.85</v>
+      </c>
+      <c r="AH53">
+        <v>1.85</v>
+      </c>
+      <c r="AI53">
+        <v>2</v>
+      </c>
+      <c r="AJ53">
+        <v>1.73</v>
+      </c>
+      <c r="AK53">
+        <v>1.17</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>2.25</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1.5</v>
+      </c>
+      <c r="AP53">
+        <v>2.5</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.51</v>
+      </c>
+      <c r="AS53">
+        <v>1.67</v>
+      </c>
+      <c r="AT53">
+        <v>3.18</v>
+      </c>
+      <c r="AU53">
+        <v>8</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>9</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>17</v>
+      </c>
+      <c r="AZ53">
+        <v>5</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>3</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['11', '56', '85']</t>
   </si>
   <si>
+    <t>['15', '33', '54']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -455,6 +461,12 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['3', '90+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1705,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1899,7 +1911,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -1977,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2311,7 +2323,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2392,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2517,7 +2529,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3135,7 +3147,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3216,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3341,7 +3353,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3422,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3547,7 +3559,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4165,7 +4177,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4371,7 +4383,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4783,7 +4795,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4989,7 +5001,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5195,7 +5207,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5401,7 +5413,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5479,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>2.25</v>
@@ -5607,7 +5619,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5688,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5813,7 +5825,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5894,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6019,7 +6031,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6637,7 +6649,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7049,7 +7061,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7255,7 +7267,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7873,7 +7885,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8157,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8285,7 +8297,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8778,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>2.1</v>
@@ -9109,7 +9121,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9190,7 +9202,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -9521,7 +9533,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9727,7 +9739,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10139,7 +10151,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10345,7 +10357,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10423,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -10551,7 +10563,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11169,7 +11181,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11375,7 +11387,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11737,6 +11749,418 @@
         <v>0</v>
       </c>
       <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7455959</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45548.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q54">
+        <v>1.95</v>
+      </c>
+      <c r="R54">
+        <v>2.25</v>
+      </c>
+      <c r="S54">
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>1.08</v>
+      </c>
+      <c r="Z54">
+        <v>1.4</v>
+      </c>
+      <c r="AA54">
+        <v>4.2</v>
+      </c>
+      <c r="AB54">
+        <v>9</v>
+      </c>
+      <c r="AC54">
+        <v>1.02</v>
+      </c>
+      <c r="AD54">
+        <v>8.6</v>
+      </c>
+      <c r="AE54">
+        <v>1.3</v>
+      </c>
+      <c r="AF54">
+        <v>3.3</v>
+      </c>
+      <c r="AG54">
+        <v>2</v>
+      </c>
+      <c r="AH54">
+        <v>1.8</v>
+      </c>
+      <c r="AI54">
+        <v>2.25</v>
+      </c>
+      <c r="AJ54">
+        <v>1.57</v>
+      </c>
+      <c r="AK54">
+        <v>1.04</v>
+      </c>
+      <c r="AL54">
+        <v>1.16</v>
+      </c>
+      <c r="AM54">
+        <v>2.9</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>0.25</v>
+      </c>
+      <c r="AR54">
+        <v>1.15</v>
+      </c>
+      <c r="AS54">
+        <v>1.01</v>
+      </c>
+      <c r="AT54">
+        <v>2.16</v>
+      </c>
+      <c r="AU54">
+        <v>9</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>11</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>20</v>
+      </c>
+      <c r="AZ54">
+        <v>6</v>
+      </c>
+      <c r="BA54">
+        <v>9</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7455958</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45548.5625</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>120</v>
+      </c>
+      <c r="P55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>3.75</v>
+      </c>
+      <c r="R55">
+        <v>1.91</v>
+      </c>
+      <c r="S55">
+        <v>3.6</v>
+      </c>
+      <c r="T55">
+        <v>1.5</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55">
+        <v>3.4</v>
+      </c>
+      <c r="W55">
+        <v>1.3</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55">
+        <v>1.06</v>
+      </c>
+      <c r="Z55">
+        <v>2.9</v>
+      </c>
+      <c r="AA55">
+        <v>2.75</v>
+      </c>
+      <c r="AB55">
+        <v>2.8</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>7.6</v>
+      </c>
+      <c r="AE55">
+        <v>1.38</v>
+      </c>
+      <c r="AF55">
+        <v>2.9</v>
+      </c>
+      <c r="AG55">
+        <v>2.7</v>
+      </c>
+      <c r="AH55">
+        <v>1.44</v>
+      </c>
+      <c r="AI55">
+        <v>2.1</v>
+      </c>
+      <c r="AJ55">
+        <v>1.67</v>
+      </c>
+      <c r="AK55">
+        <v>1.47</v>
+      </c>
+      <c r="AL55">
+        <v>1.28</v>
+      </c>
+      <c r="AM55">
+        <v>1.42</v>
+      </c>
+      <c r="AN55">
+        <v>0.75</v>
+      </c>
+      <c r="AO55">
+        <v>1.75</v>
+      </c>
+      <c r="AP55">
+        <v>0.8</v>
+      </c>
+      <c r="AQ55">
+        <v>1.6</v>
+      </c>
+      <c r="AR55">
+        <v>1.43</v>
+      </c>
+      <c r="AS55">
+        <v>1.22</v>
+      </c>
+      <c r="AT55">
+        <v>2.65</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>12</v>
+      </c>
+      <c r="BA55">
+        <v>4</v>
+      </c>
+      <c r="BB55">
+        <v>10</v>
+      </c>
+      <c r="BC55">
+        <v>14</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['38', '59', '70']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -467,6 +470,12 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['64', '85']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,7 +1383,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1705,7 +1714,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1911,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2323,7 +2332,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2529,7 +2538,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2607,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -3147,7 +3156,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3353,7 +3362,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3559,7 +3568,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3843,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -4177,7 +4186,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4258,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4383,7 +4392,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4795,7 +4804,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5001,7 +5010,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5207,7 +5216,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5413,7 +5422,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5619,7 +5628,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5825,7 +5834,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6031,7 +6040,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6109,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ26">
         <v>2.33</v>
@@ -6521,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -6649,7 +6658,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7061,7 +7070,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7267,7 +7276,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7348,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>2.6</v>
@@ -7885,7 +7894,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8297,7 +8306,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9121,7 +9130,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9408,7 +9417,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -9533,7 +9542,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9611,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9739,7 +9748,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9817,7 +9826,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -10151,7 +10160,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10357,7 +10366,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10563,7 +10572,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11181,7 +11190,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11387,7 +11396,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11799,7 +11808,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12005,7 +12014,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12161,6 +12170,418 @@
         <v>0</v>
       </c>
       <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7455956</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45549.47916666666</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>121</v>
+      </c>
+      <c r="P56" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q56">
+        <v>5.5</v>
+      </c>
+      <c r="R56">
+        <v>2.1</v>
+      </c>
+      <c r="S56">
+        <v>2.38</v>
+      </c>
+      <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.63</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.33</v>
+      </c>
+      <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
+      <c r="AA56">
+        <v>3.6</v>
+      </c>
+      <c r="AB56">
+        <v>1.7</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>7.9</v>
+      </c>
+      <c r="AE56">
+        <v>1.36</v>
+      </c>
+      <c r="AF56">
+        <v>2.95</v>
+      </c>
+      <c r="AG56">
+        <v>2.2</v>
+      </c>
+      <c r="AH56">
+        <v>1.65</v>
+      </c>
+      <c r="AI56">
+        <v>2.1</v>
+      </c>
+      <c r="AJ56">
+        <v>1.67</v>
+      </c>
+      <c r="AK56">
+        <v>2.1</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>1.12</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>0.75</v>
+      </c>
+      <c r="AQ56">
+        <v>0.8</v>
+      </c>
+      <c r="AR56">
+        <v>1.11</v>
+      </c>
+      <c r="AS56">
+        <v>1.88</v>
+      </c>
+      <c r="AT56">
+        <v>2.99</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
+        <v>7</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>14</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>5</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7455954</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45549.58333333334</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="R57">
+        <v>1.83</v>
+      </c>
+      <c r="S57">
+        <v>2.88</v>
+      </c>
+      <c r="T57">
+        <v>1.5</v>
+      </c>
+      <c r="U57">
+        <v>2.5</v>
+      </c>
+      <c r="V57">
+        <v>3.5</v>
+      </c>
+      <c r="W57">
+        <v>1.29</v>
+      </c>
+      <c r="X57">
+        <v>11</v>
+      </c>
+      <c r="Y57">
+        <v>1.05</v>
+      </c>
+      <c r="Z57">
+        <v>3.75</v>
+      </c>
+      <c r="AA57">
+        <v>3.1</v>
+      </c>
+      <c r="AB57">
+        <v>1.95</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>7.2</v>
+      </c>
+      <c r="AE57">
+        <v>1.39</v>
+      </c>
+      <c r="AF57">
+        <v>2.67</v>
+      </c>
+      <c r="AG57">
+        <v>2.3</v>
+      </c>
+      <c r="AH57">
+        <v>1.55</v>
+      </c>
+      <c r="AI57">
+        <v>2.38</v>
+      </c>
+      <c r="AJ57">
+        <v>1.53</v>
+      </c>
+      <c r="AK57">
+        <v>1.78</v>
+      </c>
+      <c r="AL57">
+        <v>1.31</v>
+      </c>
+      <c r="AM57">
+        <v>1.24</v>
+      </c>
+      <c r="AN57">
+        <v>0.33</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>0.25</v>
+      </c>
+      <c r="AQ57">
+        <v>3</v>
+      </c>
+      <c r="AR57">
+        <v>1.32</v>
+      </c>
+      <c r="AS57">
+        <v>1.58</v>
+      </c>
+      <c r="AT57">
+        <v>2.9</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>5</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>4</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,7 +379,13 @@
     <t>['77']</t>
   </si>
   <si>
-    <t>['38', '59', '70']</t>
+    <t>['39', '59', '70']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['39', '90+1']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -476,6 +482,18 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['16', '27', '58', '77']</t>
+  </si>
+  <si>
+    <t>['9', '59', '83']</t>
+  </si>
+  <si>
+    <t>['9', '17', '59']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1380,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>0.8</v>
@@ -1589,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1714,7 +1732,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1792,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1920,7 +1938,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2207,7 +2225,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2332,7 +2350,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2538,7 +2556,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3156,7 +3174,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3362,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3440,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -3568,7 +3586,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4058,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4186,7 +4204,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4392,7 +4410,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4473,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4679,7 +4697,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4804,7 +4822,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4885,7 +4903,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>1.29</v>
@@ -5010,7 +5028,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5088,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5216,7 +5234,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5294,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5422,7 +5440,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5628,7 +5646,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5834,7 +5852,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6040,7 +6058,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6658,7 +6676,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6736,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6945,7 +6963,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7070,7 +7088,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7148,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
         <v>2.25</v>
@@ -7276,7 +7294,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7563,7 +7581,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -7766,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -7894,7 +7912,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8306,7 +8324,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8590,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9005,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.3</v>
@@ -9130,7 +9148,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9414,7 +9432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9542,7 +9560,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9748,7 +9766,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10032,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10160,7 +10178,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10241,7 +10259,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10366,7 +10384,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10572,7 +10590,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10859,7 +10877,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.46</v>
@@ -11062,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -11190,7 +11208,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11396,7 +11414,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11808,7 +11826,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12014,7 +12032,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12220,7 +12238,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12426,7 +12444,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12583,6 +12601,830 @@
       </c>
       <c r="BP57">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7455955</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45550.45833333334</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>122</v>
+      </c>
+      <c r="P58" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q58">
+        <v>2.25</v>
+      </c>
+      <c r="R58">
+        <v>2.1</v>
+      </c>
+      <c r="S58">
+        <v>6</v>
+      </c>
+      <c r="T58">
+        <v>1.44</v>
+      </c>
+      <c r="U58">
+        <v>2.63</v>
+      </c>
+      <c r="V58">
+        <v>3.25</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>10</v>
+      </c>
+      <c r="Y58">
+        <v>1.06</v>
+      </c>
+      <c r="Z58">
+        <v>1.62</v>
+      </c>
+      <c r="AA58">
+        <v>3.6</v>
+      </c>
+      <c r="AB58">
+        <v>6</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>7.8</v>
+      </c>
+      <c r="AE58">
+        <v>1.35</v>
+      </c>
+      <c r="AF58">
+        <v>2.84</v>
+      </c>
+      <c r="AG58">
+        <v>2.2</v>
+      </c>
+      <c r="AH58">
+        <v>1.65</v>
+      </c>
+      <c r="AI58">
+        <v>2.2</v>
+      </c>
+      <c r="AJ58">
+        <v>1.62</v>
+      </c>
+      <c r="AK58">
+        <v>1.17</v>
+      </c>
+      <c r="AL58">
+        <v>1.29</v>
+      </c>
+      <c r="AM58">
+        <v>2.2</v>
+      </c>
+      <c r="AN58">
+        <v>2.5</v>
+      </c>
+      <c r="AO58">
+        <v>0.25</v>
+      </c>
+      <c r="AP58">
+        <v>2.2</v>
+      </c>
+      <c r="AQ58">
+        <v>0.4</v>
+      </c>
+      <c r="AR58">
+        <v>2.03</v>
+      </c>
+      <c r="AS58">
+        <v>1.12</v>
+      </c>
+      <c r="AT58">
+        <v>3.15</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>9</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7455953</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45550.55208333334</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>123</v>
+      </c>
+      <c r="P59" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>2.5</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.4</v>
+      </c>
+      <c r="W59">
+        <v>1.3</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59">
+        <v>1.06</v>
+      </c>
+      <c r="Z59">
+        <v>4</v>
+      </c>
+      <c r="AA59">
+        <v>3.45</v>
+      </c>
+      <c r="AB59">
+        <v>1.72</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.38</v>
+      </c>
+      <c r="AF59">
+        <v>2.8</v>
+      </c>
+      <c r="AG59">
+        <v>2.29</v>
+      </c>
+      <c r="AH59">
+        <v>1.55</v>
+      </c>
+      <c r="AI59">
+        <v>2.1</v>
+      </c>
+      <c r="AJ59">
+        <v>1.67</v>
+      </c>
+      <c r="AK59">
+        <v>2</v>
+      </c>
+      <c r="AL59">
+        <v>1.29</v>
+      </c>
+      <c r="AM59">
+        <v>1.22</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>1.75</v>
+      </c>
+      <c r="AP59">
+        <v>1.33</v>
+      </c>
+      <c r="AQ59">
+        <v>2</v>
+      </c>
+      <c r="AR59">
+        <v>1.61</v>
+      </c>
+      <c r="AS59">
+        <v>1.9</v>
+      </c>
+      <c r="AT59">
+        <v>3.51</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>12</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>19</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7455960</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45550.64583333334</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="R60">
+        <v>2.4</v>
+      </c>
+      <c r="S60">
+        <v>1.83</v>
+      </c>
+      <c r="T60">
+        <v>1.36</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>6</v>
+      </c>
+      <c r="AA60">
+        <v>4.3</v>
+      </c>
+      <c r="AB60">
+        <v>1.39</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>9.9</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.75</v>
+      </c>
+      <c r="AG60">
+        <v>1.79</v>
+      </c>
+      <c r="AH60">
+        <v>1.97</v>
+      </c>
+      <c r="AI60">
+        <v>2.1</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>2.8</v>
+      </c>
+      <c r="AL60">
+        <v>1.15</v>
+      </c>
+      <c r="AM60">
+        <v>1.05</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>3</v>
+      </c>
+      <c r="AP60">
+        <v>1.2</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>1.76</v>
+      </c>
+      <c r="AS60">
+        <v>1.93</v>
+      </c>
+      <c r="AT60">
+        <v>3.69</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>6</v>
+      </c>
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>7</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7455957</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45551.57291666666</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>1.4</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>2.75</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>1.08</v>
+      </c>
+      <c r="Z61">
+        <v>6.5</v>
+      </c>
+      <c r="AA61">
+        <v>4.5</v>
+      </c>
+      <c r="AB61">
+        <v>1.45</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>9.4</v>
+      </c>
+      <c r="AE61">
+        <v>1.28</v>
+      </c>
+      <c r="AF61">
+        <v>3.4</v>
+      </c>
+      <c r="AG61">
+        <v>1.85</v>
+      </c>
+      <c r="AH61">
+        <v>1.95</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.73</v>
+      </c>
+      <c r="AK61">
+        <v>2.71</v>
+      </c>
+      <c r="AL61">
+        <v>1.19</v>
+      </c>
+      <c r="AM61">
+        <v>1.08</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0.8</v>
+      </c>
+      <c r="AQ61">
+        <v>0.75</v>
+      </c>
+      <c r="AR61">
+        <v>1.2</v>
+      </c>
+      <c r="AS61">
+        <v>1.58</v>
+      </c>
+      <c r="AT61">
+        <v>2.78</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>12</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>8</v>
+      </c>
+      <c r="AZ61">
+        <v>19</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>7</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>5.65</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>1.22</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>1.48</v>
+      </c>
+      <c r="BL61">
+        <v>2.47</v>
+      </c>
+      <c r="BM61">
+        <v>1.85</v>
+      </c>
+      <c r="BN61">
+        <v>1.85</v>
+      </c>
+      <c r="BO61">
+        <v>2.35</v>
+      </c>
+      <c r="BP61">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>['9', '17', '59']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['71', '78']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1201,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1604,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4">
         <v>0.4</v>
@@ -4488,7 +4494,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5724,7 +5730,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -7787,7 +7793,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -8402,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -10256,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>0.4</v>
@@ -10465,7 +10471,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.25</v>
@@ -11286,7 +11292,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11904,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>0.25</v>
@@ -13425,6 +13431,418 @@
       </c>
       <c r="BP61">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7455875</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45553.47916666666</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>2.05</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.5</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>1.13</v>
+      </c>
+      <c r="Z62">
+        <v>5.5</v>
+      </c>
+      <c r="AA62">
+        <v>4</v>
+      </c>
+      <c r="AB62">
+        <v>1.5</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>14.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.19</v>
+      </c>
+      <c r="AF62">
+        <v>3.92</v>
+      </c>
+      <c r="AG62">
+        <v>1.65</v>
+      </c>
+      <c r="AH62">
+        <v>2.1</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>3.5</v>
+      </c>
+      <c r="AL62">
+        <v>1.11</v>
+      </c>
+      <c r="AM62">
+        <v>1.06</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>3</v>
+      </c>
+      <c r="AP62">
+        <v>1.33</v>
+      </c>
+      <c r="AQ62">
+        <v>3</v>
+      </c>
+      <c r="AR62">
+        <v>1.36</v>
+      </c>
+      <c r="AS62">
+        <v>1.93</v>
+      </c>
+      <c r="AT62">
+        <v>3.29</v>
+      </c>
+      <c r="AU62">
+        <v>2</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>10</v>
+      </c>
+      <c r="AY62">
+        <v>8</v>
+      </c>
+      <c r="AZ62">
+        <v>15</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>7</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7455929</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45554.45833333334</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>86</v>
+      </c>
+      <c r="P63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q63">
+        <v>3.4</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>3.75</v>
+      </c>
+      <c r="T63">
+        <v>1.5</v>
+      </c>
+      <c r="U63">
+        <v>2.5</v>
+      </c>
+      <c r="V63">
+        <v>3.4</v>
+      </c>
+      <c r="W63">
+        <v>1.3</v>
+      </c>
+      <c r="X63">
+        <v>10</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>2.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>2.88</v>
+      </c>
+      <c r="AC63">
+        <v>1.08</v>
+      </c>
+      <c r="AD63">
+        <v>6.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.44</v>
+      </c>
+      <c r="AF63">
+        <v>2.65</v>
+      </c>
+      <c r="AG63">
+        <v>2.5</v>
+      </c>
+      <c r="AH63">
+        <v>1.5</v>
+      </c>
+      <c r="AI63">
+        <v>2.1</v>
+      </c>
+      <c r="AJ63">
+        <v>1.67</v>
+      </c>
+      <c r="AK63">
+        <v>1.38</v>
+      </c>
+      <c r="AL63">
+        <v>1.38</v>
+      </c>
+      <c r="AM63">
+        <v>1.55</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1.67</v>
+      </c>
+      <c r="AP63">
+        <v>0.83</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.43</v>
+      </c>
+      <c r="AS63">
+        <v>1.54</v>
+      </c>
+      <c r="AT63">
+        <v>2.97</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>9</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['39', '90+1']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>['71', '78']</t>
+  </si>
+  <si>
+    <t>['16', '74']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1744,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1944,7 +1950,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2356,7 +2362,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
         <v>1.6</v>
@@ -2562,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3180,7 +3186,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3386,7 +3392,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3592,7 +3598,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4085,7 +4091,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4210,7 +4216,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4288,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -4416,7 +4422,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4828,7 +4834,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5034,7 +5040,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5240,7 +5246,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5446,7 +5452,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5652,7 +5658,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5858,7 +5864,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6064,7 +6070,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6682,7 +6688,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7094,7 +7100,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7300,7 +7306,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7918,7 +7924,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -7996,7 +8002,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8205,7 +8211,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8330,7 +8336,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9154,7 +9160,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9566,7 +9572,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9772,7 +9778,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10184,7 +10190,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10390,7 +10396,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10596,7 +10602,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11089,7 +11095,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11214,7 +11220,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11420,7 +11426,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11498,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52">
         <v>2.25</v>
@@ -11832,7 +11838,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12038,7 +12044,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12244,7 +12250,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12450,7 +12456,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12656,7 +12662,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12862,7 +12868,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13068,7 +13074,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13274,7 +13280,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13480,7 +13486,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13686,7 +13692,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13842,6 +13848,212 @@
         <v>0</v>
       </c>
       <c r="BP63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7455932</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45555.45833333334</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.5</v>
+      </c>
+      <c r="U64">
+        <v>2.5</v>
+      </c>
+      <c r="V64">
+        <v>3.4</v>
+      </c>
+      <c r="W64">
+        <v>1.3</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>2.25</v>
+      </c>
+      <c r="AA64">
+        <v>3.1</v>
+      </c>
+      <c r="AB64">
+        <v>3.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.07</v>
+      </c>
+      <c r="AD64">
+        <v>7</v>
+      </c>
+      <c r="AE64">
+        <v>1.4</v>
+      </c>
+      <c r="AF64">
+        <v>2.7</v>
+      </c>
+      <c r="AG64">
+        <v>2.4</v>
+      </c>
+      <c r="AH64">
+        <v>1.53</v>
+      </c>
+      <c r="AI64">
+        <v>2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.73</v>
+      </c>
+      <c r="AK64">
+        <v>1.28</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.66</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0.8</v>
+      </c>
+      <c r="AQ64">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>0.93</v>
+      </c>
+      <c r="AS64">
+        <v>0.99</v>
+      </c>
+      <c r="AT64">
+        <v>1.92</v>
+      </c>
+      <c r="AU64">
+        <v>2</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>1</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>3</v>
+      </c>
+      <c r="AZ64">
+        <v>14</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['33', '60']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -867,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1950,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -2362,7 +2368,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2568,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2649,7 +2655,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ9">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3186,7 +3192,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3264,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3392,7 +3398,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3598,7 +3604,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3885,7 +3891,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4216,7 +4222,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4422,7 +4428,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4834,7 +4840,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4912,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>0.4</v>
@@ -5040,7 +5046,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5246,7 +5252,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5452,7 +5458,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5533,7 +5539,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR23">
         <v>0.89</v>
@@ -5658,7 +5664,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5864,7 +5870,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6070,7 +6076,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6563,7 +6569,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6688,7 +6694,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7100,7 +7106,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7181,7 +7187,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7306,7 +7312,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7384,7 +7390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7590,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -7924,7 +7930,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8336,7 +8342,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9160,7 +9166,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9572,7 +9578,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9778,7 +9784,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10190,7 +10196,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10396,7 +10402,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10602,7 +10608,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10680,7 +10686,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>3</v>
@@ -11220,7 +11226,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11301,7 +11307,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.15</v>
@@ -11426,7 +11432,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11507,7 +11513,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR52">
         <v>0.9399999999999999</v>
@@ -11710,7 +11716,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -11838,7 +11844,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12044,7 +12050,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12250,7 +12256,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12456,7 +12462,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12662,7 +12668,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12868,7 +12874,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13074,7 +13080,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13280,7 +13286,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13486,7 +13492,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13692,7 +13698,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13898,7 +13904,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14054,6 +14060,418 @@
         <v>0</v>
       </c>
       <c r="BP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7455934</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45556.47916666666</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q65">
+        <v>1.67</v>
+      </c>
+      <c r="R65">
+        <v>2.5</v>
+      </c>
+      <c r="S65">
+        <v>12</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>1.22</v>
+      </c>
+      <c r="AA65">
+        <v>6.25</v>
+      </c>
+      <c r="AB65">
+        <v>11</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>10</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1.85</v>
+      </c>
+      <c r="AH65">
+        <v>1.95</v>
+      </c>
+      <c r="AI65">
+        <v>2.75</v>
+      </c>
+      <c r="AJ65">
+        <v>1.4</v>
+      </c>
+      <c r="AK65">
+        <v>1.02</v>
+      </c>
+      <c r="AL65">
+        <v>1.09</v>
+      </c>
+      <c r="AM65">
+        <v>4</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>2.25</v>
+      </c>
+      <c r="AP65">
+        <v>1.5</v>
+      </c>
+      <c r="AQ65">
+        <v>1.8</v>
+      </c>
+      <c r="AR65">
+        <v>2.13</v>
+      </c>
+      <c r="AS65">
+        <v>1.19</v>
+      </c>
+      <c r="AT65">
+        <v>3.32</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>16</v>
+      </c>
+      <c r="AZ65">
+        <v>8</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7455931</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45556.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>126</v>
+      </c>
+      <c r="P66" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q66">
+        <v>1.5</v>
+      </c>
+      <c r="R66">
+        <v>2.88</v>
+      </c>
+      <c r="S66">
+        <v>13</v>
+      </c>
+      <c r="T66">
+        <v>1.25</v>
+      </c>
+      <c r="U66">
+        <v>3.75</v>
+      </c>
+      <c r="V66">
+        <v>2.2</v>
+      </c>
+      <c r="W66">
+        <v>1.62</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
+        <v>1.17</v>
+      </c>
+      <c r="Z66">
+        <v>1.12</v>
+      </c>
+      <c r="AA66">
+        <v>7.5</v>
+      </c>
+      <c r="AB66">
+        <v>12.69</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>17</v>
+      </c>
+      <c r="AE66">
+        <v>1.15</v>
+      </c>
+      <c r="AF66">
+        <v>5</v>
+      </c>
+      <c r="AG66">
+        <v>1.42</v>
+      </c>
+      <c r="AH66">
+        <v>2.65</v>
+      </c>
+      <c r="AI66">
+        <v>2.63</v>
+      </c>
+      <c r="AJ66">
+        <v>1.44</v>
+      </c>
+      <c r="AK66">
+        <v>1.01</v>
+      </c>
+      <c r="AL66">
+        <v>1.05</v>
+      </c>
+      <c r="AM66">
+        <v>4.75</v>
+      </c>
+      <c r="AN66">
+        <v>2.5</v>
+      </c>
+      <c r="AO66">
+        <v>1.67</v>
+      </c>
+      <c r="AP66">
+        <v>2.6</v>
+      </c>
+      <c r="AQ66">
+        <v>1.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.69</v>
+      </c>
+      <c r="AS66">
+        <v>1.23</v>
+      </c>
+      <c r="AT66">
+        <v>2.92</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
+        <v>9</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>15</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>10</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>12</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['33', '60']</t>
   </si>
   <si>
+    <t>['34', '47', '71']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
   </si>
   <si>
     <t>['16', '74']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['8', '58']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.8</v>
@@ -1750,7 +1762,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1831,7 +1843,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1956,7 +1968,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2037,7 +2049,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2368,7 +2380,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2574,7 +2586,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3067,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3192,7 +3204,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3398,7 +3410,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3604,7 +3616,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4222,7 +4234,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4428,7 +4440,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4509,7 +4521,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4712,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -4840,7 +4852,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5046,7 +5058,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5127,7 +5139,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5252,7 +5264,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5330,10 +5342,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>1.4</v>
@@ -5458,7 +5470,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5664,7 +5676,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5742,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -5870,7 +5882,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6076,7 +6088,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6694,7 +6706,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6775,7 +6787,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>2.31</v>
@@ -6978,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0.4</v>
@@ -7106,7 +7118,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7184,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>1.8</v>
@@ -7312,7 +7324,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7599,7 +7611,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -7930,7 +7942,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8011,7 +8023,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>0.91</v>
@@ -8342,7 +8354,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8423,7 +8435,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -8629,7 +8641,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9166,7 +9178,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9578,7 +9590,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9784,7 +9796,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10196,7 +10208,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10274,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>0.4</v>
@@ -10402,7 +10414,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10608,7 +10620,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10689,7 +10701,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR48">
         <v>2.49</v>
@@ -10892,10 +10904,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR49">
         <v>1.46</v>
@@ -11098,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>0.75</v>
@@ -11226,7 +11238,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11432,7 +11444,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11719,7 +11731,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11844,7 +11856,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12050,7 +12062,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12256,7 +12268,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12462,7 +12474,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12543,7 +12555,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR57">
         <v>1.32</v>
@@ -12668,7 +12680,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12874,7 +12886,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12955,7 +12967,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13080,7 +13092,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13158,7 +13170,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>3</v>
@@ -13286,7 +13298,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13492,7 +13504,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13570,7 +13582,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>3</v>
@@ -13698,7 +13710,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13904,7 +13916,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14473,6 +14485,830 @@
       </c>
       <c r="BP66">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7455935</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45557.47916666666</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>86</v>
+      </c>
+      <c r="P67" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q67">
+        <v>6.5</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>2.2</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.63</v>
+      </c>
+      <c r="V67">
+        <v>3.25</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>10</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>6.5</v>
+      </c>
+      <c r="AA67">
+        <v>3.8</v>
+      </c>
+      <c r="AB67">
+        <v>1.55</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>7.4</v>
+      </c>
+      <c r="AE67">
+        <v>1.38</v>
+      </c>
+      <c r="AF67">
+        <v>2.9</v>
+      </c>
+      <c r="AG67">
+        <v>2.15</v>
+      </c>
+      <c r="AH67">
+        <v>1.67</v>
+      </c>
+      <c r="AI67">
+        <v>2.2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.62</v>
+      </c>
+      <c r="AK67">
+        <v>2.3</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>1.08</v>
+      </c>
+      <c r="AN67">
+        <v>1.33</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>2.17</v>
+      </c>
+      <c r="AR67">
+        <v>1.23</v>
+      </c>
+      <c r="AS67">
+        <v>1.86</v>
+      </c>
+      <c r="AT67">
+        <v>3.09</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>9</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>14</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>10</v>
+      </c>
+      <c r="BC67">
+        <v>17</v>
+      </c>
+      <c r="BD67">
+        <v>2.91</v>
+      </c>
+      <c r="BE67">
+        <v>7.7</v>
+      </c>
+      <c r="BF67">
+        <v>1.62</v>
+      </c>
+      <c r="BG67">
+        <v>1.3</v>
+      </c>
+      <c r="BH67">
+        <v>2.88</v>
+      </c>
+      <c r="BI67">
+        <v>1.64</v>
+      </c>
+      <c r="BJ67">
+        <v>2.18</v>
+      </c>
+      <c r="BK67">
+        <v>2.05</v>
+      </c>
+      <c r="BL67">
+        <v>1.74</v>
+      </c>
+      <c r="BM67">
+        <v>2.62</v>
+      </c>
+      <c r="BN67">
+        <v>1.38</v>
+      </c>
+      <c r="BO67">
+        <v>3.62</v>
+      </c>
+      <c r="BP67">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7455933</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45557.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>86</v>
+      </c>
+      <c r="P68" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>1.95</v>
+      </c>
+      <c r="S68">
+        <v>3.1</v>
+      </c>
+      <c r="T68">
+        <v>1.53</v>
+      </c>
+      <c r="U68">
+        <v>2.38</v>
+      </c>
+      <c r="V68">
+        <v>3.75</v>
+      </c>
+      <c r="W68">
+        <v>1.25</v>
+      </c>
+      <c r="X68">
+        <v>11</v>
+      </c>
+      <c r="Y68">
+        <v>1.05</v>
+      </c>
+      <c r="Z68">
+        <v>3.41</v>
+      </c>
+      <c r="AA68">
+        <v>3.25</v>
+      </c>
+      <c r="AB68">
+        <v>2.17</v>
+      </c>
+      <c r="AC68">
+        <v>1.04</v>
+      </c>
+      <c r="AD68">
+        <v>6.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.47</v>
+      </c>
+      <c r="AF68">
+        <v>2.55</v>
+      </c>
+      <c r="AG68">
+        <v>2.35</v>
+      </c>
+      <c r="AH68">
+        <v>1.57</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.67</v>
+      </c>
+      <c r="AK68">
+        <v>1.6</v>
+      </c>
+      <c r="AL68">
+        <v>1.34</v>
+      </c>
+      <c r="AM68">
+        <v>1.32</v>
+      </c>
+      <c r="AN68">
+        <v>2.33</v>
+      </c>
+      <c r="AO68">
+        <v>1.33</v>
+      </c>
+      <c r="AP68">
+        <v>1.75</v>
+      </c>
+      <c r="AQ68">
+        <v>1.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.47</v>
+      </c>
+      <c r="AS68">
+        <v>1.3</v>
+      </c>
+      <c r="AT68">
+        <v>2.77</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>7</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>7</v>
+      </c>
+      <c r="AY68">
+        <v>7</v>
+      </c>
+      <c r="AZ68">
+        <v>14</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>7</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7455930</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45558.47916666666</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>127</v>
+      </c>
+      <c r="P69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q69">
+        <v>2.63</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>4.75</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>1.9</v>
+      </c>
+      <c r="AA69">
+        <v>3.5</v>
+      </c>
+      <c r="AB69">
+        <v>4</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.32</v>
+      </c>
+      <c r="AF69">
+        <v>3.05</v>
+      </c>
+      <c r="AG69">
+        <v>2.25</v>
+      </c>
+      <c r="AH69">
+        <v>1.62</v>
+      </c>
+      <c r="AI69">
+        <v>2.1</v>
+      </c>
+      <c r="AJ69">
+        <v>1.67</v>
+      </c>
+      <c r="AK69">
+        <v>1.19</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.93</v>
+      </c>
+      <c r="AN69">
+        <v>1.2</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>0.75</v>
+      </c>
+      <c r="AR69">
+        <v>1.58</v>
+      </c>
+      <c r="AS69">
+        <v>0.92</v>
+      </c>
+      <c r="AT69">
+        <v>2.5</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>8</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>4</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>5</v>
+      </c>
+      <c r="BD69">
+        <v>1.48</v>
+      </c>
+      <c r="BE69">
+        <v>7</v>
+      </c>
+      <c r="BF69">
+        <v>3.48</v>
+      </c>
+      <c r="BG69">
+        <v>1.23</v>
+      </c>
+      <c r="BH69">
+        <v>3.28</v>
+      </c>
+      <c r="BI69">
+        <v>1.47</v>
+      </c>
+      <c r="BJ69">
+        <v>2.35</v>
+      </c>
+      <c r="BK69">
+        <v>1.85</v>
+      </c>
+      <c r="BL69">
+        <v>1.85</v>
+      </c>
+      <c r="BM69">
+        <v>2.33</v>
+      </c>
+      <c r="BN69">
+        <v>1.48</v>
+      </c>
+      <c r="BO69">
+        <v>3.08</v>
+      </c>
+      <c r="BP69">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7455936</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45558.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>128</v>
+      </c>
+      <c r="P70" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q70">
+        <v>3.4</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3.5</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>2.55</v>
+      </c>
+      <c r="AA70">
+        <v>3.3</v>
+      </c>
+      <c r="AB70">
+        <v>2.7</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>1.3</v>
+      </c>
+      <c r="AF70">
+        <v>3.2</v>
+      </c>
+      <c r="AG70">
+        <v>2.2</v>
+      </c>
+      <c r="AH70">
+        <v>1.65</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.8</v>
+      </c>
+      <c r="AK70">
+        <v>1.53</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.42</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>3</v>
+      </c>
+      <c r="AP70">
+        <v>3</v>
+      </c>
+      <c r="AQ70">
+        <v>2.5</v>
+      </c>
+      <c r="AR70">
+        <v>1.47</v>
+      </c>
+      <c r="AS70">
+        <v>1.46</v>
+      </c>
+      <c r="AT70">
+        <v>2.93</v>
+      </c>
+      <c r="AU70">
+        <v>2</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>2</v>
+      </c>
+      <c r="AX70">
+        <v>4</v>
+      </c>
+      <c r="AY70">
+        <v>4</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>13</v>
+      </c>
+      <c r="BC70">
+        <v>15</v>
+      </c>
+      <c r="BD70">
+        <v>2.06</v>
+      </c>
+      <c r="BE70">
+        <v>6.05</v>
+      </c>
+      <c r="BF70">
+        <v>2.19</v>
+      </c>
+      <c r="BG70">
+        <v>1.32</v>
+      </c>
+      <c r="BH70">
+        <v>2.78</v>
+      </c>
+      <c r="BI70">
+        <v>1.61</v>
+      </c>
+      <c r="BJ70">
+        <v>2.07</v>
+      </c>
+      <c r="BK70">
+        <v>2.09</v>
+      </c>
+      <c r="BL70">
+        <v>1.66</v>
+      </c>
+      <c r="BM70">
+        <v>2.74</v>
+      </c>
+      <c r="BN70">
+        <v>1.35</v>
+      </c>
+      <c r="BO70">
+        <v>3.76</v>
+      </c>
+      <c r="BP70">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>['8', '58']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2664,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9">
         <v>1.8</v>
@@ -6578,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -7817,7 +7820,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -9874,7 +9877,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -10495,7 +10498,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
         <v>1.25</v>
@@ -12346,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ56">
         <v>0.8</v>
@@ -13791,7 +13794,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>1.43</v>
@@ -15309,6 +15312,212 @@
       </c>
       <c r="BP70">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7455881</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45560.47916666666</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>81</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q71">
+        <v>9</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <v>1.44</v>
+      </c>
+      <c r="U71">
+        <v>2.63</v>
+      </c>
+      <c r="V71">
+        <v>3.25</v>
+      </c>
+      <c r="W71">
+        <v>1.33</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>10</v>
+      </c>
+      <c r="AA71">
+        <v>4</v>
+      </c>
+      <c r="AB71">
+        <v>1.4</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>7.8</v>
+      </c>
+      <c r="AE71">
+        <v>1.38</v>
+      </c>
+      <c r="AF71">
+        <v>2.9</v>
+      </c>
+      <c r="AG71">
+        <v>2.3</v>
+      </c>
+      <c r="AH71">
+        <v>1.6</v>
+      </c>
+      <c r="AI71">
+        <v>2.63</v>
+      </c>
+      <c r="AJ71">
+        <v>1.44</v>
+      </c>
+      <c r="AK71">
+        <v>2.15</v>
+      </c>
+      <c r="AL71">
+        <v>1.22</v>
+      </c>
+      <c r="AM71">
+        <v>1.12</v>
+      </c>
+      <c r="AN71">
+        <v>0.75</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>0.8</v>
+      </c>
+      <c r="AQ71">
+        <v>1.8</v>
+      </c>
+      <c r="AR71">
+        <v>1.27</v>
+      </c>
+      <c r="AS71">
+        <v>1.65</v>
+      </c>
+      <c r="AT71">
+        <v>2.92</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>8</v>
+      </c>
+      <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>6</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,9 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['23', '32']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1440,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1637,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ4">
         <v>0.4</v>
@@ -1765,7 +1771,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1843,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
         <v>2.17</v>
@@ -1971,7 +1977,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2383,7 +2389,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2589,7 +2595,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2876,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3207,7 +3213,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3288,7 +3294,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3619,7 +3625,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3903,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4237,7 +4243,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4318,7 +4324,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4443,7 +4449,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4521,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18">
         <v>2.17</v>
@@ -4855,7 +4861,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5061,7 +5067,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5139,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -5267,7 +5273,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5473,7 +5479,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5679,7 +5685,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5885,7 +5891,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5966,7 +5972,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6091,7 +6097,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6169,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
         <v>2.33</v>
@@ -6378,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6709,7 +6715,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7121,7 +7127,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7327,7 +7333,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7408,7 +7414,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>2.6</v>
@@ -7817,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34">
         <v>1.8</v>
@@ -7945,7 +7951,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8357,7 +8363,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8435,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8641,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -8850,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
         <v>2.1</v>
@@ -9181,7 +9187,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9468,7 +9474,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -9593,7 +9599,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9671,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9799,7 +9805,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10086,7 +10092,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>2.15</v>
@@ -10211,7 +10217,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10417,7 +10423,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10623,7 +10629,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11241,7 +11247,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11319,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -11447,7 +11453,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11859,7 +11865,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -11937,10 +11943,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12065,7 +12071,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12271,7 +12277,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12352,7 +12358,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12477,7 +12483,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12555,7 +12561,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57">
         <v>2.5</v>
@@ -12683,7 +12689,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12889,7 +12895,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13095,7 +13101,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13301,7 +13307,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13379,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -13507,7 +13513,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13713,7 +13719,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13791,7 +13797,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ63">
         <v>1.8</v>
@@ -13919,7 +13925,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14537,7 +14543,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14743,7 +14749,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15361,7 +15367,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15517,6 +15523,624 @@
         <v>0</v>
       </c>
       <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7455942</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45562.47916666666</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q72">
+        <v>2.5</v>
+      </c>
+      <c r="R72">
+        <v>2.1</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.63</v>
+      </c>
+      <c r="V72">
+        <v>3.4</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
+        <v>1.8</v>
+      </c>
+      <c r="AA72">
+        <v>3.4</v>
+      </c>
+      <c r="AB72">
+        <v>4.75</v>
+      </c>
+      <c r="AC72">
+        <v>1.02</v>
+      </c>
+      <c r="AD72">
+        <v>7.1</v>
+      </c>
+      <c r="AE72">
+        <v>1.4</v>
+      </c>
+      <c r="AF72">
+        <v>2.8</v>
+      </c>
+      <c r="AG72">
+        <v>2.2</v>
+      </c>
+      <c r="AH72">
+        <v>1.65</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.73</v>
+      </c>
+      <c r="AK72">
+        <v>1.14</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
+        <v>2</v>
+      </c>
+      <c r="AN72">
+        <v>0.8</v>
+      </c>
+      <c r="AO72">
+        <v>0.25</v>
+      </c>
+      <c r="AP72">
+        <v>0.83</v>
+      </c>
+      <c r="AQ72">
+        <v>0.4</v>
+      </c>
+      <c r="AR72">
+        <v>1.2</v>
+      </c>
+      <c r="AS72">
+        <v>0.98</v>
+      </c>
+      <c r="AT72">
+        <v>2.18</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>10</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>2</v>
+      </c>
+      <c r="BC72">
+        <v>7</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7455939</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45562.58333333334</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>129</v>
+      </c>
+      <c r="P73" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q73">
+        <v>3.6</v>
+      </c>
+      <c r="R73">
+        <v>1.91</v>
+      </c>
+      <c r="S73">
+        <v>3.6</v>
+      </c>
+      <c r="T73">
+        <v>1.57</v>
+      </c>
+      <c r="U73">
+        <v>2.25</v>
+      </c>
+      <c r="V73">
+        <v>3.75</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>11</v>
+      </c>
+      <c r="Y73">
+        <v>1.05</v>
+      </c>
+      <c r="Z73">
+        <v>2.75</v>
+      </c>
+      <c r="AA73">
+        <v>3</v>
+      </c>
+      <c r="AB73">
+        <v>2.75</v>
+      </c>
+      <c r="AC73">
+        <v>1.1</v>
+      </c>
+      <c r="AD73">
+        <v>7.25</v>
+      </c>
+      <c r="AE73">
+        <v>1.5</v>
+      </c>
+      <c r="AF73">
+        <v>2.4</v>
+      </c>
+      <c r="AG73">
+        <v>2.6</v>
+      </c>
+      <c r="AH73">
+        <v>1.48</v>
+      </c>
+      <c r="AI73">
+        <v>2.1</v>
+      </c>
+      <c r="AJ73">
+        <v>1.67</v>
+      </c>
+      <c r="AK73">
+        <v>1.4</v>
+      </c>
+      <c r="AL73">
+        <v>1.33</v>
+      </c>
+      <c r="AM73">
+        <v>1.45</v>
+      </c>
+      <c r="AN73">
+        <v>0.25</v>
+      </c>
+      <c r="AO73">
+        <v>0.8</v>
+      </c>
+      <c r="AP73">
+        <v>0.8</v>
+      </c>
+      <c r="AQ73">
+        <v>0.67</v>
+      </c>
+      <c r="AR73">
+        <v>1.28</v>
+      </c>
+      <c r="AS73">
+        <v>1.89</v>
+      </c>
+      <c r="AT73">
+        <v>3.17</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>6</v>
+      </c>
+      <c r="AY73">
+        <v>9</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7455944</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>4.75</v>
+      </c>
+      <c r="T74">
+        <v>1.44</v>
+      </c>
+      <c r="U74">
+        <v>2.63</v>
+      </c>
+      <c r="V74">
+        <v>3.25</v>
+      </c>
+      <c r="W74">
+        <v>1.33</v>
+      </c>
+      <c r="X74">
+        <v>9</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>1.83</v>
+      </c>
+      <c r="AA74">
+        <v>3.4</v>
+      </c>
+      <c r="AB74">
+        <v>4.5</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>7.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.36</v>
+      </c>
+      <c r="AF74">
+        <v>3</v>
+      </c>
+      <c r="AG74">
+        <v>2.1</v>
+      </c>
+      <c r="AH74">
+        <v>1.7</v>
+      </c>
+      <c r="AI74">
+        <v>1.91</v>
+      </c>
+      <c r="AJ74">
+        <v>1.8</v>
+      </c>
+      <c r="AK74">
+        <v>1.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.83</v>
+      </c>
+      <c r="AN74">
+        <v>0.83</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0.71</v>
+      </c>
+      <c r="AQ74">
+        <v>0.75</v>
+      </c>
+      <c r="AR74">
+        <v>1.39</v>
+      </c>
+      <c r="AS74">
+        <v>1.15</v>
+      </c>
+      <c r="AT74">
+        <v>2.54</v>
+      </c>
+      <c r="AU74">
+        <v>5</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>10</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>15</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>5</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -894,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.8</v>
@@ -2264,7 +2264,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.75</v>
@@ -4736,7 +4736,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -9062,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.3</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -12767,7 +12767,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.4</v>
@@ -13388,7 +13388,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -16142,6 +16142,212 @@
       </c>
       <c r="BP74">
         <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7455940</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45563.58333333334</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>86</v>
+      </c>
+      <c r="P75" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q75">
+        <v>3.2</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>3.75</v>
+      </c>
+      <c r="T75">
+        <v>1.5</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>3.4</v>
+      </c>
+      <c r="W75">
+        <v>1.3</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>2.55</v>
+      </c>
+      <c r="AA75">
+        <v>3.05</v>
+      </c>
+      <c r="AB75">
+        <v>2.55</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>6.7</v>
+      </c>
+      <c r="AE75">
+        <v>1.42</v>
+      </c>
+      <c r="AF75">
+        <v>2.65</v>
+      </c>
+      <c r="AG75">
+        <v>2.45</v>
+      </c>
+      <c r="AH75">
+        <v>1.48</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.73</v>
+      </c>
+      <c r="AK75">
+        <v>1.38</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.44</v>
+      </c>
+      <c r="AN75">
+        <v>2.2</v>
+      </c>
+      <c r="AO75">
+        <v>0.75</v>
+      </c>
+      <c r="AP75">
+        <v>2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.8</v>
+      </c>
+      <c r="AR75">
+        <v>2.04</v>
+      </c>
+      <c r="AS75">
+        <v>1.8</v>
+      </c>
+      <c r="AT75">
+        <v>3.84</v>
+      </c>
+      <c r="AU75">
+        <v>3</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>1</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>4</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.86</v>
+      </c>
+      <c r="BE75">
+        <v>6.4</v>
+      </c>
+      <c r="BF75">
+        <v>2.43</v>
+      </c>
+      <c r="BG75">
+        <v>1.22</v>
+      </c>
+      <c r="BH75">
+        <v>3.35</v>
+      </c>
+      <c r="BI75">
+        <v>1.51</v>
+      </c>
+      <c r="BJ75">
+        <v>2.45</v>
+      </c>
+      <c r="BK75">
+        <v>1.9</v>
+      </c>
+      <c r="BL75">
+        <v>1.92</v>
+      </c>
+      <c r="BM75">
+        <v>2.35</v>
+      </c>
+      <c r="BN75">
+        <v>1.56</v>
+      </c>
+      <c r="BO75">
+        <v>3.02</v>
+      </c>
+      <c r="BP75">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['12', '72']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -533,6 +536,15 @@
   </si>
   <si>
     <t>['23', '32']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['33', '39']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1646,7 +1658,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1771,7 +1783,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1977,7 +1989,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2055,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2389,7 +2401,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2595,7 +2607,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3213,7 +3225,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3419,7 +3431,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3497,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -3625,7 +3637,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4243,7 +4255,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4449,7 +4461,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4861,7 +4873,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4942,7 +4954,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.29</v>
@@ -5067,7 +5079,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5273,7 +5285,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5354,7 +5366,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR22">
         <v>1.4</v>
@@ -5479,7 +5491,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5557,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>1.8</v>
@@ -5685,7 +5697,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5891,7 +5903,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6097,7 +6109,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6715,7 +6727,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7002,7 +7014,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7127,7 +7139,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7333,7 +7345,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7951,7 +7963,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8032,7 +8044,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR35">
         <v>0.91</v>
@@ -8235,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
         <v>0.75</v>
@@ -8363,7 +8375,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9187,7 +9199,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9471,7 +9483,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9599,7 +9611,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9805,7 +9817,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10217,7 +10229,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10298,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10423,7 +10435,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10501,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ47">
         <v>1.8</v>
@@ -10629,7 +10641,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10710,7 +10722,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR48">
         <v>2.49</v>
@@ -11247,7 +11259,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11453,7 +11465,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11865,7 +11877,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12071,7 +12083,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12149,7 +12161,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12277,7 +12289,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12483,7 +12495,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12564,7 +12576,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR57">
         <v>1.32</v>
@@ -12689,7 +12701,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12770,7 +12782,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -12895,7 +12907,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12973,7 +12985,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>2.17</v>
@@ -13101,7 +13113,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13307,7 +13319,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13513,7 +13525,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13719,7 +13731,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13925,7 +13937,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14543,7 +14555,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14749,7 +14761,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15242,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="AQ70">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -15367,7 +15379,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15985,7 +15997,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16348,6 +16360,624 @@
       </c>
       <c r="BP75">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7455937</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45564.42708333334</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q76">
+        <v>3.25</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>3.6</v>
+      </c>
+      <c r="T76">
+        <v>1.53</v>
+      </c>
+      <c r="U76">
+        <v>2.38</v>
+      </c>
+      <c r="V76">
+        <v>3.5</v>
+      </c>
+      <c r="W76">
+        <v>1.29</v>
+      </c>
+      <c r="X76">
+        <v>11</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>2.5</v>
+      </c>
+      <c r="AA76">
+        <v>3.2</v>
+      </c>
+      <c r="AB76">
+        <v>2.88</v>
+      </c>
+      <c r="AC76">
+        <v>1.08</v>
+      </c>
+      <c r="AD76">
+        <v>8</v>
+      </c>
+      <c r="AE76">
+        <v>1.36</v>
+      </c>
+      <c r="AF76">
+        <v>2.95</v>
+      </c>
+      <c r="AG76">
+        <v>2.15</v>
+      </c>
+      <c r="AH76">
+        <v>1.67</v>
+      </c>
+      <c r="AI76">
+        <v>1.83</v>
+      </c>
+      <c r="AJ76">
+        <v>1.83</v>
+      </c>
+      <c r="AK76">
+        <v>1.44</v>
+      </c>
+      <c r="AL76">
+        <v>1.3</v>
+      </c>
+      <c r="AM76">
+        <v>1.45</v>
+      </c>
+      <c r="AN76">
+        <v>1.33</v>
+      </c>
+      <c r="AO76">
+        <v>2.5</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>2.57</v>
+      </c>
+      <c r="AR76">
+        <v>1.78</v>
+      </c>
+      <c r="AS76">
+        <v>1.52</v>
+      </c>
+      <c r="AT76">
+        <v>3.3</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>3</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>5</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7455938</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45564.53125</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>130</v>
+      </c>
+      <c r="P77" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q77">
+        <v>1.91</v>
+      </c>
+      <c r="R77">
+        <v>2.3</v>
+      </c>
+      <c r="S77">
+        <v>8.5</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>1.43</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>6.4</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.3</v>
+      </c>
+      <c r="AG77">
+        <v>1.93</v>
+      </c>
+      <c r="AH77">
+        <v>1.77</v>
+      </c>
+      <c r="AI77">
+        <v>2.38</v>
+      </c>
+      <c r="AJ77">
+        <v>1.53</v>
+      </c>
+      <c r="AK77">
+        <v>1.01</v>
+      </c>
+      <c r="AL77">
+        <v>1.14</v>
+      </c>
+      <c r="AM77">
+        <v>3.25</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>0.4</v>
+      </c>
+      <c r="AP77">
+        <v>3</v>
+      </c>
+      <c r="AQ77">
+        <v>0.33</v>
+      </c>
+      <c r="AR77">
+        <v>1.95</v>
+      </c>
+      <c r="AS77">
+        <v>1.18</v>
+      </c>
+      <c r="AT77">
+        <v>3.13</v>
+      </c>
+      <c r="AU77">
+        <v>10</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>10</v>
+      </c>
+      <c r="AX77">
+        <v>2</v>
+      </c>
+      <c r="AY77">
+        <v>20</v>
+      </c>
+      <c r="AZ77">
+        <v>6</v>
+      </c>
+      <c r="BA77">
+        <v>3</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>6</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7455943</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45564.63541666666</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q78">
+        <v>1.53</v>
+      </c>
+      <c r="R78">
+        <v>2.88</v>
+      </c>
+      <c r="S78">
+        <v>13</v>
+      </c>
+      <c r="T78">
+        <v>1.3</v>
+      </c>
+      <c r="U78">
+        <v>3.4</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.5</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.13</v>
+      </c>
+      <c r="Z78">
+        <v>1.14</v>
+      </c>
+      <c r="AA78">
+        <v>7</v>
+      </c>
+      <c r="AB78">
+        <v>17</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>16</v>
+      </c>
+      <c r="AE78">
+        <v>1.14</v>
+      </c>
+      <c r="AF78">
+        <v>4.8</v>
+      </c>
+      <c r="AG78">
+        <v>1.57</v>
+      </c>
+      <c r="AH78">
+        <v>2.35</v>
+      </c>
+      <c r="AI78">
+        <v>2.63</v>
+      </c>
+      <c r="AJ78">
+        <v>1.44</v>
+      </c>
+      <c r="AK78">
+        <v>4</v>
+      </c>
+      <c r="AL78">
+        <v>1.07</v>
+      </c>
+      <c r="AM78">
+        <v>1.02</v>
+      </c>
+      <c r="AN78">
+        <v>0.8</v>
+      </c>
+      <c r="AO78">
+        <v>3</v>
+      </c>
+      <c r="AP78">
+        <v>0.67</v>
+      </c>
+      <c r="AQ78">
+        <v>3</v>
+      </c>
+      <c r="AR78">
+        <v>1.44</v>
+      </c>
+      <c r="AS78">
+        <v>1.89</v>
+      </c>
+      <c r="AT78">
+        <v>3.33</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>3</v>
+      </c>
+      <c r="AX78">
+        <v>8</v>
+      </c>
+      <c r="AY78">
+        <v>3</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>['33', '39']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2482,7 +2485,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>1.8</v>
@@ -3512,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5778,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6599,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -9280,7 +9283,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -9895,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
         <v>2.33</v>
@@ -12164,7 +12167,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.43</v>
@@ -12367,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -15457,7 +15460,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ71">
         <v>1.8</v>
@@ -16726,13 +16729,13 @@
         <v>6</v>
       </c>
       <c r="BA77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD77">
         <v>0</v>
@@ -16977,6 +16980,212 @@
         <v>0</v>
       </c>
       <c r="BP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7455941</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>86</v>
+      </c>
+      <c r="P79" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q79">
+        <v>3.6</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>3.25</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.25</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.9</v>
+      </c>
+      <c r="AA79">
+        <v>3.25</v>
+      </c>
+      <c r="AB79">
+        <v>2.45</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>7.3</v>
+      </c>
+      <c r="AE79">
+        <v>1.33</v>
+      </c>
+      <c r="AF79">
+        <v>2.73</v>
+      </c>
+      <c r="AG79">
+        <v>2.3</v>
+      </c>
+      <c r="AH79">
+        <v>1.6</v>
+      </c>
+      <c r="AI79">
+        <v>1.91</v>
+      </c>
+      <c r="AJ79">
+        <v>1.8</v>
+      </c>
+      <c r="AK79">
+        <v>1.95</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.16</v>
+      </c>
+      <c r="AN79">
+        <v>0.8</v>
+      </c>
+      <c r="AO79">
+        <v>1.6</v>
+      </c>
+      <c r="AP79">
+        <v>0.67</v>
+      </c>
+      <c r="AQ79">
+        <v>1.83</v>
+      </c>
+      <c r="AR79">
+        <v>1.26</v>
+      </c>
+      <c r="AS79">
+        <v>1.27</v>
+      </c>
+      <c r="AT79">
+        <v>2.53</v>
+      </c>
+      <c r="AU79">
+        <v>2</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>7</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>7</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>12</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -1273,10 +1273,10 @@
         <v>9</v>
       </c>
       <c r="AY2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA2">
         <v>10</v>
@@ -1479,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA3">
         <v>5</v>
@@ -1685,10 +1685,10 @@
         <v>7</v>
       </c>
       <c r="AY4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA4">
         <v>2</v>
@@ -1891,10 +1891,10 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2097,10 +2097,10 @@
         <v>8</v>
       </c>
       <c r="AY6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA6">
         <v>6</v>
@@ -2303,10 +2303,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
+        <v>17</v>
+      </c>
+      <c r="AZ7">
         <v>11</v>
-      </c>
-      <c r="AZ7">
-        <v>8</v>
       </c>
       <c r="BA7">
         <v>4</v>
@@ -2509,10 +2509,10 @@
         <v>7</v>
       </c>
       <c r="AY8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8">
         <v>2</v>
@@ -2715,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2921,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ10">
         <v>12</v>
@@ -3127,10 +3127,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3333,10 +3333,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA12">
         <v>10</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AY13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ13">
         <v>4</v>
@@ -3745,10 +3745,10 @@
         <v>8</v>
       </c>
       <c r="AY14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA14">
         <v>11</v>
@@ -3951,10 +3951,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA15">
         <v>6</v>
@@ -4157,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -4363,10 +4363,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA17">
         <v>10</v>
@@ -4572,7 +4572,7 @@
         <v>6</v>
       </c>
       <c r="AZ18">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -4775,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA19">
         <v>3</v>
@@ -4981,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ20">
         <v>5</v>
@@ -5187,10 +5187,10 @@
         <v>8</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5393,10 +5393,10 @@
         <v>11</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -5599,7 +5599,7 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ23">
         <v>6</v>
@@ -5805,10 +5805,10 @@
         <v>5</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6014,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="AZ25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6217,10 +6217,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA26">
         <v>5</v>
@@ -6423,10 +6423,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -6629,10 +6629,10 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <v>2</v>
@@ -6835,7 +6835,7 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ29">
         <v>7</v>
@@ -7041,10 +7041,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7247,10 +7247,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AZ31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -7453,10 +7453,10 @@
         <v>7</v>
       </c>
       <c r="AY32">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AZ32">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA32">
         <v>8</v>
@@ -7659,10 +7659,10 @@
         <v>6</v>
       </c>
       <c r="AY33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -7865,10 +7865,10 @@
         <v>7</v>
       </c>
       <c r="AY34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA34">
         <v>4</v>
@@ -8071,10 +8071,10 @@
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA35">
         <v>11</v>
@@ -8277,10 +8277,10 @@
         <v>7</v>
       </c>
       <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
         <v>10</v>
-      </c>
-      <c r="AZ36">
-        <v>9</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8483,10 +8483,10 @@
         <v>7</v>
       </c>
       <c r="AY37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -8689,10 +8689,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA38">
         <v>8</v>
@@ -8895,10 +8895,10 @@
         <v>1</v>
       </c>
       <c r="AY39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9101,10 +9101,10 @@
         <v>11</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA40">
         <v>1</v>
@@ -9307,7 +9307,7 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ41">
         <v>9</v>
@@ -9513,10 +9513,10 @@
         <v>9</v>
       </c>
       <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
         <v>14</v>
-      </c>
-      <c r="AZ42">
-        <v>12</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -9719,10 +9719,10 @@
         <v>15</v>
       </c>
       <c r="AY43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ43">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -9928,7 +9928,7 @@
         <v>10</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -10131,10 +10131,10 @@
         <v>8</v>
       </c>
       <c r="AY45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA45">
         <v>4</v>
@@ -10337,10 +10337,10 @@
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ46">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -10543,10 +10543,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="AY48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ48">
         <v>6</v>
@@ -10955,10 +10955,10 @@
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11161,10 +11161,10 @@
         <v>4</v>
       </c>
       <c r="AY50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA50">
         <v>8</v>
@@ -11370,7 +11370,7 @@
         <v>6</v>
       </c>
       <c r="AZ51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11576,7 +11576,7 @@
         <v>6</v>
       </c>
       <c r="AZ52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11779,10 +11779,10 @@
         <v>5</v>
       </c>
       <c r="AY53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -11985,10 +11985,10 @@
         <v>2</v>
       </c>
       <c r="AY54">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AZ54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12191,7 +12191,7 @@
         <v>9</v>
       </c>
       <c r="AY55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ55">
         <v>12</v>
@@ -12400,7 +12400,7 @@
         <v>12</v>
       </c>
       <c r="AZ56">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA56">
         <v>5</v>
@@ -12603,10 +12603,10 @@
         <v>2</v>
       </c>
       <c r="AY57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA57">
         <v>0</v>
@@ -12809,10 +12809,10 @@
         <v>7</v>
       </c>
       <c r="AY58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -13015,10 +13015,10 @@
         <v>6</v>
       </c>
       <c r="AY59">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>6</v>
@@ -13224,7 +13224,7 @@
         <v>6</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA60">
         <v>4</v>
@@ -13427,10 +13427,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ61">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -13633,10 +13633,10 @@
         <v>10</v>
       </c>
       <c r="AY62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -14048,7 +14048,7 @@
         <v>3</v>
       </c>
       <c r="AZ64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA64">
         <v>1</v>
@@ -14251,10 +14251,10 @@
         <v>4</v>
       </c>
       <c r="AY65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -14457,10 +14457,10 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA66">
         <v>10</v>
@@ -14663,10 +14663,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -14869,10 +14869,10 @@
         <v>7</v>
       </c>
       <c r="AY68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ68">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA68">
         <v>2</v>
@@ -15075,10 +15075,10 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA69">
         <v>2</v>
@@ -15281,10 +15281,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ70">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA70">
         <v>2</v>
@@ -15490,7 +15490,7 @@
         <v>8</v>
       </c>
       <c r="AZ71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA71">
         <v>4</v>
@@ -15693,10 +15693,10 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -15902,7 +15902,7 @@
         <v>9</v>
       </c>
       <c r="AZ73">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16105,10 +16105,10 @@
         <v>2</v>
       </c>
       <c r="AY74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16311,10 +16311,10 @@
         <v>3</v>
       </c>
       <c r="AY75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -16517,10 +16517,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA76">
         <v>3</v>
@@ -16723,10 +16723,10 @@
         <v>2</v>
       </c>
       <c r="AY77">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA77">
         <v>2</v>
@@ -16929,10 +16929,10 @@
         <v>8</v>
       </c>
       <c r="AY78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ78">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA78">
         <v>3</v>
@@ -17135,7 +17135,7 @@
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ79">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['12', '72']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -548,6 +554,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1452,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1786,7 +1795,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1992,7 +2001,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2404,7 +2413,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2610,7 +2619,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2691,7 +2700,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2894,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>0.75</v>
@@ -3228,7 +3237,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3434,7 +3443,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3640,7 +3649,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4258,7 +4267,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4464,7 +4473,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4876,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5082,7 +5091,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5163,7 +5172,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5288,7 +5297,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5366,7 +5375,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
         <v>2.57</v>
@@ -5494,7 +5503,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5575,7 +5584,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>0.89</v>
@@ -5700,7 +5709,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5778,7 +5787,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>1.83</v>
@@ -5906,7 +5915,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -5984,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
         <v>0.4</v>
@@ -6112,7 +6121,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6730,7 +6739,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7142,7 +7151,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7220,10 +7229,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7348,7 +7357,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7841,7 +7850,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ34">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -7966,7 +7975,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8378,7 +8387,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8459,7 +8468,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -9074,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9202,7 +9211,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9614,7 +9623,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9820,7 +9829,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10232,7 +10241,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10310,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
         <v>0.33</v>
@@ -10438,7 +10447,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10519,7 +10528,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.25</v>
@@ -10644,7 +10653,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11134,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>0.75</v>
@@ -11262,7 +11271,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11468,7 +11477,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11549,7 +11558,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>0.9399999999999999</v>
@@ -11755,7 +11764,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11880,7 +11889,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12086,7 +12095,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12292,7 +12301,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12498,7 +12507,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12704,7 +12713,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12910,7 +12919,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13116,7 +13125,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13194,7 +13203,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
         <v>3</v>
@@ -13322,7 +13331,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13528,7 +13537,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13606,7 +13615,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62">
         <v>3</v>
@@ -13734,7 +13743,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13815,7 +13824,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.43</v>
@@ -13940,7 +13949,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14227,7 +14236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
         <v>2.13</v>
@@ -14558,7 +14567,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14636,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>2.17</v>
@@ -14764,7 +14773,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14845,7 +14854,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15048,7 +15057,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15254,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ70">
         <v>2.57</v>
@@ -15382,7 +15391,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15463,7 +15472,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ71">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.27</v>
@@ -16000,7 +16009,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16412,7 +16421,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q76">
         <v>3.25</v>
@@ -16618,7 +16627,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16824,7 +16833,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17030,7 +17039,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17187,6 +17196,624 @@
       </c>
       <c r="BP79">
         <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7455945</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45569.375</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>131</v>
+      </c>
+      <c r="P80" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>1.91</v>
+      </c>
+      <c r="S80">
+        <v>3.4</v>
+      </c>
+      <c r="T80">
+        <v>1.5</v>
+      </c>
+      <c r="U80">
+        <v>2.5</v>
+      </c>
+      <c r="V80">
+        <v>3.5</v>
+      </c>
+      <c r="W80">
+        <v>1.29</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.05</v>
+      </c>
+      <c r="Z80">
+        <v>3</v>
+      </c>
+      <c r="AA80">
+        <v>3.1</v>
+      </c>
+      <c r="AB80">
+        <v>2.45</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>6.2</v>
+      </c>
+      <c r="AE80">
+        <v>1.5</v>
+      </c>
+      <c r="AF80">
+        <v>2.4</v>
+      </c>
+      <c r="AG80">
+        <v>2.7</v>
+      </c>
+      <c r="AH80">
+        <v>1.44</v>
+      </c>
+      <c r="AI80">
+        <v>2.2</v>
+      </c>
+      <c r="AJ80">
+        <v>1.62</v>
+      </c>
+      <c r="AK80">
+        <v>1.62</v>
+      </c>
+      <c r="AL80">
+        <v>1.34</v>
+      </c>
+      <c r="AM80">
+        <v>1.3</v>
+      </c>
+      <c r="AN80">
+        <v>1.5</v>
+      </c>
+      <c r="AO80">
+        <v>1.8</v>
+      </c>
+      <c r="AP80">
+        <v>1.43</v>
+      </c>
+      <c r="AQ80">
+        <v>1.67</v>
+      </c>
+      <c r="AR80">
+        <v>1.66</v>
+      </c>
+      <c r="AS80">
+        <v>1.63</v>
+      </c>
+      <c r="AT80">
+        <v>3.29</v>
+      </c>
+      <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>11</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>21</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>3</v>
+      </c>
+      <c r="BC80">
+        <v>5</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7455951</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45569.47916666666</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>132</v>
+      </c>
+      <c r="P81" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q81">
+        <v>2.6</v>
+      </c>
+      <c r="R81">
+        <v>1.91</v>
+      </c>
+      <c r="S81">
+        <v>6</v>
+      </c>
+      <c r="T81">
+        <v>1.53</v>
+      </c>
+      <c r="U81">
+        <v>2.38</v>
+      </c>
+      <c r="V81">
+        <v>3.75</v>
+      </c>
+      <c r="W81">
+        <v>1.25</v>
+      </c>
+      <c r="X81">
+        <v>11</v>
+      </c>
+      <c r="Y81">
+        <v>1.05</v>
+      </c>
+      <c r="Z81">
+        <v>1.89</v>
+      </c>
+      <c r="AA81">
+        <v>2.9</v>
+      </c>
+      <c r="AB81">
+        <v>4</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>6.15</v>
+      </c>
+      <c r="AE81">
+        <v>1.55</v>
+      </c>
+      <c r="AF81">
+        <v>2.3</v>
+      </c>
+      <c r="AG81">
+        <v>2.35</v>
+      </c>
+      <c r="AH81">
+        <v>1.52</v>
+      </c>
+      <c r="AI81">
+        <v>2.63</v>
+      </c>
+      <c r="AJ81">
+        <v>1.44</v>
+      </c>
+      <c r="AK81">
+        <v>1.15</v>
+      </c>
+      <c r="AL81">
+        <v>1.3</v>
+      </c>
+      <c r="AM81">
+        <v>2</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>1.8</v>
+      </c>
+      <c r="AP81">
+        <v>2.6</v>
+      </c>
+      <c r="AQ81">
+        <v>1.67</v>
+      </c>
+      <c r="AR81">
+        <v>1.28</v>
+      </c>
+      <c r="AS81">
+        <v>1.15</v>
+      </c>
+      <c r="AT81">
+        <v>2.43</v>
+      </c>
+      <c r="AU81">
+        <v>6</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>16</v>
+      </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>3</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7455950</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45569.58333333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>120</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>2.6</v>
+      </c>
+      <c r="T82">
+        <v>1.5</v>
+      </c>
+      <c r="U82">
+        <v>2.5</v>
+      </c>
+      <c r="V82">
+        <v>3.4</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>4.33</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>1.83</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>6.75</v>
+      </c>
+      <c r="AE82">
+        <v>1.37</v>
+      </c>
+      <c r="AF82">
+        <v>2.58</v>
+      </c>
+      <c r="AG82">
+        <v>2.3</v>
+      </c>
+      <c r="AH82">
+        <v>1.6</v>
+      </c>
+      <c r="AI82">
+        <v>2.1</v>
+      </c>
+      <c r="AJ82">
+        <v>1.67</v>
+      </c>
+      <c r="AK82">
+        <v>1.75</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.22</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1.75</v>
+      </c>
+      <c r="AP82">
+        <v>1.4</v>
+      </c>
+      <c r="AQ82">
+        <v>1.4</v>
+      </c>
+      <c r="AR82">
+        <v>1.26</v>
+      </c>
+      <c r="AS82">
+        <v>1.43</v>
+      </c>
+      <c r="AT82">
+        <v>2.69</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>8</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>2.14</v>
+      </c>
+      <c r="BE82">
+        <v>7.2</v>
+      </c>
+      <c r="BF82">
+        <v>2.03</v>
+      </c>
+      <c r="BG82">
+        <v>1.31</v>
+      </c>
+      <c r="BH82">
+        <v>3.1</v>
+      </c>
+      <c r="BI82">
+        <v>1.57</v>
+      </c>
+      <c r="BJ82">
+        <v>2.31</v>
+      </c>
+      <c r="BK82">
+        <v>1.95</v>
+      </c>
+      <c r="BL82">
+        <v>1.84</v>
+      </c>
+      <c r="BM82">
+        <v>2.46</v>
+      </c>
+      <c r="BN82">
+        <v>1.51</v>
+      </c>
+      <c r="BO82">
+        <v>3.2</v>
+      </c>
+      <c r="BP82">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -918,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1876,7 +1879,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2001,7 +2004,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2413,7 +2416,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2619,7 +2622,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3237,7 +3240,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3315,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>0.4</v>
@@ -3443,7 +3446,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3649,7 +3652,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3727,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>2.33</v>
@@ -4142,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4267,7 +4270,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4473,7 +4476,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4554,7 +4557,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4885,7 +4888,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5091,7 +5094,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5297,7 +5300,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5503,7 +5506,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5709,7 +5712,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5915,7 +5918,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6121,7 +6124,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6739,7 +6742,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7151,7 +7154,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7357,7 +7360,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7435,7 +7438,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7644,7 +7647,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ33">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -7975,7 +7978,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8262,7 +8265,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8387,7 +8390,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9211,7 +9214,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9289,7 +9292,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.83</v>
@@ -9623,7 +9626,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9829,7 +9832,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10241,7 +10244,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10447,7 +10450,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10653,7 +10656,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10731,7 +10734,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>2.57</v>
@@ -10940,7 +10943,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR49">
         <v>1.46</v>
@@ -11146,7 +11149,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11271,7 +11274,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11477,7 +11480,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11889,7 +11892,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12095,7 +12098,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12301,7 +12304,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12507,7 +12510,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12713,7 +12716,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12919,7 +12922,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13000,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13125,7 +13128,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13331,7 +13334,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13537,7 +13540,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13743,7 +13746,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13949,7 +13952,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14030,7 +14033,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>0.93</v>
@@ -14233,7 +14236,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
         <v>1.67</v>
@@ -14567,7 +14570,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14648,7 +14651,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -14773,7 +14776,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15391,7 +15394,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16009,7 +16012,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16421,7 +16424,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q76">
         <v>3.25</v>
@@ -16627,7 +16630,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16833,7 +16836,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17039,7 +17042,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17245,7 +17248,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17451,7 +17454,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17762,10 +17765,10 @@
         <v>6</v>
       </c>
       <c r="AY82">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -17813,6 +17816,418 @@
         <v>3.2</v>
       </c>
       <c r="BP82">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7455949</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45570.47916666666</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>86</v>
+      </c>
+      <c r="P83" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q83">
+        <v>1.44</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>15</v>
+      </c>
+      <c r="T83">
+        <v>1.25</v>
+      </c>
+      <c r="U83">
+        <v>3.75</v>
+      </c>
+      <c r="V83">
+        <v>2.2</v>
+      </c>
+      <c r="W83">
+        <v>1.62</v>
+      </c>
+      <c r="X83">
+        <v>5</v>
+      </c>
+      <c r="Y83">
+        <v>1.17</v>
+      </c>
+      <c r="Z83">
+        <v>1.11</v>
+      </c>
+      <c r="AA83">
+        <v>8</v>
+      </c>
+      <c r="AB83">
+        <v>21</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>17</v>
+      </c>
+      <c r="AE83">
+        <v>1.12</v>
+      </c>
+      <c r="AF83">
+        <v>4.4</v>
+      </c>
+      <c r="AG83">
+        <v>1.44</v>
+      </c>
+      <c r="AH83">
+        <v>2.7</v>
+      </c>
+      <c r="AI83">
+        <v>2.75</v>
+      </c>
+      <c r="AJ83">
+        <v>1.4</v>
+      </c>
+      <c r="AK83">
+        <v>1.01</v>
+      </c>
+      <c r="AL83">
+        <v>1.04</v>
+      </c>
+      <c r="AM83">
+        <v>6.85</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>1.2</v>
+      </c>
+      <c r="AQ83">
+        <v>1.2</v>
+      </c>
+      <c r="AR83">
+        <v>2.04</v>
+      </c>
+      <c r="AS83">
+        <v>1.23</v>
+      </c>
+      <c r="AT83">
+        <v>3.27</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>10</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>11</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>13</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7455952</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45570.58333333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>133</v>
+      </c>
+      <c r="P84" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.75</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>3.4</v>
+      </c>
+      <c r="AA84">
+        <v>3.2</v>
+      </c>
+      <c r="AB84">
+        <v>2.2</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.14</v>
+      </c>
+      <c r="AG84">
+        <v>2.35</v>
+      </c>
+      <c r="AH84">
+        <v>1.57</v>
+      </c>
+      <c r="AI84">
+        <v>2</v>
+      </c>
+      <c r="AJ84">
+        <v>1.73</v>
+      </c>
+      <c r="AK84">
+        <v>1.76</v>
+      </c>
+      <c r="AL84">
+        <v>1.28</v>
+      </c>
+      <c r="AM84">
+        <v>1.28</v>
+      </c>
+      <c r="AN84">
+        <v>0.5</v>
+      </c>
+      <c r="AO84">
+        <v>2.17</v>
+      </c>
+      <c r="AP84">
+        <v>1.33</v>
+      </c>
+      <c r="AQ84">
+        <v>1.86</v>
+      </c>
+      <c r="AR84">
+        <v>1.6</v>
+      </c>
+      <c r="AS84">
+        <v>1.9</v>
+      </c>
+      <c r="AT84">
+        <v>3.5</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>1</v>
+      </c>
+      <c r="AX84">
+        <v>12</v>
+      </c>
+      <c r="AY84">
+        <v>5</v>
+      </c>
+      <c r="AZ84">
+        <v>22</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>14</v>
+      </c>
+      <c r="BC84">
+        <v>19</v>
+      </c>
+      <c r="BD84">
+        <v>2.38</v>
+      </c>
+      <c r="BE84">
+        <v>6.3</v>
+      </c>
+      <c r="BF84">
+        <v>1.9</v>
+      </c>
+      <c r="BG84">
+        <v>1.31</v>
+      </c>
+      <c r="BH84">
+        <v>3.1</v>
+      </c>
+      <c r="BI84">
+        <v>1.54</v>
+      </c>
+      <c r="BJ84">
+        <v>2.3</v>
+      </c>
+      <c r="BK84">
+        <v>1.9</v>
+      </c>
+      <c r="BL84">
+        <v>1.8</v>
+      </c>
+      <c r="BM84">
+        <v>2.4</v>
+      </c>
+      <c r="BN84">
+        <v>1.5</v>
+      </c>
+      <c r="BO84">
+        <v>3.2</v>
+      </c>
+      <c r="BP84">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,12 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['28', '59', '90']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -547,9 +553,6 @@
     <t>['23', '32']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['39']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['2', '13']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1804,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2004,7 +2010,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2416,7 +2422,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>1.83</v>
@@ -2622,7 +2628,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3115,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3240,7 +3246,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3446,7 +3452,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3652,7 +3658,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3733,7 +3739,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3939,7 +3945,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4270,7 +4276,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4348,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4476,7 +4482,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4760,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.8</v>
@@ -4888,7 +4894,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4966,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5094,7 +5100,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5300,7 +5306,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5506,7 +5512,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5712,7 +5718,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5918,7 +5924,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6124,7 +6130,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6205,7 +6211,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -6617,7 +6623,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6742,7 +6748,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6823,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>2.31</v>
@@ -7026,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.33</v>
@@ -7154,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7360,7 +7366,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7644,7 +7650,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -7978,7 +7984,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8056,7 +8062,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ35">
         <v>2.57</v>
@@ -8390,7 +8396,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8677,7 +8683,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9214,7 +9220,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9626,7 +9632,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9832,7 +9838,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9913,7 +9919,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>0.98</v>
@@ -10244,7 +10250,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10450,7 +10456,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10656,7 +10662,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10940,7 +10946,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.86</v>
@@ -11274,7 +11280,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11355,7 +11361,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.15</v>
@@ -11480,7 +11486,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11558,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -11764,7 +11770,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -11892,7 +11898,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12098,7 +12104,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12304,7 +12310,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12510,7 +12516,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12716,7 +12722,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12922,7 +12928,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13128,7 +13134,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13334,7 +13340,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13540,7 +13546,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13746,7 +13752,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13952,7 +13958,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14030,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14442,10 +14448,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.69</v>
@@ -14570,7 +14576,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14776,7 +14782,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14854,7 +14860,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.4</v>
@@ -15063,7 +15069,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15394,7 +15400,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16012,7 +16018,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16424,7 +16430,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="Q76">
         <v>3.25</v>
@@ -16630,7 +16636,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16836,7 +16842,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17042,7 +17048,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17248,7 +17254,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17454,7 +17460,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17866,7 +17872,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -17971,10 +17977,10 @@
         <v>6</v>
       </c>
       <c r="AY83">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA83">
         <v>11</v>
@@ -18229,6 +18235,624 @@
       </c>
       <c r="BP84">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7455947</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45571.375</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>107</v>
+      </c>
+      <c r="P85" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q85">
+        <v>3.6</v>
+      </c>
+      <c r="R85">
+        <v>1.91</v>
+      </c>
+      <c r="S85">
+        <v>3.6</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.25</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>10</v>
+      </c>
+      <c r="Y85">
+        <v>1.06</v>
+      </c>
+      <c r="Z85">
+        <v>2.9</v>
+      </c>
+      <c r="AA85">
+        <v>2.75</v>
+      </c>
+      <c r="AB85">
+        <v>2.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>3</v>
+      </c>
+      <c r="AG85">
+        <v>2.6</v>
+      </c>
+      <c r="AH85">
+        <v>1.48</v>
+      </c>
+      <c r="AI85">
+        <v>2.1</v>
+      </c>
+      <c r="AJ85">
+        <v>1.67</v>
+      </c>
+      <c r="AK85">
+        <v>1.49</v>
+      </c>
+      <c r="AL85">
+        <v>1.32</v>
+      </c>
+      <c r="AM85">
+        <v>1.43</v>
+      </c>
+      <c r="AN85">
+        <v>0.8</v>
+      </c>
+      <c r="AO85">
+        <v>0.75</v>
+      </c>
+      <c r="AP85">
+        <v>0.83</v>
+      </c>
+      <c r="AQ85">
+        <v>0.8</v>
+      </c>
+      <c r="AR85">
+        <v>0.86</v>
+      </c>
+      <c r="AS85">
+        <v>0.87</v>
+      </c>
+      <c r="AT85">
+        <v>1.73</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>8</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7455948</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45571.47916666666</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>134</v>
+      </c>
+      <c r="P86" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q86">
+        <v>2.63</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>4.75</v>
+      </c>
+      <c r="T86">
+        <v>1.5</v>
+      </c>
+      <c r="U86">
+        <v>2.5</v>
+      </c>
+      <c r="V86">
+        <v>3.5</v>
+      </c>
+      <c r="W86">
+        <v>1.29</v>
+      </c>
+      <c r="X86">
+        <v>11</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>3.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>6.6</v>
+      </c>
+      <c r="AE86">
+        <v>1.39</v>
+      </c>
+      <c r="AF86">
+        <v>2.51</v>
+      </c>
+      <c r="AG86">
+        <v>2.25</v>
+      </c>
+      <c r="AH86">
+        <v>1.57</v>
+      </c>
+      <c r="AI86">
+        <v>2.1</v>
+      </c>
+      <c r="AJ86">
+        <v>1.67</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.32</v>
+      </c>
+      <c r="AM86">
+        <v>1.74</v>
+      </c>
+      <c r="AN86">
+        <v>1.75</v>
+      </c>
+      <c r="AO86">
+        <v>1.25</v>
+      </c>
+      <c r="AP86">
+        <v>2</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1.38</v>
+      </c>
+      <c r="AS86">
+        <v>1.17</v>
+      </c>
+      <c r="AT86">
+        <v>2.55</v>
+      </c>
+      <c r="AU86">
+        <v>8</v>
+      </c>
+      <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
+        <v>11</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>28</v>
+      </c>
+      <c r="AZ86">
+        <v>13</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>1</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7455946</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45571.58333333334</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>72</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>135</v>
+      </c>
+      <c r="P87" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <v>1.67</v>
+      </c>
+      <c r="R87">
+        <v>2.6</v>
+      </c>
+      <c r="S87">
+        <v>12</v>
+      </c>
+      <c r="T87">
+        <v>1.29</v>
+      </c>
+      <c r="U87">
+        <v>3.5</v>
+      </c>
+      <c r="V87">
+        <v>2.25</v>
+      </c>
+      <c r="W87">
+        <v>1.57</v>
+      </c>
+      <c r="X87">
+        <v>5.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>1.2</v>
+      </c>
+      <c r="AA87">
+        <v>6.5</v>
+      </c>
+      <c r="AB87">
+        <v>13</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.13</v>
+      </c>
+      <c r="AF87">
+        <v>4.33</v>
+      </c>
+      <c r="AG87">
+        <v>1.75</v>
+      </c>
+      <c r="AH87">
+        <v>2.05</v>
+      </c>
+      <c r="AI87">
+        <v>2.75</v>
+      </c>
+      <c r="AJ87">
+        <v>1.4</v>
+      </c>
+      <c r="AK87">
+        <v>1.01</v>
+      </c>
+      <c r="AL87">
+        <v>1.1</v>
+      </c>
+      <c r="AM87">
+        <v>4.35</v>
+      </c>
+      <c r="AN87">
+        <v>2.6</v>
+      </c>
+      <c r="AO87">
+        <v>2.33</v>
+      </c>
+      <c r="AP87">
+        <v>2.67</v>
+      </c>
+      <c r="AQ87">
+        <v>1.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.76</v>
+      </c>
+      <c r="AS87">
+        <v>1.36</v>
+      </c>
+      <c r="AT87">
+        <v>3.12</v>
+      </c>
+      <c r="AU87">
+        <v>9</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>3</v>
+      </c>
+      <c r="BA87">
+        <v>9</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -18807,13 +18807,13 @@
         <v>3</v>
       </c>
       <c r="BA87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB87">
         <v>0</v>
       </c>
       <c r="BC87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD87">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['26', '40', '78']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -927,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1807,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1882,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ5">
         <v>1.86</v>
@@ -2010,7 +2013,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2088,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ6">
         <v>2.57</v>
@@ -2422,7 +2425,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2503,7 +2506,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ8">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2628,7 +2631,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2915,7 +2918,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3246,7 +3249,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3452,7 +3455,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3533,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3658,7 +3661,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3739,7 +3742,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3942,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4276,7 +4279,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4482,7 +4485,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4894,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5100,7 +5103,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5178,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21">
         <v>1.4</v>
@@ -5306,7 +5309,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5512,7 +5515,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5590,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -5718,7 +5721,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5799,7 +5802,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5924,7 +5927,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6130,7 +6133,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6208,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -6417,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6748,7 +6751,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7160,7 +7163,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7366,7 +7369,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7856,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -7984,7 +7987,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8268,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -8396,7 +8399,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8680,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>0.8</v>
@@ -9220,7 +9223,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9301,7 +9304,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -9632,7 +9635,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9710,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9838,7 +9841,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9919,7 +9922,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>0.98</v>
@@ -10125,7 +10128,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>2.15</v>
@@ -10250,7 +10253,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10456,7 +10459,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10534,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -10662,7 +10665,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11280,7 +11283,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11486,7 +11489,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11898,7 +11901,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12104,7 +12107,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12182,10 +12185,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR55">
         <v>1.43</v>
@@ -12310,7 +12313,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12516,7 +12519,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12594,7 +12597,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>2.57</v>
@@ -12722,7 +12725,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12928,7 +12931,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13134,7 +13137,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13340,7 +13343,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13418,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
         <v>0.8</v>
@@ -13546,7 +13549,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13752,7 +13755,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13958,7 +13961,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14576,7 +14579,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14782,7 +14785,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15400,7 +15403,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15684,7 +15687,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ72">
         <v>0.4</v>
@@ -15890,7 +15893,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
         <v>0.67</v>
@@ -16018,7 +16021,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16099,7 +16102,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16636,7 +16639,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16842,7 +16845,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -16920,7 +16923,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ78">
         <v>3</v>
@@ -17048,7 +17051,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17129,7 +17132,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ79">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR79">
         <v>1.26</v>
@@ -17254,7 +17257,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17460,7 +17463,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17872,7 +17875,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18490,7 +18493,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18777,7 +18780,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -18852,6 +18855,624 @@
         <v>0</v>
       </c>
       <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7455924</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45583.45833333334</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>136</v>
+      </c>
+      <c r="P88" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q88">
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <v>1.83</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.57</v>
+      </c>
+      <c r="U88">
+        <v>2.25</v>
+      </c>
+      <c r="V88">
+        <v>3.75</v>
+      </c>
+      <c r="W88">
+        <v>1.25</v>
+      </c>
+      <c r="X88">
+        <v>13</v>
+      </c>
+      <c r="Y88">
+        <v>1.04</v>
+      </c>
+      <c r="Z88">
+        <v>2.7</v>
+      </c>
+      <c r="AA88">
+        <v>2.9</v>
+      </c>
+      <c r="AB88">
+        <v>2.8</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1.5</v>
+      </c>
+      <c r="AF88">
+        <v>2.4</v>
+      </c>
+      <c r="AG88">
+        <v>2.88</v>
+      </c>
+      <c r="AH88">
+        <v>1.4</v>
+      </c>
+      <c r="AI88">
+        <v>2.38</v>
+      </c>
+      <c r="AJ88">
+        <v>1.53</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0.8</v>
+      </c>
+      <c r="AO88">
+        <v>1.83</v>
+      </c>
+      <c r="AP88">
+        <v>1.17</v>
+      </c>
+      <c r="AQ88">
+        <v>1.57</v>
+      </c>
+      <c r="AR88">
+        <v>1.3</v>
+      </c>
+      <c r="AS88">
+        <v>1.23</v>
+      </c>
+      <c r="AT88">
+        <v>2.53</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>6</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>16</v>
+      </c>
+      <c r="AZ88">
+        <v>5</v>
+      </c>
+      <c r="BA88">
+        <v>8</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7455928</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45583.5625</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>86</v>
+      </c>
+      <c r="P89" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q89">
+        <v>3.6</v>
+      </c>
+      <c r="R89">
+        <v>1.95</v>
+      </c>
+      <c r="S89">
+        <v>3.5</v>
+      </c>
+      <c r="T89">
+        <v>1.44</v>
+      </c>
+      <c r="U89">
+        <v>2.63</v>
+      </c>
+      <c r="V89">
+        <v>3.25</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>9</v>
+      </c>
+      <c r="Y89">
+        <v>1.07</v>
+      </c>
+      <c r="Z89">
+        <v>3.4</v>
+      </c>
+      <c r="AA89">
+        <v>3.3</v>
+      </c>
+      <c r="AB89">
+        <v>2.15</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>7.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.36</v>
+      </c>
+      <c r="AF89">
+        <v>3</v>
+      </c>
+      <c r="AG89">
+        <v>2.05</v>
+      </c>
+      <c r="AH89">
+        <v>1.72</v>
+      </c>
+      <c r="AI89">
+        <v>2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.73</v>
+      </c>
+      <c r="AK89">
+        <v>1.53</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.4</v>
+      </c>
+      <c r="AN89">
+        <v>0.67</v>
+      </c>
+      <c r="AO89">
+        <v>1.75</v>
+      </c>
+      <c r="AP89">
+        <v>0.71</v>
+      </c>
+      <c r="AQ89">
+        <v>1.6</v>
+      </c>
+      <c r="AR89">
+        <v>1.32</v>
+      </c>
+      <c r="AS89">
+        <v>1.12</v>
+      </c>
+      <c r="AT89">
+        <v>2.44</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>2</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>9</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>12</v>
+      </c>
+      <c r="BA89">
+        <v>2</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>6</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7455927</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45584.28125</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q90">
+        <v>3.75</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>3.25</v>
+      </c>
+      <c r="T90">
+        <v>1.53</v>
+      </c>
+      <c r="U90">
+        <v>2.38</v>
+      </c>
+      <c r="V90">
+        <v>3.5</v>
+      </c>
+      <c r="W90">
+        <v>1.29</v>
+      </c>
+      <c r="X90">
+        <v>11</v>
+      </c>
+      <c r="Y90">
+        <v>1.05</v>
+      </c>
+      <c r="Z90">
+        <v>3</v>
+      </c>
+      <c r="AA90">
+        <v>3.1</v>
+      </c>
+      <c r="AB90">
+        <v>2.45</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>2.35</v>
+      </c>
+      <c r="AH90">
+        <v>1.57</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.73</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0.83</v>
+      </c>
+      <c r="AO90">
+        <v>0.75</v>
+      </c>
+      <c r="AP90">
+        <v>0.86</v>
+      </c>
+      <c r="AQ90">
+        <v>0.8</v>
+      </c>
+      <c r="AR90">
+        <v>1.28</v>
+      </c>
+      <c r="AS90">
+        <v>1.08</v>
+      </c>
+      <c r="AT90">
+        <v>2.36</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>6</v>
+      </c>
+      <c r="AY90">
+        <v>7</v>
+      </c>
+      <c r="AZ90">
+        <v>6</v>
+      </c>
+      <c r="BA90">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>6</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>['26', '40', '78']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -930,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,7 +1479,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1807,7 +1810,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2013,7 +2016,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2300,7 +2303,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2425,7 +2428,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2631,7 +2634,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3249,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3455,7 +3458,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3661,7 +3664,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3739,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4279,7 +4282,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4360,7 +4363,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4485,7 +4488,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4772,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4897,7 +4900,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5103,7 +5106,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5309,7 +5312,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5515,7 +5518,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5721,7 +5724,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5927,7 +5930,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6133,7 +6136,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6751,7 +6754,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7163,7 +7166,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7369,7 +7372,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7450,7 +7453,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>2.6</v>
@@ -7987,7 +7990,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8399,7 +8402,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9098,7 +9101,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.3</v>
@@ -9223,7 +9226,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9301,7 +9304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>1.57</v>
@@ -9510,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -9635,7 +9638,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9841,7 +9844,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10253,7 +10256,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10459,7 +10462,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10665,7 +10668,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11283,7 +11286,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11489,7 +11492,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11901,7 +11904,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12107,7 +12110,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12313,7 +12316,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12394,7 +12397,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12519,7 +12522,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12725,7 +12728,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12931,7 +12934,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13137,7 +13140,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13343,7 +13346,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13424,7 +13427,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13549,7 +13552,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13755,7 +13758,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13961,7 +13964,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14579,7 +14582,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14785,7 +14788,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15403,7 +15406,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15896,7 +15899,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16021,7 +16024,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16308,7 +16311,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>2.04</v>
@@ -16639,7 +16642,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16845,7 +16848,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17051,7 +17054,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17257,7 +17260,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17463,7 +17466,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17875,7 +17878,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18159,7 +18162,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>1.86</v>
@@ -18493,7 +18496,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19425,7 +19428,7 @@
         <v>7</v>
       </c>
       <c r="AZ90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA90">
         <v>2</v>
@@ -19474,6 +19477,418 @@
       </c>
       <c r="BP90">
         <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7455923</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45584.40625</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>137</v>
+      </c>
+      <c r="P91" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>1.53</v>
+      </c>
+      <c r="U91">
+        <v>2.38</v>
+      </c>
+      <c r="V91">
+        <v>3.5</v>
+      </c>
+      <c r="W91">
+        <v>1.29</v>
+      </c>
+      <c r="X91">
+        <v>11</v>
+      </c>
+      <c r="Y91">
+        <v>1.05</v>
+      </c>
+      <c r="Z91">
+        <v>2.2</v>
+      </c>
+      <c r="AA91">
+        <v>3.3</v>
+      </c>
+      <c r="AB91">
+        <v>3.25</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>6.55</v>
+      </c>
+      <c r="AE91">
+        <v>1.45</v>
+      </c>
+      <c r="AF91">
+        <v>2.65</v>
+      </c>
+      <c r="AG91">
+        <v>2.3</v>
+      </c>
+      <c r="AH91">
+        <v>1.6</v>
+      </c>
+      <c r="AI91">
+        <v>2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.73</v>
+      </c>
+      <c r="AK91">
+        <v>1.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.72</v>
+      </c>
+      <c r="AN91">
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <v>0.8</v>
+      </c>
+      <c r="AP91">
+        <v>3</v>
+      </c>
+      <c r="AQ91">
+        <v>0.67</v>
+      </c>
+      <c r="AR91">
+        <v>2.07</v>
+      </c>
+      <c r="AS91">
+        <v>1.74</v>
+      </c>
+      <c r="AT91">
+        <v>3.81</v>
+      </c>
+      <c r="AU91">
+        <v>7</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>12</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>8</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7455922</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45584.53125</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q92">
+        <v>2.6</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>4.75</v>
+      </c>
+      <c r="T92">
+        <v>1.44</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3.25</v>
+      </c>
+      <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>9</v>
+      </c>
+      <c r="Y92">
+        <v>1.07</v>
+      </c>
+      <c r="Z92">
+        <v>1.85</v>
+      </c>
+      <c r="AA92">
+        <v>3.25</v>
+      </c>
+      <c r="AB92">
+        <v>4.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.36</v>
+      </c>
+      <c r="AF92">
+        <v>3</v>
+      </c>
+      <c r="AG92">
+        <v>2.1</v>
+      </c>
+      <c r="AH92">
+        <v>1.7</v>
+      </c>
+      <c r="AI92">
+        <v>1.91</v>
+      </c>
+      <c r="AJ92">
+        <v>1.8</v>
+      </c>
+      <c r="AK92">
+        <v>1.17</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.87</v>
+      </c>
+      <c r="AN92">
+        <v>1.33</v>
+      </c>
+      <c r="AO92">
+        <v>0.67</v>
+      </c>
+      <c r="AP92">
+        <v>1.75</v>
+      </c>
+      <c r="AQ92">
+        <v>0.57</v>
+      </c>
+      <c r="AR92">
+        <v>1.38</v>
+      </c>
+      <c r="AS92">
+        <v>1.8</v>
+      </c>
+      <c r="AT92">
+        <v>3.18</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>8</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>1.48</v>
+      </c>
+      <c r="BE92">
+        <v>7.2</v>
+      </c>
+      <c r="BF92">
+        <v>3.44</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>1.32</v>
+      </c>
+      <c r="BJ92">
+        <v>2.78</v>
+      </c>
+      <c r="BK92">
+        <v>1.59</v>
+      </c>
+      <c r="BL92">
+        <v>2.1</v>
+      </c>
+      <c r="BM92">
+        <v>2.03</v>
+      </c>
+      <c r="BN92">
+        <v>1.7</v>
+      </c>
+      <c r="BO92">
+        <v>2.59</v>
+      </c>
+      <c r="BP92">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
   </si>
   <si>
     <t>['2', '13']</t>
+  </si>
+  <si>
+    <t>['45+2', '55']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1810,7 +1816,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2016,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2428,7 +2434,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2634,7 +2640,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2712,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3252,7 +3258,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3333,7 +3339,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3458,7 +3464,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3664,7 +3670,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4154,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4282,7 +4288,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4488,7 +4494,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4900,7 +4906,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5106,7 +5112,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5312,7 +5318,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5518,7 +5524,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5724,7 +5730,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5930,7 +5936,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6011,7 +6017,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6136,7 +6142,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6626,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6754,7 +6760,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6832,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7166,7 +7172,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7372,7 +7378,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7990,7 +7996,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8402,7 +8408,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8895,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>2.1</v>
@@ -9226,7 +9232,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9638,7 +9644,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9844,7 +9850,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9922,7 +9928,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ44">
         <v>1.6</v>
@@ -10128,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45">
         <v>0.8</v>
@@ -10256,7 +10262,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10462,7 +10468,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10668,7 +10674,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11286,7 +11292,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11492,7 +11498,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11904,7 +11910,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -11985,7 +11991,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12110,7 +12116,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12316,7 +12322,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12394,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ56">
         <v>0.57</v>
@@ -12522,7 +12528,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12728,7 +12734,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12806,7 +12812,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ58">
         <v>0.33</v>
@@ -12934,7 +12940,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13140,7 +13146,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13346,7 +13352,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13552,7 +13558,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13758,7 +13764,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13964,7 +13970,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14582,7 +14588,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14788,7 +14794,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15406,7 +15412,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15484,7 +15490,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ71">
         <v>1.67</v>
@@ -15693,7 +15699,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ72">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR72">
         <v>1.2</v>
@@ -16024,7 +16030,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16308,7 +16314,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -16642,7 +16648,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16848,7 +16854,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17054,7 +17060,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17132,7 +17138,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ79">
         <v>1.57</v>
@@ -17260,7 +17266,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17466,7 +17472,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17878,7 +17884,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18496,7 +18502,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19843,13 +19849,13 @@
         <v>8</v>
       </c>
       <c r="BA92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB92">
         <v>4</v>
       </c>
       <c r="BC92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD92">
         <v>1.48</v>
@@ -19889,6 +19895,418 @@
       </c>
       <c r="BP92">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7455925</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45585.44791666666</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s">
+        <v>76</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>138</v>
+      </c>
+      <c r="P93" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q93">
+        <v>1.57</v>
+      </c>
+      <c r="R93">
+        <v>2.88</v>
+      </c>
+      <c r="S93">
+        <v>11</v>
+      </c>
+      <c r="T93">
+        <v>1.3</v>
+      </c>
+      <c r="U93">
+        <v>3.4</v>
+      </c>
+      <c r="V93">
+        <v>2.5</v>
+      </c>
+      <c r="W93">
+        <v>1.5</v>
+      </c>
+      <c r="X93">
+        <v>6</v>
+      </c>
+      <c r="Y93">
+        <v>1.13</v>
+      </c>
+      <c r="Z93">
+        <v>1.18</v>
+      </c>
+      <c r="AA93">
+        <v>7.5</v>
+      </c>
+      <c r="AB93">
+        <v>11</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>15</v>
+      </c>
+      <c r="AE93">
+        <v>1.2</v>
+      </c>
+      <c r="AF93">
+        <v>4.2</v>
+      </c>
+      <c r="AG93">
+        <v>1.53</v>
+      </c>
+      <c r="AH93">
+        <v>2.4</v>
+      </c>
+      <c r="AI93">
+        <v>2.25</v>
+      </c>
+      <c r="AJ93">
+        <v>1.57</v>
+      </c>
+      <c r="AK93">
+        <v>1.01</v>
+      </c>
+      <c r="AL93">
+        <v>1.06</v>
+      </c>
+      <c r="AM93">
+        <v>4</v>
+      </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
+      <c r="AO93">
+        <v>0.4</v>
+      </c>
+      <c r="AP93">
+        <v>2.14</v>
+      </c>
+      <c r="AQ93">
+        <v>0.33</v>
+      </c>
+      <c r="AR93">
+        <v>1.84</v>
+      </c>
+      <c r="AS93">
+        <v>1.01</v>
+      </c>
+      <c r="AT93">
+        <v>2.85</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>12</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>3</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7455926</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45585.55208333334</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>86</v>
+      </c>
+      <c r="P94" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q94">
+        <v>17</v>
+      </c>
+      <c r="R94">
+        <v>2.63</v>
+      </c>
+      <c r="S94">
+        <v>1.53</v>
+      </c>
+      <c r="T94">
+        <v>1.29</v>
+      </c>
+      <c r="U94">
+        <v>3.5</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.14</v>
+      </c>
+      <c r="Z94">
+        <v>21</v>
+      </c>
+      <c r="AA94">
+        <v>6.5</v>
+      </c>
+      <c r="AB94">
+        <v>1.14</v>
+      </c>
+      <c r="AC94">
+        <v>1.01</v>
+      </c>
+      <c r="AD94">
+        <v>15</v>
+      </c>
+      <c r="AE94">
+        <v>1.2</v>
+      </c>
+      <c r="AF94">
+        <v>4.2</v>
+      </c>
+      <c r="AG94">
+        <v>1.73</v>
+      </c>
+      <c r="AH94">
+        <v>2.08</v>
+      </c>
+      <c r="AI94">
+        <v>3.25</v>
+      </c>
+      <c r="AJ94">
+        <v>1.33</v>
+      </c>
+      <c r="AK94">
+        <v>4.33</v>
+      </c>
+      <c r="AL94">
+        <v>1.05</v>
+      </c>
+      <c r="AM94">
+        <v>1.01</v>
+      </c>
+      <c r="AN94">
+        <v>0.67</v>
+      </c>
+      <c r="AO94">
+        <v>3</v>
+      </c>
+      <c r="AP94">
+        <v>0.57</v>
+      </c>
+      <c r="AQ94">
+        <v>3</v>
+      </c>
+      <c r="AR94">
+        <v>1.22</v>
+      </c>
+      <c r="AS94">
+        <v>1.84</v>
+      </c>
+      <c r="AT94">
+        <v>3.06</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>12</v>
+      </c>
+      <c r="AY94">
+        <v>2</v>
+      </c>
+      <c r="AZ94">
+        <v>18</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>10</v>
+      </c>
+      <c r="BC94">
+        <v>11</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,9 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -578,6 +581,9 @@
   </si>
   <si>
     <t>['45+2', '55']</t>
+  </si>
+  <si>
+    <t>['35', '58']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1691,7 +1697,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1816,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2022,7 +2028,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2434,7 +2440,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2640,7 +2646,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3258,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3464,7 +3470,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3542,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1.57</v>
@@ -3670,7 +3676,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4288,7 +4294,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4494,7 +4500,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4906,7 +4912,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -4987,7 +4993,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.29</v>
@@ -5112,7 +5118,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5318,7 +5324,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5524,7 +5530,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5730,7 +5736,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5936,7 +5942,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6142,7 +6148,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6760,7 +6766,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7047,7 +7053,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7172,7 +7178,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7378,7 +7384,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7996,7 +8002,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8408,7 +8414,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9232,7 +9238,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9516,7 +9522,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42">
         <v>0.57</v>
@@ -9644,7 +9650,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9850,7 +9856,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10262,7 +10268,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10343,7 +10349,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ46">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10468,7 +10474,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10674,7 +10680,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11292,7 +11298,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11498,7 +11504,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11910,7 +11916,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12116,7 +12122,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12322,7 +12328,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12528,7 +12534,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12734,7 +12740,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12815,7 +12821,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ58">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -12940,7 +12946,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13018,7 +13024,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
         <v>1.86</v>
@@ -13146,7 +13152,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13352,7 +13358,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13558,7 +13564,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13764,7 +13770,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13970,7 +13976,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14588,7 +14594,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14794,7 +14800,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15412,7 +15418,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16030,7 +16036,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16520,7 +16526,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ76">
         <v>2.57</v>
@@ -16648,7 +16654,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16729,7 +16735,7 @@
         <v>3</v>
       </c>
       <c r="AQ77">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16854,7 +16860,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17060,7 +17066,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17266,7 +17272,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17472,7 +17478,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17884,7 +17890,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18502,7 +18508,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -20150,7 +20156,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20306,6 +20312,212 @@
         <v>0</v>
       </c>
       <c r="BP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7455921</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45586.5</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>139</v>
+      </c>
+      <c r="P95" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q95">
+        <v>2.88</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>4.33</v>
+      </c>
+      <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.63</v>
+      </c>
+      <c r="V95">
+        <v>3.4</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>10</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>2.1</v>
+      </c>
+      <c r="AA95">
+        <v>3</v>
+      </c>
+      <c r="AB95">
+        <v>3.9</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>6.85</v>
+      </c>
+      <c r="AE95">
+        <v>1.4</v>
+      </c>
+      <c r="AF95">
+        <v>2.8</v>
+      </c>
+      <c r="AG95">
+        <v>2.4</v>
+      </c>
+      <c r="AH95">
+        <v>1.53</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.15</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.9</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
+        <v>0.33</v>
+      </c>
+      <c r="AP95">
+        <v>0.8</v>
+      </c>
+      <c r="AQ95">
+        <v>0.71</v>
+      </c>
+      <c r="AR95">
+        <v>1.62</v>
+      </c>
+      <c r="AS95">
+        <v>1.14</v>
+      </c>
+      <c r="AT95">
+        <v>2.76</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>8</v>
+      </c>
+      <c r="AX95">
+        <v>7</v>
+      </c>
+      <c r="AY95">
+        <v>16</v>
+      </c>
+      <c r="AZ95">
+        <v>15</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>7</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>2.38</v>
+      </c>
+      <c r="BL95">
+        <v>1.95</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -945,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3757,7 +3757,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -6229,7 +6229,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>0.71</v>
@@ -9937,7 +9937,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ44">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>0.98</v>
@@ -10964,7 +10964,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
         <v>1.86</v>
@@ -14878,7 +14878,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
         <v>1.4</v>
@@ -18586,7 +18586,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -19207,7 +19207,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -20518,6 +20518,212 @@
         <v>0</v>
       </c>
       <c r="BP95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7455963</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45588.47916666666</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>133</v>
+      </c>
+      <c r="P96" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q96">
+        <v>2.88</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>4</v>
+      </c>
+      <c r="T96">
+        <v>1.5</v>
+      </c>
+      <c r="U96">
+        <v>2.5</v>
+      </c>
+      <c r="V96">
+        <v>3.4</v>
+      </c>
+      <c r="W96">
+        <v>1.3</v>
+      </c>
+      <c r="X96">
+        <v>10</v>
+      </c>
+      <c r="Y96">
+        <v>1.06</v>
+      </c>
+      <c r="Z96">
+        <v>2.36</v>
+      </c>
+      <c r="AA96">
+        <v>3.15</v>
+      </c>
+      <c r="AB96">
+        <v>2.95</v>
+      </c>
+      <c r="AC96">
+        <v>1.03</v>
+      </c>
+      <c r="AD96">
+        <v>6.9</v>
+      </c>
+      <c r="AE96">
+        <v>1.4</v>
+      </c>
+      <c r="AF96">
+        <v>2.8</v>
+      </c>
+      <c r="AG96">
+        <v>2.2</v>
+      </c>
+      <c r="AH96">
+        <v>1.62</v>
+      </c>
+      <c r="AI96">
+        <v>1.91</v>
+      </c>
+      <c r="AJ96">
+        <v>1.8</v>
+      </c>
+      <c r="AK96">
+        <v>1.33</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.57</v>
+      </c>
+      <c r="AN96">
+        <v>2</v>
+      </c>
+      <c r="AO96">
+        <v>1.6</v>
+      </c>
+      <c r="AP96">
+        <v>2.17</v>
+      </c>
+      <c r="AQ96">
+        <v>1.33</v>
+      </c>
+      <c r="AR96">
+        <v>1.59</v>
+      </c>
+      <c r="AS96">
+        <v>1.18</v>
+      </c>
+      <c r="AT96">
+        <v>2.77</v>
+      </c>
+      <c r="AU96">
+        <v>3</v>
+      </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>5</v>
+      </c>
+      <c r="AZ96">
+        <v>1</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>1</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['9', '16', '45+4']</t>
+  </si>
+  <si>
+    <t>['42', '80']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -584,6 +590,9 @@
   </si>
   <si>
     <t>['35', '58']</t>
+  </si>
+  <si>
+    <t>['37', '63']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2028,7 +2037,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2440,7 +2449,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2646,7 +2655,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3139,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3264,7 +3273,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3342,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3470,7 +3479,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3676,7 +3685,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3963,7 +3972,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4294,7 +4303,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4500,7 +4509,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4912,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5118,7 +5127,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5324,7 +5333,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5530,7 +5539,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5736,7 +5745,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5814,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1.57</v>
@@ -5942,7 +5951,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6148,7 +6157,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6641,7 +6650,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6766,7 +6775,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6847,7 +6856,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>2.31</v>
@@ -7178,7 +7187,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7384,7 +7393,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7462,7 +7471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.57</v>
@@ -8002,7 +8011,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8414,7 +8423,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8701,7 +8710,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9238,7 +9247,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9650,7 +9659,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9856,7 +9865,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10268,7 +10277,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10346,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>0.71</v>
@@ -10474,7 +10483,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10680,7 +10689,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10758,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>2.57</v>
@@ -11298,7 +11307,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11379,7 +11388,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.15</v>
@@ -11504,7 +11513,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11916,7 +11925,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12122,7 +12131,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12328,7 +12337,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12534,7 +12543,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12740,7 +12749,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12946,7 +12955,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13152,7 +13161,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13358,7 +13367,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13564,7 +13573,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13642,7 +13651,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>3</v>
@@ -13770,7 +13779,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13976,7 +13985,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14260,7 +14269,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.67</v>
@@ -14469,7 +14478,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>1.69</v>
@@ -14594,7 +14603,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14672,7 +14681,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1.86</v>
@@ -14800,7 +14809,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15087,7 +15096,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15418,7 +15427,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16036,7 +16045,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16654,7 +16663,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16860,7 +16869,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17066,7 +17075,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17272,7 +17281,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17478,7 +17487,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17762,7 +17771,7 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
         <v>1.4</v>
@@ -17890,7 +17899,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -17968,7 +17977,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18383,7 +18392,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>0.86</v>
@@ -18508,7 +18517,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18589,7 +18598,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -20156,7 +20165,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20362,7 +20371,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20725,6 +20734,418 @@
       </c>
       <c r="BP96">
         <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7455965</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45589.375</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>140</v>
+      </c>
+      <c r="P97" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q97">
+        <v>2.6</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>1.5</v>
+      </c>
+      <c r="U97">
+        <v>2.5</v>
+      </c>
+      <c r="V97">
+        <v>3.4</v>
+      </c>
+      <c r="W97">
+        <v>1.3</v>
+      </c>
+      <c r="X97">
+        <v>10</v>
+      </c>
+      <c r="Y97">
+        <v>1.06</v>
+      </c>
+      <c r="Z97">
+        <v>1.85</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>4.33</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>6.7</v>
+      </c>
+      <c r="AE97">
+        <v>1.37</v>
+      </c>
+      <c r="AF97">
+        <v>2.58</v>
+      </c>
+      <c r="AG97">
+        <v>2.25</v>
+      </c>
+      <c r="AH97">
+        <v>1.62</v>
+      </c>
+      <c r="AI97">
+        <v>2.1</v>
+      </c>
+      <c r="AJ97">
+        <v>1.67</v>
+      </c>
+      <c r="AK97">
+        <v>1.23</v>
+      </c>
+      <c r="AL97">
+        <v>1.31</v>
+      </c>
+      <c r="AM97">
+        <v>1.82</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>0.83</v>
+      </c>
+      <c r="AR97">
+        <v>1.35</v>
+      </c>
+      <c r="AS97">
+        <v>1.24</v>
+      </c>
+      <c r="AT97">
+        <v>2.59</v>
+      </c>
+      <c r="AU97">
+        <v>10</v>
+      </c>
+      <c r="AV97">
+        <v>12</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>16</v>
+      </c>
+      <c r="AZ97">
+        <v>23</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>12</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7455964</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45589.47916666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>141</v>
+      </c>
+      <c r="P98" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q98">
+        <v>1.62</v>
+      </c>
+      <c r="R98">
+        <v>2.6</v>
+      </c>
+      <c r="S98">
+        <v>12</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>1.15</v>
+      </c>
+      <c r="AA98">
+        <v>5.86</v>
+      </c>
+      <c r="AB98">
+        <v>13.35</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>11</v>
+      </c>
+      <c r="AE98">
+        <v>1.25</v>
+      </c>
+      <c r="AF98">
+        <v>3.75</v>
+      </c>
+      <c r="AG98">
+        <v>1.75</v>
+      </c>
+      <c r="AH98">
+        <v>1.95</v>
+      </c>
+      <c r="AI98">
+        <v>2.63</v>
+      </c>
+      <c r="AJ98">
+        <v>1.44</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1.11</v>
+      </c>
+      <c r="AM98">
+        <v>4.25</v>
+      </c>
+      <c r="AN98">
+        <v>1.2</v>
+      </c>
+      <c r="AO98">
+        <v>0.8</v>
+      </c>
+      <c r="AP98">
+        <v>1.5</v>
+      </c>
+      <c r="AQ98">
+        <v>0.67</v>
+      </c>
+      <c r="AR98">
+        <v>2.07</v>
+      </c>
+      <c r="AS98">
+        <v>0.91</v>
+      </c>
+      <c r="AT98">
+        <v>2.98</v>
+      </c>
+      <c r="AU98">
+        <v>10</v>
+      </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>13</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>31</v>
+      </c>
+      <c r="AZ98">
+        <v>4</v>
+      </c>
+      <c r="BA98">
+        <v>10</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.06</v>
+      </c>
+      <c r="BE98">
+        <v>13</v>
+      </c>
+      <c r="BF98">
+        <v>11.75</v>
+      </c>
+      <c r="BG98">
+        <v>1.17</v>
+      </c>
+      <c r="BH98">
+        <v>3.82</v>
+      </c>
+      <c r="BI98">
+        <v>1.36</v>
+      </c>
+      <c r="BJ98">
+        <v>2.69</v>
+      </c>
+      <c r="BK98">
+        <v>1.68</v>
+      </c>
+      <c r="BL98">
+        <v>2.06</v>
+      </c>
+      <c r="BM98">
+        <v>2.08</v>
+      </c>
+      <c r="BN98">
+        <v>1.6</v>
+      </c>
+      <c r="BO98">
+        <v>2.72</v>
+      </c>
+      <c r="BP98">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,12 @@
     <t>['42', '80']</t>
   </si>
   <si>
+    <t>['32', '40']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -461,9 +467,6 @@
   </si>
   <si>
     <t>['56', '90+2']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['9', '85']</t>
@@ -593,6 +596,9 @@
   </si>
   <si>
     <t>['37', '63']</t>
+  </si>
+  <si>
+    <t>['63', '83']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1831,7 +1837,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2037,7 +2043,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2449,7 +2455,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2655,7 +2661,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2736,7 +2742,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2939,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ10">
         <v>0.8</v>
@@ -3145,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3273,7 +3279,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3479,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3685,7 +3691,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3763,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4178,7 +4184,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4303,7 +4309,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>7.8</v>
@@ -4509,7 +4515,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4921,7 +4927,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5127,7 +5133,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5208,7 +5214,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5333,7 +5339,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5539,7 +5545,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5620,7 +5626,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>0.89</v>
@@ -5745,7 +5751,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5951,7 +5957,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6029,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6157,7 +6163,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6441,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>0.8</v>
@@ -6775,7 +6781,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7187,7 +7193,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7268,7 +7274,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7393,7 +7399,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8011,7 +8017,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8298,7 +8304,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8423,7 +8429,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8504,7 +8510,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -8913,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>0.33</v>
@@ -9119,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9247,7 +9253,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9325,7 +9331,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>1.57</v>
@@ -9659,7 +9665,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9865,7 +9871,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10277,7 +10283,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10483,7 +10489,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10689,7 +10695,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11182,7 +11188,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11307,7 +11313,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11513,7 +11519,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11594,7 +11600,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR52">
         <v>0.9399999999999999</v>
@@ -11800,7 +11806,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11925,7 +11931,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12131,7 +12137,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12337,7 +12343,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12543,7 +12549,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12749,7 +12755,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12955,7 +12961,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13161,7 +13167,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13367,7 +13373,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13573,7 +13579,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13779,7 +13785,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13985,7 +13991,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14066,7 +14072,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>0.93</v>
@@ -14272,7 +14278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR65">
         <v>2.13</v>
@@ -14603,7 +14609,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14809,7 +14815,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14890,7 +14896,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15299,7 +15305,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ70">
         <v>2.57</v>
@@ -15427,7 +15433,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16045,7 +16051,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16663,7 +16669,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16741,7 +16747,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
         <v>0.71</v>
@@ -16869,7 +16875,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17075,7 +17081,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17281,7 +17287,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17487,7 +17493,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17565,10 +17571,10 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ81">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -17774,7 +17780,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -17899,7 +17905,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -17980,7 +17986,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>2.04</v>
@@ -18183,7 +18189,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1.86</v>
@@ -18517,7 +18523,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19625,7 +19631,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -19831,7 +19837,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>0.57</v>
@@ -20165,7 +20171,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20371,7 +20377,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20783,7 +20789,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21146,6 +21152,624 @@
       </c>
       <c r="BP98">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7455966</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45590.33333333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s">
+        <v>77</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>142</v>
+      </c>
+      <c r="P99" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q99">
+        <v>2.05</v>
+      </c>
+      <c r="R99">
+        <v>2.25</v>
+      </c>
+      <c r="S99">
+        <v>7</v>
+      </c>
+      <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3.25</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>9</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>1.5</v>
+      </c>
+      <c r="AA99">
+        <v>4</v>
+      </c>
+      <c r="AB99">
+        <v>6.5</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>7.3</v>
+      </c>
+      <c r="AE99">
+        <v>1.38</v>
+      </c>
+      <c r="AF99">
+        <v>2.9</v>
+      </c>
+      <c r="AG99">
+        <v>1.95</v>
+      </c>
+      <c r="AH99">
+        <v>1.85</v>
+      </c>
+      <c r="AI99">
+        <v>2.1</v>
+      </c>
+      <c r="AJ99">
+        <v>1.67</v>
+      </c>
+      <c r="AK99">
+        <v>1.08</v>
+      </c>
+      <c r="AL99">
+        <v>1.2</v>
+      </c>
+      <c r="AM99">
+        <v>2.35</v>
+      </c>
+      <c r="AN99">
+        <v>2.6</v>
+      </c>
+      <c r="AO99">
+        <v>1.2</v>
+      </c>
+      <c r="AP99">
+        <v>2.67</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>1.32</v>
+      </c>
+      <c r="AS99">
+        <v>1.19</v>
+      </c>
+      <c r="AT99">
+        <v>2.51</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>18</v>
+      </c>
+      <c r="AZ99">
+        <v>5</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>0</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7455967</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45590.4375</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>143</v>
+      </c>
+      <c r="P100" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q100">
+        <v>3.2</v>
+      </c>
+      <c r="R100">
+        <v>1.91</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>1.53</v>
+      </c>
+      <c r="U100">
+        <v>2.38</v>
+      </c>
+      <c r="V100">
+        <v>3.5</v>
+      </c>
+      <c r="W100">
+        <v>1.29</v>
+      </c>
+      <c r="X100">
+        <v>11</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>2.38</v>
+      </c>
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AB100">
+        <v>3.3</v>
+      </c>
+      <c r="AC100">
+        <v>1.03</v>
+      </c>
+      <c r="AD100">
+        <v>6.6</v>
+      </c>
+      <c r="AE100">
+        <v>1.48</v>
+      </c>
+      <c r="AF100">
+        <v>2.45</v>
+      </c>
+      <c r="AG100">
+        <v>2.5</v>
+      </c>
+      <c r="AH100">
+        <v>1.5</v>
+      </c>
+      <c r="AI100">
+        <v>2.1</v>
+      </c>
+      <c r="AJ100">
+        <v>1.67</v>
+      </c>
+      <c r="AK100">
+        <v>1.4</v>
+      </c>
+      <c r="AL100">
+        <v>1.34</v>
+      </c>
+      <c r="AM100">
+        <v>1.49</v>
+      </c>
+      <c r="AN100">
+        <v>1.75</v>
+      </c>
+      <c r="AO100">
+        <v>1.4</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>1.17</v>
+      </c>
+      <c r="AR100">
+        <v>1.38</v>
+      </c>
+      <c r="AS100">
+        <v>1.37</v>
+      </c>
+      <c r="AT100">
+        <v>2.75</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>2</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>6</v>
+      </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
+      <c r="BA100">
+        <v>6</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>12</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
+        <v>1.46</v>
+      </c>
+      <c r="BJ100">
+        <v>2.59</v>
+      </c>
+      <c r="BK100">
+        <v>1.79</v>
+      </c>
+      <c r="BL100">
+        <v>2</v>
+      </c>
+      <c r="BM100">
+        <v>2.24</v>
+      </c>
+      <c r="BN100">
+        <v>1.61</v>
+      </c>
+      <c r="BO100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7455968</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45590.54166666666</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>86</v>
+      </c>
+      <c r="P101" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q101">
+        <v>1.91</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>9.5</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.25</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>9</v>
+      </c>
+      <c r="Y101">
+        <v>1.07</v>
+      </c>
+      <c r="Z101">
+        <v>1.33</v>
+      </c>
+      <c r="AA101">
+        <v>4.33</v>
+      </c>
+      <c r="AB101">
+        <v>11</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.3</v>
+      </c>
+      <c r="AF101">
+        <v>3.25</v>
+      </c>
+      <c r="AG101">
+        <v>2.1</v>
+      </c>
+      <c r="AH101">
+        <v>1.7</v>
+      </c>
+      <c r="AI101">
+        <v>2.63</v>
+      </c>
+      <c r="AJ101">
+        <v>1.44</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1.13</v>
+      </c>
+      <c r="AM101">
+        <v>3.92</v>
+      </c>
+      <c r="AN101">
+        <v>3</v>
+      </c>
+      <c r="AO101">
+        <v>1.67</v>
+      </c>
+      <c r="AP101">
+        <v>2.5</v>
+      </c>
+      <c r="AQ101">
+        <v>1.86</v>
+      </c>
+      <c r="AR101">
+        <v>2.02</v>
+      </c>
+      <c r="AS101">
+        <v>1.23</v>
+      </c>
+      <c r="AT101">
+        <v>3.25</v>
+      </c>
+      <c r="AU101">
+        <v>9</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>13</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>30</v>
+      </c>
+      <c r="AZ101">
+        <v>9</v>
+      </c>
+      <c r="BA101">
+        <v>7</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>0</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -960,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
         <v>1.57</v>
@@ -2948,7 +2948,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
         <v>0.57</v>
@@ -6450,7 +6450,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -8095,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ35">
         <v>2.57</v>
@@ -10158,7 +10158,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>2.15</v>
@@ -11597,7 +11597,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
         <v>1.86</v>
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -18395,7 +18395,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
         <v>0.67</v>
@@ -19428,7 +19428,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ90">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -21769,6 +21769,212 @@
         <v>0</v>
       </c>
       <c r="BP101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7455962</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45591.33333333334</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>86</v>
+      </c>
+      <c r="P102" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q102">
+        <v>4.33</v>
+      </c>
+      <c r="R102">
+        <v>1.91</v>
+      </c>
+      <c r="S102">
+        <v>2.75</v>
+      </c>
+      <c r="T102">
+        <v>1.53</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>3.75</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>11</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>3.75</v>
+      </c>
+      <c r="AA102">
+        <v>3.1</v>
+      </c>
+      <c r="AB102">
+        <v>2.05</v>
+      </c>
+      <c r="AC102">
+        <v>1.1</v>
+      </c>
+      <c r="AD102">
+        <v>6.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.47</v>
+      </c>
+      <c r="AF102">
+        <v>2.63</v>
+      </c>
+      <c r="AG102">
+        <v>2.55</v>
+      </c>
+      <c r="AH102">
+        <v>1.5</v>
+      </c>
+      <c r="AI102">
+        <v>2.1</v>
+      </c>
+      <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>1.72</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.25</v>
+      </c>
+      <c r="AN102">
+        <v>0.83</v>
+      </c>
+      <c r="AO102">
+        <v>0.8</v>
+      </c>
+      <c r="AP102">
+        <v>0.86</v>
+      </c>
+      <c r="AQ102">
+        <v>0.83</v>
+      </c>
+      <c r="AR102">
+        <v>0.92</v>
+      </c>
+      <c r="AS102">
+        <v>1.02</v>
+      </c>
+      <c r="AT102">
+        <v>1.94</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
+      <c r="AZ102">
+        <v>12</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -21924,10 +21924,10 @@
         <v>8</v>
       </c>
       <c r="AY102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ102">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA102">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['15', '24', '49']</t>
   </si>
   <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
@@ -960,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1303,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1837,7 +1840,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2043,7 +2046,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2455,7 +2458,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2661,7 +2664,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3279,7 +3282,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3485,7 +3488,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3691,7 +3694,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4515,7 +4518,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4927,7 +4930,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5005,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5133,7 +5136,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5339,7 +5342,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5545,7 +5548,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5751,7 +5754,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5957,7 +5960,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6163,7 +6166,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6781,7 +6784,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7193,7 +7196,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7399,7 +7402,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7683,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -7892,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -8017,7 +8020,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8429,7 +8432,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9253,7 +9256,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9665,7 +9668,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9871,7 +9874,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10283,7 +10286,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10489,7 +10492,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10570,7 +10573,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.25</v>
@@ -10695,7 +10698,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11313,7 +11316,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11519,7 +11522,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11803,7 +11806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11931,7 +11934,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12137,7 +12140,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12343,7 +12346,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12549,7 +12552,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12755,7 +12758,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12961,7 +12964,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13167,7 +13170,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13373,7 +13376,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13579,7 +13582,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13785,7 +13788,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13866,7 +13869,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.43</v>
@@ -13991,7 +13994,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14481,7 +14484,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14609,7 +14612,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14815,7 +14818,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15433,7 +15436,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15514,7 +15517,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR71">
         <v>1.27</v>
@@ -16051,7 +16054,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16669,7 +16672,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16875,7 +16878,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17081,7 +17084,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17287,7 +17290,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17368,7 +17371,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17493,7 +17496,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17905,7 +17908,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18523,7 +18526,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18807,7 +18810,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -20171,7 +20174,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20377,7 +20380,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20789,7 +20792,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21613,7 +21616,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21975,6 +21978,212 @@
         <v>0</v>
       </c>
       <c r="BP102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7455961</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45593.54166666666</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>144</v>
+      </c>
+      <c r="P103" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q103">
+        <v>1.83</v>
+      </c>
+      <c r="R103">
+        <v>2.25</v>
+      </c>
+      <c r="S103">
+        <v>12</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.75</v>
+      </c>
+      <c r="W103">
+        <v>1.4</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.27</v>
+      </c>
+      <c r="AA103">
+        <v>4.75</v>
+      </c>
+      <c r="AB103">
+        <v>15</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>10</v>
+      </c>
+      <c r="AE103">
+        <v>1.25</v>
+      </c>
+      <c r="AF103">
+        <v>3.6</v>
+      </c>
+      <c r="AG103">
+        <v>2.2</v>
+      </c>
+      <c r="AH103">
+        <v>1.65</v>
+      </c>
+      <c r="AI103">
+        <v>3.25</v>
+      </c>
+      <c r="AJ103">
+        <v>1.33</v>
+      </c>
+      <c r="AK103">
+        <v>1.07</v>
+      </c>
+      <c r="AL103">
+        <v>1.18</v>
+      </c>
+      <c r="AM103">
+        <v>3.27</v>
+      </c>
+      <c r="AN103">
+        <v>2.67</v>
+      </c>
+      <c r="AO103">
+        <v>1.67</v>
+      </c>
+      <c r="AP103">
+        <v>2.71</v>
+      </c>
+      <c r="AQ103">
+        <v>1.43</v>
+      </c>
+      <c r="AR103">
+        <v>1.82</v>
+      </c>
+      <c r="AS103">
+        <v>1.65</v>
+      </c>
+      <c r="AT103">
+        <v>3.47</v>
+      </c>
+      <c r="AU103">
+        <v>7</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
+        <v>14</v>
+      </c>
+      <c r="AZ103">
+        <v>11</v>
+      </c>
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>7</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['15', '24', '49']</t>
   </si>
   <si>
+    <t>['47', '73', '80']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -602,6 +605,12 @@
   </si>
   <si>
     <t>['63', '83']</t>
+  </si>
+  <si>
+    <t>['32', '53']</t>
+  </si>
+  <si>
+    <t>['9', '58']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,7 +1518,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1715,7 +1724,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1840,7 +1849,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1918,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>1.86</v>
@@ -2046,7 +2055,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2124,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>2.57</v>
@@ -2458,7 +2467,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2664,7 +2673,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3282,7 +3291,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3488,7 +3497,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3694,7 +3703,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4393,7 +4402,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>1.05</v>
@@ -4518,7 +4527,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4930,7 +4939,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5011,7 +5020,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.29</v>
@@ -5136,7 +5145,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5214,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>1.17</v>
@@ -5342,7 +5351,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5548,7 +5557,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5626,7 +5635,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -5754,7 +5763,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5960,7 +5969,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6166,7 +6175,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6784,7 +6793,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7071,7 +7080,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7196,7 +7205,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7402,7 +7411,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7483,7 +7492,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>2.6</v>
@@ -7892,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34">
         <v>1.43</v>
@@ -8020,7 +8029,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8304,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8432,7 +8441,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8716,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>0.67</v>
@@ -9256,7 +9265,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9543,7 +9552,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.54</v>
@@ -9668,7 +9677,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9874,7 +9883,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10286,7 +10295,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10367,7 +10376,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.94</v>
@@ -10492,7 +10501,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10570,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -10698,7 +10707,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11316,7 +11325,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11522,7 +11531,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11934,7 +11943,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12140,7 +12149,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12218,7 +12227,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.57</v>
@@ -12346,7 +12355,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12427,7 +12436,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ56">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12552,7 +12561,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12758,7 +12767,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12839,7 +12848,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -12964,7 +12973,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13170,7 +13179,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13376,7 +13385,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13454,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>0.67</v>
@@ -13582,7 +13591,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13788,7 +13797,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13994,7 +14003,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14612,7 +14621,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14818,7 +14827,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15436,7 +15445,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15720,7 +15729,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72">
         <v>0.33</v>
@@ -15929,7 +15938,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16054,7 +16063,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16672,7 +16681,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16753,7 +16762,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16878,7 +16887,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -16956,7 +16965,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>3</v>
@@ -17084,7 +17093,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17290,7 +17299,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17496,7 +17505,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17908,7 +17917,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18526,7 +18535,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -19222,7 +19231,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
         <v>1.33</v>
@@ -19428,7 +19437,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
         <v>0.83</v>
@@ -19843,7 +19852,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20174,7 +20183,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20380,7 +20389,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20461,7 +20470,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -20792,7 +20801,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21616,7 +21625,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22184,6 +22193,418 @@
         <v>0</v>
       </c>
       <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7455973</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45597.52083333334</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104" t="s">
+        <v>145</v>
+      </c>
+      <c r="P104" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q104">
+        <v>4.33</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>3.1</v>
+      </c>
+      <c r="T104">
+        <v>1.53</v>
+      </c>
+      <c r="U104">
+        <v>2.38</v>
+      </c>
+      <c r="V104">
+        <v>3.75</v>
+      </c>
+      <c r="W104">
+        <v>1.25</v>
+      </c>
+      <c r="X104">
+        <v>11</v>
+      </c>
+      <c r="Y104">
+        <v>1.05</v>
+      </c>
+      <c r="Z104">
+        <v>3</v>
+      </c>
+      <c r="AA104">
+        <v>2.9</v>
+      </c>
+      <c r="AB104">
+        <v>2.25</v>
+      </c>
+      <c r="AC104">
+        <v>1.09</v>
+      </c>
+      <c r="AD104">
+        <v>6.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.48</v>
+      </c>
+      <c r="AF104">
+        <v>2.45</v>
+      </c>
+      <c r="AG104">
+        <v>2.3</v>
+      </c>
+      <c r="AH104">
+        <v>1.5</v>
+      </c>
+      <c r="AI104">
+        <v>2.1</v>
+      </c>
+      <c r="AJ104">
+        <v>1.67</v>
+      </c>
+      <c r="AK104">
+        <v>1.57</v>
+      </c>
+      <c r="AL104">
+        <v>1.28</v>
+      </c>
+      <c r="AM104">
+        <v>1.35</v>
+      </c>
+      <c r="AN104">
+        <v>0.71</v>
+      </c>
+      <c r="AO104">
+        <v>0.57</v>
+      </c>
+      <c r="AP104">
+        <v>1</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
+      <c r="AR104">
+        <v>1.28</v>
+      </c>
+      <c r="AS104">
+        <v>1.67</v>
+      </c>
+      <c r="AT104">
+        <v>2.95</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>12</v>
+      </c>
+      <c r="BA104">
+        <v>10</v>
+      </c>
+      <c r="BB104">
+        <v>9</v>
+      </c>
+      <c r="BC104">
+        <v>19</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7455972</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45598.29166666666</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>86</v>
+      </c>
+      <c r="P105" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>3.1</v>
+      </c>
+      <c r="T105">
+        <v>1.5</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>3.5</v>
+      </c>
+      <c r="W105">
+        <v>1.29</v>
+      </c>
+      <c r="X105">
+        <v>11</v>
+      </c>
+      <c r="Y105">
+        <v>1.05</v>
+      </c>
+      <c r="Z105">
+        <v>3.4</v>
+      </c>
+      <c r="AA105">
+        <v>3.1</v>
+      </c>
+      <c r="AB105">
+        <v>2.25</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>6.65</v>
+      </c>
+      <c r="AE105">
+        <v>1.44</v>
+      </c>
+      <c r="AF105">
+        <v>2.65</v>
+      </c>
+      <c r="AG105">
+        <v>2.5</v>
+      </c>
+      <c r="AH105">
+        <v>1.5</v>
+      </c>
+      <c r="AI105">
+        <v>2.1</v>
+      </c>
+      <c r="AJ105">
+        <v>1.67</v>
+      </c>
+      <c r="AK105">
+        <v>1.52</v>
+      </c>
+      <c r="AL105">
+        <v>1.3</v>
+      </c>
+      <c r="AM105">
+        <v>1.38</v>
+      </c>
+      <c r="AN105">
+        <v>0.86</v>
+      </c>
+      <c r="AO105">
+        <v>0.71</v>
+      </c>
+      <c r="AP105">
+        <v>0.75</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.24</v>
+      </c>
+      <c r="AS105">
+        <v>1.14</v>
+      </c>
+      <c r="AT105">
+        <v>2.38</v>
+      </c>
+      <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>9</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>9</v>
+      </c>
+      <c r="AZ105">
+        <v>14</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
+        <v>3</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>0</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,18 @@
     <t>['47', '73', '80']</t>
   </si>
   <si>
+    <t>['15', '50']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['15', '33', '45']</t>
+  </si>
+  <si>
+    <t>['26', '45']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -611,6 +623,12 @@
   </si>
   <si>
     <t>['9', '58']</t>
+  </si>
+  <si>
+    <t>['34', '90+2']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>1.43</v>
@@ -1515,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1721,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1849,7 +1867,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -1930,7 +1948,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2055,7 +2073,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2136,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2339,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2467,7 +2485,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2548,7 +2566,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2673,7 +2691,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2751,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3291,7 +3309,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3372,7 +3390,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3497,7 +3515,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3575,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3703,7 +3721,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4193,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4527,7 +4545,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4605,10 +4623,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR18">
         <v>1.14</v>
@@ -4814,7 +4832,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4939,7 +4957,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5017,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5145,7 +5163,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5351,7 +5369,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5429,10 +5447,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>1.4</v>
@@ -5557,7 +5575,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5638,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>0.89</v>
@@ -5763,7 +5781,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5844,7 +5862,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5969,7 +5987,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6050,7 +6068,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR25">
         <v>1.06</v>
@@ -6175,7 +6193,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6665,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -6793,7 +6811,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6871,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -7205,7 +7223,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7283,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7411,7 +7429,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7695,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -8029,7 +8047,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8110,7 +8128,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ35">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>0.91</v>
@@ -8441,7 +8459,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8519,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8934,7 +8952,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR39">
         <v>2.1</v>
@@ -9140,7 +9158,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.3</v>
@@ -9265,7 +9283,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9346,7 +9364,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.88</v>
@@ -9549,7 +9567,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9677,7 +9695,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9883,7 +9901,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9961,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10167,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>0.83</v>
@@ -10295,7 +10313,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10501,7 +10519,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10707,7 +10725,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10788,7 +10806,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR48">
         <v>2.49</v>
@@ -10994,7 +11012,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR49">
         <v>1.46</v>
@@ -11197,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11325,7 +11343,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11403,7 +11421,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11531,7 +11549,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11612,7 +11630,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>0.9399999999999999</v>
@@ -11815,7 +11833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11943,7 +11961,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12021,10 +12039,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12149,7 +12167,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12230,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.43</v>
@@ -12355,7 +12373,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12433,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>0.5</v>
@@ -12561,7 +12579,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12642,7 +12660,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR57">
         <v>1.32</v>
@@ -12767,7 +12785,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12845,7 +12863,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -12973,7 +12991,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13051,10 +13069,10 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13179,7 +13197,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13257,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>3</v>
@@ -13385,7 +13403,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13466,7 +13484,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13591,7 +13609,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13797,7 +13815,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13875,7 +13893,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14003,7 +14021,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14290,7 +14308,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
         <v>2.13</v>
@@ -14493,7 +14511,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14621,7 +14639,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14702,7 +14720,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -14827,7 +14845,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15111,7 +15129,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15320,7 +15338,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ70">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR70">
         <v>1.47</v>
@@ -15445,7 +15463,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15523,7 +15541,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ71">
         <v>1.43</v>
@@ -15732,7 +15750,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR72">
         <v>1.2</v>
@@ -16063,7 +16081,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16141,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74">
         <v>0.83</v>
@@ -16347,10 +16365,10 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>2.04</v>
@@ -16553,10 +16571,10 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16681,7 +16699,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16887,7 +16905,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17093,7 +17111,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17171,10 +17189,10 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.26</v>
@@ -17299,7 +17317,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17377,7 +17395,7 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80">
         <v>1.43</v>
@@ -17505,7 +17523,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17586,7 +17604,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ81">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -17917,7 +17935,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18204,7 +18222,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18535,7 +18553,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18819,7 +18837,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19028,7 +19046,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19646,7 +19664,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -20055,10 +20073,10 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR93">
         <v>1.84</v>
@@ -20183,7 +20201,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20261,7 +20279,7 @@
         <v>3</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ94">
         <v>3</v>
@@ -20389,7 +20407,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20467,7 +20485,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20801,7 +20819,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21625,7 +21643,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21706,7 +21724,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>2.02</v>
@@ -22115,7 +22133,7 @@
         <v>1.67</v>
       </c>
       <c r="AP103">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ103">
         <v>1.43</v>
@@ -22243,7 +22261,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22449,7 +22467,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22554,7 +22572,7 @@
         <v>5</v>
       </c>
       <c r="AY105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ105">
         <v>14</v>
@@ -22605,6 +22623,1242 @@
         <v>0</v>
       </c>
       <c r="BP105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7455974</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45598.39583333334</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>146</v>
+      </c>
+      <c r="P106" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>2.1</v>
+      </c>
+      <c r="S106">
+        <v>2.2</v>
+      </c>
+      <c r="T106">
+        <v>1.4</v>
+      </c>
+      <c r="U106">
+        <v>2.75</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>9</v>
+      </c>
+      <c r="Y106">
+        <v>1.07</v>
+      </c>
+      <c r="Z106">
+        <v>5.75</v>
+      </c>
+      <c r="AA106">
+        <v>3.9</v>
+      </c>
+      <c r="AB106">
+        <v>1.6</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>7.1</v>
+      </c>
+      <c r="AE106">
+        <v>1.3</v>
+      </c>
+      <c r="AF106">
+        <v>3.3</v>
+      </c>
+      <c r="AG106">
+        <v>2.1</v>
+      </c>
+      <c r="AH106">
+        <v>1.7</v>
+      </c>
+      <c r="AI106">
+        <v>2.2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.62</v>
+      </c>
+      <c r="AK106">
+        <v>2.15</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>1.11</v>
+      </c>
+      <c r="AN106">
+        <v>0.71</v>
+      </c>
+      <c r="AO106">
+        <v>0.67</v>
+      </c>
+      <c r="AP106">
+        <v>0.75</v>
+      </c>
+      <c r="AQ106">
+        <v>0.71</v>
+      </c>
+      <c r="AR106">
+        <v>1.42</v>
+      </c>
+      <c r="AS106">
+        <v>1.6</v>
+      </c>
+      <c r="AT106">
+        <v>3.02</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>8</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>5</v>
+      </c>
+      <c r="AY106">
+        <v>13</v>
+      </c>
+      <c r="AZ106">
+        <v>14</v>
+      </c>
+      <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>4</v>
+      </c>
+      <c r="BE106">
+        <v>7.4</v>
+      </c>
+      <c r="BF106">
+        <v>1.39</v>
+      </c>
+      <c r="BG106">
+        <v>1.25</v>
+      </c>
+      <c r="BH106">
+        <v>3.14</v>
+      </c>
+      <c r="BI106">
+        <v>1.5</v>
+      </c>
+      <c r="BJ106">
+        <v>2.28</v>
+      </c>
+      <c r="BK106">
+        <v>1.9</v>
+      </c>
+      <c r="BL106">
+        <v>1.8</v>
+      </c>
+      <c r="BM106">
+        <v>2.43</v>
+      </c>
+      <c r="BN106">
+        <v>1.44</v>
+      </c>
+      <c r="BO106">
+        <v>3.28</v>
+      </c>
+      <c r="BP106">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7455975</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>84</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>86</v>
+      </c>
+      <c r="P107" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q107">
+        <v>3.2</v>
+      </c>
+      <c r="R107">
+        <v>1.91</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.53</v>
+      </c>
+      <c r="U107">
+        <v>2.38</v>
+      </c>
+      <c r="V107">
+        <v>3.75</v>
+      </c>
+      <c r="W107">
+        <v>1.25</v>
+      </c>
+      <c r="X107">
+        <v>11</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>2.35</v>
+      </c>
+      <c r="AA107">
+        <v>3</v>
+      </c>
+      <c r="AB107">
+        <v>3.3</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>6.2</v>
+      </c>
+      <c r="AE107">
+        <v>1.48</v>
+      </c>
+      <c r="AF107">
+        <v>2.45</v>
+      </c>
+      <c r="AG107">
+        <v>2.6</v>
+      </c>
+      <c r="AH107">
+        <v>1.48</v>
+      </c>
+      <c r="AI107">
+        <v>2.1</v>
+      </c>
+      <c r="AJ107">
+        <v>1.67</v>
+      </c>
+      <c r="AK107">
+        <v>1.35</v>
+      </c>
+      <c r="AL107">
+        <v>1.33</v>
+      </c>
+      <c r="AM107">
+        <v>1.5</v>
+      </c>
+      <c r="AN107">
+        <v>1.43</v>
+      </c>
+      <c r="AO107">
+        <v>1.57</v>
+      </c>
+      <c r="AP107">
+        <v>1.25</v>
+      </c>
+      <c r="AQ107">
+        <v>1.75</v>
+      </c>
+      <c r="AR107">
+        <v>1.56</v>
+      </c>
+      <c r="AS107">
+        <v>1.16</v>
+      </c>
+      <c r="AT107">
+        <v>2.72</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>8</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>6</v>
+      </c>
+      <c r="AY107">
+        <v>9</v>
+      </c>
+      <c r="AZ107">
+        <v>18</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>6</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>0</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7455969</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45599.3125</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
+        <v>83</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>147</v>
+      </c>
+      <c r="P108" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q108">
+        <v>2.4</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>6</v>
+      </c>
+      <c r="T108">
+        <v>1.5</v>
+      </c>
+      <c r="U108">
+        <v>2.5</v>
+      </c>
+      <c r="V108">
+        <v>3.4</v>
+      </c>
+      <c r="W108">
+        <v>1.3</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>1.7</v>
+      </c>
+      <c r="AA108">
+        <v>3.5</v>
+      </c>
+      <c r="AB108">
+        <v>5.25</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>6.55</v>
+      </c>
+      <c r="AE108">
+        <v>1.5</v>
+      </c>
+      <c r="AF108">
+        <v>2.4</v>
+      </c>
+      <c r="AG108">
+        <v>2.6</v>
+      </c>
+      <c r="AH108">
+        <v>1.48</v>
+      </c>
+      <c r="AI108">
+        <v>2.5</v>
+      </c>
+      <c r="AJ108">
+        <v>1.5</v>
+      </c>
+      <c r="AK108">
+        <v>1.12</v>
+      </c>
+      <c r="AL108">
+        <v>1.22</v>
+      </c>
+      <c r="AM108">
+        <v>2.1</v>
+      </c>
+      <c r="AN108">
+        <v>0.8</v>
+      </c>
+      <c r="AO108">
+        <v>1.86</v>
+      </c>
+      <c r="AP108">
+        <v>0.83</v>
+      </c>
+      <c r="AQ108">
+        <v>1.75</v>
+      </c>
+      <c r="AR108">
+        <v>1.59</v>
+      </c>
+      <c r="AS108">
+        <v>1.25</v>
+      </c>
+      <c r="AT108">
+        <v>2.84</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>5</v>
+      </c>
+      <c r="BA108">
+        <v>12</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>17</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7455976</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45599.41666666666</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>148</v>
+      </c>
+      <c r="P109" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q109">
+        <v>1.33</v>
+      </c>
+      <c r="R109">
+        <v>3.5</v>
+      </c>
+      <c r="S109">
+        <v>23</v>
+      </c>
+      <c r="T109">
+        <v>1.2</v>
+      </c>
+      <c r="U109">
+        <v>4.33</v>
+      </c>
+      <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>1.73</v>
+      </c>
+      <c r="X109">
+        <v>4</v>
+      </c>
+      <c r="Y109">
+        <v>1.22</v>
+      </c>
+      <c r="Z109">
+        <v>1.06</v>
+      </c>
+      <c r="AA109">
+        <v>11</v>
+      </c>
+      <c r="AB109">
+        <v>34</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.05</v>
+      </c>
+      <c r="AF109">
+        <v>5.95</v>
+      </c>
+      <c r="AG109">
+        <v>1.44</v>
+      </c>
+      <c r="AH109">
+        <v>2.7</v>
+      </c>
+      <c r="AI109">
+        <v>3.5</v>
+      </c>
+      <c r="AJ109">
+        <v>1.29</v>
+      </c>
+      <c r="AK109">
+        <v>1.01</v>
+      </c>
+      <c r="AL109">
+        <v>1.02</v>
+      </c>
+      <c r="AM109">
+        <v>7.7</v>
+      </c>
+      <c r="AN109">
+        <v>2.71</v>
+      </c>
+      <c r="AO109">
+        <v>0.33</v>
+      </c>
+      <c r="AP109">
+        <v>2.75</v>
+      </c>
+      <c r="AQ109">
+        <v>0.29</v>
+      </c>
+      <c r="AR109">
+        <v>1.77</v>
+      </c>
+      <c r="AS109">
+        <v>1.02</v>
+      </c>
+      <c r="AT109">
+        <v>2.79</v>
+      </c>
+      <c r="AU109">
+        <v>10</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>19</v>
+      </c>
+      <c r="AZ109">
+        <v>6</v>
+      </c>
+      <c r="BA109">
+        <v>6</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7455970</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45599.52083333334</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>149</v>
+      </c>
+      <c r="P110" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>3.25</v>
+      </c>
+      <c r="T110">
+        <v>1.53</v>
+      </c>
+      <c r="U110">
+        <v>2.38</v>
+      </c>
+      <c r="V110">
+        <v>3.5</v>
+      </c>
+      <c r="W110">
+        <v>1.29</v>
+      </c>
+      <c r="X110">
+        <v>11</v>
+      </c>
+      <c r="Y110">
+        <v>1.05</v>
+      </c>
+      <c r="Z110">
+        <v>3.2</v>
+      </c>
+      <c r="AA110">
+        <v>3</v>
+      </c>
+      <c r="AB110">
+        <v>2.4</v>
+      </c>
+      <c r="AC110">
+        <v>1.04</v>
+      </c>
+      <c r="AD110">
+        <v>6.4</v>
+      </c>
+      <c r="AE110">
+        <v>1.45</v>
+      </c>
+      <c r="AF110">
+        <v>2.65</v>
+      </c>
+      <c r="AG110">
+        <v>2.6</v>
+      </c>
+      <c r="AH110">
+        <v>1.48</v>
+      </c>
+      <c r="AI110">
+        <v>2.1</v>
+      </c>
+      <c r="AJ110">
+        <v>1.67</v>
+      </c>
+      <c r="AK110">
+        <v>1.53</v>
+      </c>
+      <c r="AL110">
+        <v>1.35</v>
+      </c>
+      <c r="AM110">
+        <v>1.3</v>
+      </c>
+      <c r="AN110">
+        <v>2.14</v>
+      </c>
+      <c r="AO110">
+        <v>1.86</v>
+      </c>
+      <c r="AP110">
+        <v>2.25</v>
+      </c>
+      <c r="AQ110">
+        <v>1.63</v>
+      </c>
+      <c r="AR110">
+        <v>1.81</v>
+      </c>
+      <c r="AS110">
+        <v>1.94</v>
+      </c>
+      <c r="AT110">
+        <v>3.75</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>3</v>
+      </c>
+      <c r="AW110">
+        <v>1</v>
+      </c>
+      <c r="AX110">
+        <v>10</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>20</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>2.18</v>
+      </c>
+      <c r="BE110">
+        <v>6.3</v>
+      </c>
+      <c r="BF110">
+        <v>2.05</v>
+      </c>
+      <c r="BG110">
+        <v>1.26</v>
+      </c>
+      <c r="BH110">
+        <v>3.08</v>
+      </c>
+      <c r="BI110">
+        <v>1.51</v>
+      </c>
+      <c r="BJ110">
+        <v>2.26</v>
+      </c>
+      <c r="BK110">
+        <v>1.93</v>
+      </c>
+      <c r="BL110">
+        <v>1.78</v>
+      </c>
+      <c r="BM110">
+        <v>2.46</v>
+      </c>
+      <c r="BN110">
+        <v>1.43</v>
+      </c>
+      <c r="BO110">
+        <v>3.34</v>
+      </c>
+      <c r="BP110">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7455971</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45600.52083333334</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>147</v>
+      </c>
+      <c r="P111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>2.25</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>1.44</v>
+      </c>
+      <c r="U111">
+        <v>2.63</v>
+      </c>
+      <c r="V111">
+        <v>3.25</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>9</v>
+      </c>
+      <c r="Y111">
+        <v>1.07</v>
+      </c>
+      <c r="Z111">
+        <v>7.5</v>
+      </c>
+      <c r="AA111">
+        <v>4.33</v>
+      </c>
+      <c r="AB111">
+        <v>1.44</v>
+      </c>
+      <c r="AC111">
+        <v>1.02</v>
+      </c>
+      <c r="AD111">
+        <v>7.4</v>
+      </c>
+      <c r="AE111">
+        <v>1.36</v>
+      </c>
+      <c r="AF111">
+        <v>2.95</v>
+      </c>
+      <c r="AG111">
+        <v>2</v>
+      </c>
+      <c r="AH111">
+        <v>1.8</v>
+      </c>
+      <c r="AI111">
+        <v>2.2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.62</v>
+      </c>
+      <c r="AK111">
+        <v>2.5</v>
+      </c>
+      <c r="AL111">
+        <v>1.2</v>
+      </c>
+      <c r="AM111">
+        <v>1.06</v>
+      </c>
+      <c r="AN111">
+        <v>0.57</v>
+      </c>
+      <c r="AO111">
+        <v>2.57</v>
+      </c>
+      <c r="AP111">
+        <v>0.88</v>
+      </c>
+      <c r="AQ111">
+        <v>2.25</v>
+      </c>
+      <c r="AR111">
+        <v>1.07</v>
+      </c>
+      <c r="AS111">
+        <v>1.46</v>
+      </c>
+      <c r="AT111">
+        <v>2.53</v>
+      </c>
+      <c r="AU111">
+        <v>2</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>3</v>
+      </c>
+      <c r="AX111">
+        <v>14</v>
+      </c>
+      <c r="AY111">
+        <v>6</v>
+      </c>
+      <c r="AZ111">
+        <v>24</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>8</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>0</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,12 @@
     <t>['26', '45']</t>
   </si>
   <si>
+    <t>['20', '58']</t>
+  </si>
+  <si>
+    <t>['61', '68']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -629,6 +635,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['21', '33', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1867,7 +1876,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2073,7 +2082,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2360,7 +2369,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ7">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2485,7 +2494,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2691,7 +2700,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2975,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ10">
         <v>0.83</v>
@@ -3184,7 +3193,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3309,7 +3318,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3515,7 +3524,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3593,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3721,7 +3730,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3799,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4008,7 +4017,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4545,7 +4554,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4832,7 +4841,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4957,7 +4966,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5163,7 +5172,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5369,7 +5378,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5575,7 +5584,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5781,7 +5790,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5987,7 +5996,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6065,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6193,7 +6202,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6686,7 +6695,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR28">
         <v>1.04</v>
@@ -6811,7 +6820,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6892,7 +6901,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>2.31</v>
@@ -7223,7 +7232,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7429,7 +7438,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8047,7 +8056,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8459,7 +8468,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8746,7 +8755,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9155,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ40">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.3</v>
@@ -9283,7 +9292,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9361,7 +9370,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9567,7 +9576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9695,7 +9704,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9901,7 +9910,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10313,7 +10322,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10519,7 +10528,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10725,7 +10734,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11343,7 +11352,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11424,7 +11433,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.15</v>
@@ -11549,7 +11558,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11961,7 +11970,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12167,7 +12176,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12373,7 +12382,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12579,7 +12588,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12785,7 +12794,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -12991,7 +13000,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13069,7 +13078,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59">
         <v>1.63</v>
@@ -13197,7 +13206,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13403,7 +13412,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13484,7 +13493,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13609,7 +13618,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13815,7 +13824,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14021,7 +14030,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14514,7 +14523,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.69</v>
@@ -14639,7 +14648,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14845,7 +14854,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15132,7 +15141,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15335,7 +15344,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ70">
         <v>2.25</v>
@@ -15463,7 +15472,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -16081,7 +16090,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16368,7 +16377,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>2.04</v>
@@ -16571,7 +16580,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ76">
         <v>2.25</v>
@@ -16699,7 +16708,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16905,7 +16914,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17111,7 +17120,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17317,7 +17326,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17523,7 +17532,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17601,7 +17610,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ81">
         <v>1.75</v>
@@ -17935,7 +17944,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18219,7 +18228,7 @@
         <v>2.17</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ84">
         <v>1.63</v>
@@ -18428,7 +18437,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR85">
         <v>0.86</v>
@@ -18553,7 +18562,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18634,7 +18643,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19664,7 +19673,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -19867,7 +19876,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20201,7 +20210,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20407,7 +20416,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20485,7 +20494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20819,7 +20828,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20900,7 +20909,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21106,7 +21115,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR98">
         <v>2.07</v>
@@ -21309,7 +21318,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21515,7 +21524,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ100">
         <v>1.17</v>
@@ -21643,7 +21652,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -22261,7 +22270,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22467,7 +22476,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22673,7 +22682,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22754,7 +22763,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.42</v>
@@ -23085,7 +23094,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23163,7 +23172,7 @@
         <v>1.86</v>
       </c>
       <c r="AP108">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ108">
         <v>1.75</v>
@@ -23497,7 +23506,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23859,6 +23868,624 @@
         <v>0</v>
       </c>
       <c r="BP111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7455889</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45603.52083333334</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>143</v>
+      </c>
+      <c r="P112" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q112">
+        <v>4.75</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>2.6</v>
+      </c>
+      <c r="T112">
+        <v>1.44</v>
+      </c>
+      <c r="U112">
+        <v>2.63</v>
+      </c>
+      <c r="V112">
+        <v>3.25</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>4.2</v>
+      </c>
+      <c r="AA112">
+        <v>3.3</v>
+      </c>
+      <c r="AB112">
+        <v>1.9</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE112">
+        <v>1.35</v>
+      </c>
+      <c r="AF112">
+        <v>2.9</v>
+      </c>
+      <c r="AG112">
+        <v>2.15</v>
+      </c>
+      <c r="AH112">
+        <v>1.67</v>
+      </c>
+      <c r="AI112">
+        <v>2</v>
+      </c>
+      <c r="AJ112">
+        <v>1.73</v>
+      </c>
+      <c r="AK112">
+        <v>1.85</v>
+      </c>
+      <c r="AL112">
+        <v>1.28</v>
+      </c>
+      <c r="AM112">
+        <v>1.23</v>
+      </c>
+      <c r="AN112">
+        <v>0.83</v>
+      </c>
+      <c r="AO112">
+        <v>0.71</v>
+      </c>
+      <c r="AP112">
+        <v>0.71</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.57</v>
+      </c>
+      <c r="AS112">
+        <v>1.64</v>
+      </c>
+      <c r="AT112">
+        <v>3.21</v>
+      </c>
+      <c r="AU112">
+        <v>7</v>
+      </c>
+      <c r="AV112">
+        <v>7</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>7</v>
+      </c>
+      <c r="AY112">
+        <v>17</v>
+      </c>
+      <c r="AZ112">
+        <v>18</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>3</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7455981</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45604.41666666666</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>150</v>
+      </c>
+      <c r="P113" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q113">
+        <v>2.2</v>
+      </c>
+      <c r="R113">
+        <v>2.1</v>
+      </c>
+      <c r="S113">
+        <v>6.5</v>
+      </c>
+      <c r="T113">
+        <v>1.5</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>3.4</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>10</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>1.57</v>
+      </c>
+      <c r="AA113">
+        <v>3.75</v>
+      </c>
+      <c r="AB113">
+        <v>6.25</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>7.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.4</v>
+      </c>
+      <c r="AF113">
+        <v>2.8</v>
+      </c>
+      <c r="AG113">
+        <v>2.15</v>
+      </c>
+      <c r="AH113">
+        <v>1.67</v>
+      </c>
+      <c r="AI113">
+        <v>2.25</v>
+      </c>
+      <c r="AJ113">
+        <v>1.57</v>
+      </c>
+      <c r="AK113">
+        <v>1.1</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>2.2</v>
+      </c>
+      <c r="AN113">
+        <v>2.67</v>
+      </c>
+      <c r="AO113">
+        <v>0.67</v>
+      </c>
+      <c r="AP113">
+        <v>2.71</v>
+      </c>
+      <c r="AQ113">
+        <v>0.57</v>
+      </c>
+      <c r="AR113">
+        <v>1.39</v>
+      </c>
+      <c r="AS113">
+        <v>0.84</v>
+      </c>
+      <c r="AT113">
+        <v>2.23</v>
+      </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
+        <v>7</v>
+      </c>
+      <c r="BA113">
+        <v>5</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7455982</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45604.52083333334</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>82</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>151</v>
+      </c>
+      <c r="P114" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q114">
+        <v>1.91</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>8.5</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.63</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>9</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>1.36</v>
+      </c>
+      <c r="AA114">
+        <v>4.75</v>
+      </c>
+      <c r="AB114">
+        <v>8.5</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>8</v>
+      </c>
+      <c r="AE114">
+        <v>1.36</v>
+      </c>
+      <c r="AF114">
+        <v>2.88</v>
+      </c>
+      <c r="AG114">
+        <v>1.95</v>
+      </c>
+      <c r="AH114">
+        <v>1.85</v>
+      </c>
+      <c r="AI114">
+        <v>2.38</v>
+      </c>
+      <c r="AJ114">
+        <v>1.53</v>
+      </c>
+      <c r="AK114">
+        <v>1.1</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>2.62</v>
+      </c>
+      <c r="AN114">
+        <v>2</v>
+      </c>
+      <c r="AO114">
+        <v>0.83</v>
+      </c>
+      <c r="AP114">
+        <v>2.17</v>
+      </c>
+      <c r="AQ114">
+        <v>0.71</v>
+      </c>
+      <c r="AR114">
+        <v>1.23</v>
+      </c>
+      <c r="AS114">
+        <v>1.4</v>
+      </c>
+      <c r="AT114">
+        <v>2.63</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>8</v>
+      </c>
+      <c r="AX114">
+        <v>1</v>
+      </c>
+      <c r="AY114">
+        <v>16</v>
+      </c>
+      <c r="AZ114">
+        <v>5</v>
+      </c>
+      <c r="BA114">
+        <v>12</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>16</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,12 @@
     <t>['61', '68']</t>
   </si>
   <si>
+    <t>['18', '31']</t>
+  </si>
+  <si>
+    <t>['4', '66']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -638,6 +644,12 @@
   </si>
   <si>
     <t>['21', '33', '90+5']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['41', '45+2', '71']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1876,7 +1888,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2082,7 +2094,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2494,7 +2506,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2700,7 +2712,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -3190,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ11">
         <v>0.57</v>
@@ -3318,7 +3330,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3524,7 +3536,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3730,7 +3742,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3811,7 +3823,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4014,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4223,7 +4235,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>2.14</v>
@@ -4554,7 +4566,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4966,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5172,7 +5184,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5253,7 +5265,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5378,7 +5390,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5584,7 +5596,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5790,7 +5802,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5868,7 +5880,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5996,7 +6008,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6202,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6280,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>1.84</v>
@@ -6486,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -6820,7 +6832,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7232,7 +7244,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7438,7 +7450,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -8056,7 +8068,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8343,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.12</v>
@@ -8468,7 +8480,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8549,7 +8561,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -8958,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>0.29</v>
@@ -9292,7 +9304,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9704,7 +9716,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9782,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9910,7 +9922,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9991,7 +10003,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>0.98</v>
@@ -10322,7 +10334,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10400,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10528,7 +10540,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10734,7 +10746,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -11227,7 +11239,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11352,7 +11364,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11558,7 +11570,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11845,7 +11857,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -11970,7 +11982,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12176,7 +12188,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12382,7 +12394,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12588,7 +12600,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12666,7 +12678,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -12794,7 +12806,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13000,7 +13012,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13206,7 +13218,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13412,7 +13424,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13618,7 +13630,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13696,7 +13708,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62">
         <v>3</v>
@@ -13824,7 +13836,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14030,7 +14042,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14111,7 +14123,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>0.93</v>
@@ -14648,7 +14660,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14726,7 +14738,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67">
         <v>1.63</v>
@@ -14854,7 +14866,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14935,7 +14947,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15472,7 +15484,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15962,7 +15974,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16090,7 +16102,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16708,7 +16720,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16786,7 +16798,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16914,7 +16926,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17120,7 +17132,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17326,7 +17338,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17532,7 +17544,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17816,10 +17828,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -17944,7 +17956,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18025,7 +18037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>2.04</v>
@@ -18562,7 +18574,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18849,7 +18861,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -19052,7 +19064,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1.75</v>
@@ -19261,7 +19273,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR89">
         <v>1.32</v>
@@ -19670,7 +19682,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20210,7 +20222,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20416,7 +20428,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20703,7 +20715,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -20828,7 +20840,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20906,7 +20918,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>0.71</v>
@@ -21321,7 +21333,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21527,7 +21539,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR100">
         <v>1.38</v>
@@ -21652,7 +21664,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21730,7 +21742,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
         <v>1.75</v>
@@ -22270,7 +22282,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22476,7 +22488,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22682,7 +22694,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23094,7 +23106,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23506,7 +23518,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23918,7 +23930,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24486,6 +24498,624 @@
         <v>0</v>
       </c>
       <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7455980</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>152</v>
+      </c>
+      <c r="P115" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q115">
+        <v>2.6</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>4.5</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.63</v>
+      </c>
+      <c r="V115">
+        <v>3.25</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>10</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>1.9</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>4.33</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>7.7</v>
+      </c>
+      <c r="AE115">
+        <v>1.32</v>
+      </c>
+      <c r="AF115">
+        <v>2.78</v>
+      </c>
+      <c r="AG115">
+        <v>2.05</v>
+      </c>
+      <c r="AH115">
+        <v>1.75</v>
+      </c>
+      <c r="AI115">
+        <v>1.83</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>1.2</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.92</v>
+      </c>
+      <c r="AN115">
+        <v>1.67</v>
+      </c>
+      <c r="AO115">
+        <v>1.33</v>
+      </c>
+      <c r="AP115">
+        <v>1.86</v>
+      </c>
+      <c r="AQ115">
+        <v>1.14</v>
+      </c>
+      <c r="AR115">
+        <v>1.45</v>
+      </c>
+      <c r="AS115">
+        <v>1.18</v>
+      </c>
+      <c r="AT115">
+        <v>2.63</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>8</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>5</v>
+      </c>
+      <c r="AZ115">
+        <v>12</v>
+      </c>
+      <c r="BA115">
+        <v>1</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>7</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7455984</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45605.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" t="s">
+        <v>70</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>86</v>
+      </c>
+      <c r="P116" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>1.91</v>
+      </c>
+      <c r="S116">
+        <v>2.88</v>
+      </c>
+      <c r="T116">
+        <v>1.57</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>3.75</v>
+      </c>
+      <c r="W116">
+        <v>1.25</v>
+      </c>
+      <c r="X116">
+        <v>11</v>
+      </c>
+      <c r="Y116">
+        <v>1.05</v>
+      </c>
+      <c r="Z116">
+        <v>3.9</v>
+      </c>
+      <c r="AA116">
+        <v>3.2</v>
+      </c>
+      <c r="AB116">
+        <v>2.05</v>
+      </c>
+      <c r="AC116">
+        <v>1.05</v>
+      </c>
+      <c r="AD116">
+        <v>6.2</v>
+      </c>
+      <c r="AE116">
+        <v>1.5</v>
+      </c>
+      <c r="AF116">
+        <v>2.4</v>
+      </c>
+      <c r="AG116">
+        <v>2.7</v>
+      </c>
+      <c r="AH116">
+        <v>1.44</v>
+      </c>
+      <c r="AI116">
+        <v>2.38</v>
+      </c>
+      <c r="AJ116">
+        <v>1.53</v>
+      </c>
+      <c r="AK116">
+        <v>1.84</v>
+      </c>
+      <c r="AL116">
+        <v>1.32</v>
+      </c>
+      <c r="AM116">
+        <v>1.21</v>
+      </c>
+      <c r="AN116">
+        <v>1.17</v>
+      </c>
+      <c r="AO116">
+        <v>1.17</v>
+      </c>
+      <c r="AP116">
+        <v>1</v>
+      </c>
+      <c r="AQ116">
+        <v>1.43</v>
+      </c>
+      <c r="AR116">
+        <v>1.36</v>
+      </c>
+      <c r="AS116">
+        <v>1.27</v>
+      </c>
+      <c r="AT116">
+        <v>2.63</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>7</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>16</v>
+      </c>
+      <c r="AZ116">
+        <v>11</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>7</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7455983</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45605.52083333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>153</v>
+      </c>
+      <c r="P117" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q117">
+        <v>1.53</v>
+      </c>
+      <c r="R117">
+        <v>2.75</v>
+      </c>
+      <c r="S117">
+        <v>13</v>
+      </c>
+      <c r="T117">
+        <v>1.3</v>
+      </c>
+      <c r="U117">
+        <v>3.4</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6</v>
+      </c>
+      <c r="Y117">
+        <v>1.13</v>
+      </c>
+      <c r="Z117">
+        <v>1.17</v>
+      </c>
+      <c r="AA117">
+        <v>7</v>
+      </c>
+      <c r="AB117">
+        <v>17</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>13</v>
+      </c>
+      <c r="AE117">
+        <v>1.16</v>
+      </c>
+      <c r="AF117">
+        <v>3.9</v>
+      </c>
+      <c r="AG117">
+        <v>1.62</v>
+      </c>
+      <c r="AH117">
+        <v>2.25</v>
+      </c>
+      <c r="AI117">
+        <v>2.75</v>
+      </c>
+      <c r="AJ117">
+        <v>1.4</v>
+      </c>
+      <c r="AK117">
+        <v>1.03</v>
+      </c>
+      <c r="AL117">
+        <v>1.07</v>
+      </c>
+      <c r="AM117">
+        <v>5.45</v>
+      </c>
+      <c r="AN117">
+        <v>2.5</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>2.14</v>
+      </c>
+      <c r="AQ117">
+        <v>1.29</v>
+      </c>
+      <c r="AR117">
+        <v>2.13</v>
+      </c>
+      <c r="AS117">
+        <v>1.15</v>
+      </c>
+      <c r="AT117">
+        <v>3.28</v>
+      </c>
+      <c r="AU117">
+        <v>12</v>
+      </c>
+      <c r="AV117">
+        <v>8</v>
+      </c>
+      <c r="AW117">
+        <v>13</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>32</v>
+      </c>
+      <c r="AZ117">
+        <v>13</v>
+      </c>
+      <c r="BA117">
+        <v>14</v>
+      </c>
+      <c r="BB117">
+        <v>2</v>
+      </c>
+      <c r="BC117">
+        <v>16</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Bulgaria First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,12 @@
     <t>['4', '66']</t>
   </si>
   <si>
+    <t>['27', '58']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['12', '22', '45+1', '45+4', '90+1', '90+8']</t>
   </si>
   <si>
@@ -650,6 +656,15 @@
   </si>
   <si>
     <t>['41', '45+2', '71']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['74', '90+5']</t>
+  </si>
+  <si>
+    <t>['9', '64', '80']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1366,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1888,7 +1903,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>7.5</v>
@@ -2094,7 +2109,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>4.75</v>
@@ -2506,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2584,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ8">
         <v>1.75</v>
@@ -2712,7 +2727,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>3.1</v>
@@ -2999,7 +3014,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3330,7 +3345,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>1.44</v>
@@ -3408,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>0.29</v>
@@ -3536,7 +3551,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3742,7 +3757,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4438,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4566,7 +4581,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4850,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4978,7 +4993,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5184,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5390,7 +5405,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5596,7 +5611,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5802,7 +5817,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6008,7 +6023,7 @@
         <v>104</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>2.05</v>
@@ -6214,7 +6229,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6501,7 +6516,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6832,7 +6847,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7116,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7244,7 +7259,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7450,7 +7465,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2.05</v>
@@ -7528,7 +7543,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7943,7 +7958,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR34">
         <v>1.04</v>
@@ -8068,7 +8083,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>8.199999999999999</v>
@@ -8146,7 +8161,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ35">
         <v>2.25</v>
@@ -8480,7 +8495,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9304,7 +9319,7 @@
         <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.3</v>
@@ -9716,7 +9731,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9922,7 +9937,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10209,7 +10224,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR45">
         <v>2.15</v>
@@ -10334,7 +10349,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10540,7 +10555,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>4.33</v>
@@ -10621,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR47">
         <v>1.25</v>
@@ -10746,7 +10761,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -10824,7 +10839,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -11030,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49">
         <v>1.63</v>
@@ -11364,7 +11379,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11570,7 +11585,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11648,7 +11663,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -11982,7 +11997,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>1.95</v>
@@ -12188,7 +12203,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12394,7 +12409,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>5.5</v>
@@ -12600,7 +12615,7 @@
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12806,7 +12821,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.25</v>
@@ -13012,7 +13027,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13218,7 +13233,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13424,7 +13439,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13630,7 +13645,7 @@
         <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13836,7 +13851,7 @@
         <v>86</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -13917,7 +13932,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
         <v>1.43</v>
@@ -14042,7 +14057,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14120,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14326,7 +14341,7 @@
         <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ65">
         <v>1.75</v>
@@ -14660,7 +14675,7 @@
         <v>86</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>6.5</v>
@@ -14866,7 +14881,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14944,7 +14959,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
         <v>1.43</v>
@@ -15484,7 +15499,7 @@
         <v>92</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>9</v>
@@ -15565,7 +15580,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.27</v>
@@ -16102,7 +16117,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16183,7 +16198,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16720,7 +16735,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>1.91</v>
@@ -16926,7 +16941,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>1.53</v>
@@ -17132,7 +17147,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17338,7 +17353,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17419,7 +17434,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17544,7 +17559,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17956,7 +17971,7 @@
         <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q83">
         <v>1.44</v>
@@ -18034,7 +18049,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18446,7 +18461,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85">
         <v>0.57</v>
@@ -18574,7 +18589,7 @@
         <v>134</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.63</v>
@@ -18652,7 +18667,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -19479,7 +19494,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -20222,7 +20237,7 @@
         <v>86</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>17</v>
@@ -20428,7 +20443,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20712,7 +20727,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
         <v>1.14</v>
@@ -20840,7 +20855,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21124,7 +21139,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98">
         <v>0.57</v>
@@ -21664,7 +21679,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q101">
         <v>1.91</v>
@@ -21948,10 +21963,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
+        <v>0.88</v>
+      </c>
+      <c r="AQ102">
         <v>0.86</v>
-      </c>
-      <c r="AQ102">
-        <v>0.83</v>
       </c>
       <c r="AR102">
         <v>0.92</v>
@@ -22157,7 +22172,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ103">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR103">
         <v>1.82</v>
@@ -22282,7 +22297,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22488,7 +22503,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22694,7 +22709,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23106,7 +23121,7 @@
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23518,7 +23533,7 @@
         <v>149</v>
       </c>
       <c r="P110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23930,7 +23945,7 @@
         <v>143</v>
       </c>
       <c r="P112" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q112">
         <v>4.75</v>
@@ -24754,7 +24769,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24960,7 +24975,7 @@
         <v>153</v>
       </c>
       <c r="P117" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q117">
         <v>1.53</v>
@@ -25116,6 +25131,624 @@
         <v>0</v>
       </c>
       <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7455977</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45606.3125</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q118">
+        <v>6.5</v>
+      </c>
+      <c r="R118">
+        <v>2.1</v>
+      </c>
+      <c r="S118">
+        <v>2.25</v>
+      </c>
+      <c r="T118">
+        <v>1.44</v>
+      </c>
+      <c r="U118">
+        <v>2.63</v>
+      </c>
+      <c r="V118">
+        <v>3.25</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>9</v>
+      </c>
+      <c r="Y118">
+        <v>1.07</v>
+      </c>
+      <c r="Z118">
+        <v>5.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.9</v>
+      </c>
+      <c r="AB118">
+        <v>1.6</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>6.6</v>
+      </c>
+      <c r="AE118">
+        <v>1.33</v>
+      </c>
+      <c r="AF118">
+        <v>2.95</v>
+      </c>
+      <c r="AG118">
+        <v>2.15</v>
+      </c>
+      <c r="AH118">
+        <v>1.67</v>
+      </c>
+      <c r="AI118">
+        <v>2.2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.62</v>
+      </c>
+      <c r="AK118">
+        <v>2.05</v>
+      </c>
+      <c r="AL118">
+        <v>1.2</v>
+      </c>
+      <c r="AM118">
+        <v>1.15</v>
+      </c>
+      <c r="AN118">
+        <v>0.86</v>
+      </c>
+      <c r="AO118">
+        <v>1.43</v>
+      </c>
+      <c r="AP118">
+        <v>0.88</v>
+      </c>
+      <c r="AQ118">
+        <v>1.38</v>
+      </c>
+      <c r="AR118">
+        <v>0.96</v>
+      </c>
+      <c r="AS118">
+        <v>1.59</v>
+      </c>
+      <c r="AT118">
+        <v>2.55</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>3</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>7</v>
+      </c>
+      <c r="BC118">
+        <v>14</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7455979</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45606.41666666666</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>154</v>
+      </c>
+      <c r="P119" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q119">
+        <v>1.8</v>
+      </c>
+      <c r="R119">
+        <v>2.38</v>
+      </c>
+      <c r="S119">
+        <v>9.5</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>8</v>
+      </c>
+      <c r="Y119">
+        <v>1.08</v>
+      </c>
+      <c r="Z119">
+        <v>1.3</v>
+      </c>
+      <c r="AA119">
+        <v>5.5</v>
+      </c>
+      <c r="AB119">
+        <v>8.5</v>
+      </c>
+      <c r="AC119">
+        <v>1.02</v>
+      </c>
+      <c r="AD119">
+        <v>10</v>
+      </c>
+      <c r="AE119">
+        <v>1.3</v>
+      </c>
+      <c r="AF119">
+        <v>3.3</v>
+      </c>
+      <c r="AG119">
+        <v>1.95</v>
+      </c>
+      <c r="AH119">
+        <v>1.85</v>
+      </c>
+      <c r="AI119">
+        <v>2.63</v>
+      </c>
+      <c r="AJ119">
+        <v>1.44</v>
+      </c>
+      <c r="AK119">
+        <v>1.03</v>
+      </c>
+      <c r="AL119">
+        <v>1.12</v>
+      </c>
+      <c r="AM119">
+        <v>3.1</v>
+      </c>
+      <c r="AN119">
+        <v>1.5</v>
+      </c>
+      <c r="AO119">
+        <v>0.83</v>
+      </c>
+      <c r="AP119">
+        <v>1.43</v>
+      </c>
+      <c r="AQ119">
+        <v>0.86</v>
+      </c>
+      <c r="AR119">
+        <v>2.2</v>
+      </c>
+      <c r="AS119">
+        <v>1.09</v>
+      </c>
+      <c r="AT119">
+        <v>3.29</v>
+      </c>
+      <c r="AU119">
+        <v>9</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>18</v>
+      </c>
+      <c r="AZ119">
+        <v>7</v>
+      </c>
+      <c r="BA119">
+        <v>7</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>7</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7455978</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45606.52083333334</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>84</v>
+      </c>
+      <c r="H120" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>155</v>
+      </c>
+      <c r="P120" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.36</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>8.5</v>
+      </c>
+      <c r="AA120">
+        <v>3.9</v>
+      </c>
+      <c r="AB120">
+        <v>1.44</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>9</v>
+      </c>
+      <c r="AE120">
+        <v>1.3</v>
+      </c>
+      <c r="AF120">
+        <v>3.3</v>
+      </c>
+      <c r="AG120">
+        <v>2.15</v>
+      </c>
+      <c r="AH120">
+        <v>1.67</v>
+      </c>
+      <c r="AI120">
+        <v>2.38</v>
+      </c>
+      <c r="AJ120">
+        <v>1.53</v>
+      </c>
+      <c r="AK120">
+        <v>2.6</v>
+      </c>
+      <c r="AL120">
+        <v>1.17</v>
+      </c>
+      <c r="AM120">
+        <v>1.06</v>
+      </c>
+      <c r="AN120">
+        <v>2.17</v>
+      </c>
+      <c r="AO120">
+        <v>3</v>
+      </c>
+      <c r="AP120">
+        <v>1.86</v>
+      </c>
+      <c r="AQ120">
+        <v>3</v>
+      </c>
+      <c r="AR120">
+        <v>1.59</v>
+      </c>
+      <c r="AS120">
+        <v>1.95</v>
+      </c>
+      <c r="AT120">
+        <v>3.54</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>8</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>15</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>10</v>
+      </c>
+      <c r="BC120">
+        <v>12</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
         <v>0</v>
       </c>
     </row>
